--- a/data/nzd0411/nzd0411.xlsx
+++ b/data/nzd0411/nzd0411.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE346"/>
+  <dimension ref="A1:AE350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29554,9 +29554,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>215.5290476190476</v>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr"/>
       <c r="M346" t="inlineStr"/>
       <c r="N346" t="inlineStr"/>
@@ -29582,6 +29580,342 @@
         </is>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:07:54+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>340.1057142857143</v>
+      </c>
+      <c r="C347" t="n">
+        <v>346.1830769230769</v>
+      </c>
+      <c r="D347" t="n">
+        <v>350.0776470588235</v>
+      </c>
+      <c r="E347" t="n">
+        <v>361.3976470588235</v>
+      </c>
+      <c r="F347" t="n">
+        <v>379.7963157894737</v>
+      </c>
+      <c r="G347" t="n">
+        <v>379.445</v>
+      </c>
+      <c r="H347" t="n">
+        <v>375.9476470588235</v>
+      </c>
+      <c r="I347" t="n">
+        <v>391.745</v>
+      </c>
+      <c r="J347" t="n">
+        <v>387.2533333333333</v>
+      </c>
+      <c r="K347" t="n">
+        <v>367.3871428571428</v>
+      </c>
+      <c r="L347" t="inlineStr"/>
+      <c r="M347" t="inlineStr"/>
+      <c r="N347" t="inlineStr"/>
+      <c r="O347" t="inlineStr"/>
+      <c r="P347" t="inlineStr"/>
+      <c r="Q347" t="n">
+        <v>308.3330769230769</v>
+      </c>
+      <c r="R347" t="n">
+        <v>314.16</v>
+      </c>
+      <c r="S347" t="n">
+        <v>297.6430769230769</v>
+      </c>
+      <c r="T347" t="n">
+        <v>297.7257142857143</v>
+      </c>
+      <c r="U347" t="n">
+        <v>294.435</v>
+      </c>
+      <c r="V347" t="n">
+        <v>296.99</v>
+      </c>
+      <c r="W347" t="n">
+        <v>283.5957142857143</v>
+      </c>
+      <c r="X347" t="n">
+        <v>300.9571428571429</v>
+      </c>
+      <c r="Y347" t="n">
+        <v>297.5830769230769</v>
+      </c>
+      <c r="Z347" t="n">
+        <v>300.2276470588235</v>
+      </c>
+      <c r="AA347" t="n">
+        <v>303.2871428571428</v>
+      </c>
+      <c r="AB347" t="n">
+        <v>306.3</v>
+      </c>
+      <c r="AC347" t="n">
+        <v>310.28</v>
+      </c>
+      <c r="AD347" t="n">
+        <v>312.3833333333333</v>
+      </c>
+      <c r="AE347" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>347.5128571428572</v>
+      </c>
+      <c r="C348" t="n">
+        <v>351.4576923076923</v>
+      </c>
+      <c r="D348" t="n">
+        <v>369.3288235294117</v>
+      </c>
+      <c r="E348" t="n">
+        <v>363.2688235294117</v>
+      </c>
+      <c r="F348" t="n">
+        <v>382.69</v>
+      </c>
+      <c r="G348" t="n">
+        <v>371.47</v>
+      </c>
+      <c r="H348" t="n">
+        <v>374.9688235294118</v>
+      </c>
+      <c r="I348" t="n">
+        <v>386.39</v>
+      </c>
+      <c r="J348" t="n">
+        <v>385.4455555555555</v>
+      </c>
+      <c r="K348" t="n">
+        <v>367.5719047619048</v>
+      </c>
+      <c r="L348" t="n">
+        <v>352.92</v>
+      </c>
+      <c r="M348" t="n">
+        <v>338.6938461538461</v>
+      </c>
+      <c r="N348" t="n">
+        <v>326.39</v>
+      </c>
+      <c r="O348" t="n">
+        <v>322.1766666666667</v>
+      </c>
+      <c r="P348" t="n">
+        <v>315.3719047619048</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>314.8576923076923</v>
+      </c>
+      <c r="R348" t="n">
+        <v>307.9533333333333</v>
+      </c>
+      <c r="S348" t="n">
+        <v>306.9076923076923</v>
+      </c>
+      <c r="T348" t="n">
+        <v>300.6128571428572</v>
+      </c>
+      <c r="U348" t="n">
+        <v>305.83</v>
+      </c>
+      <c r="V348" t="n">
+        <v>296.1518181818182</v>
+      </c>
+      <c r="W348" t="n">
+        <v>250.8028571428572</v>
+      </c>
+      <c r="X348" t="inlineStr"/>
+      <c r="Y348" t="inlineStr"/>
+      <c r="Z348" t="inlineStr"/>
+      <c r="AA348" t="inlineStr"/>
+      <c r="AB348" t="inlineStr"/>
+      <c r="AC348" t="inlineStr"/>
+      <c r="AD348" t="inlineStr"/>
+      <c r="AE348" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>328.54</v>
+      </c>
+      <c r="C349" t="n">
+        <v>338.0584615384616</v>
+      </c>
+      <c r="D349" t="n">
+        <v>341.1288235294118</v>
+      </c>
+      <c r="E349" t="n">
+        <v>356.1088235294118</v>
+      </c>
+      <c r="F349" t="n">
+        <v>367.918947368421</v>
+      </c>
+      <c r="G349" t="n">
+        <v>366.31</v>
+      </c>
+      <c r="H349" t="n">
+        <v>364.2588235294118</v>
+      </c>
+      <c r="I349" t="n">
+        <v>368.7</v>
+      </c>
+      <c r="J349" t="n">
+        <v>363.1633333333333</v>
+      </c>
+      <c r="K349" t="n">
+        <v>358.86</v>
+      </c>
+      <c r="L349" t="n">
+        <v>334.89</v>
+      </c>
+      <c r="M349" t="n">
+        <v>327.4192307692308</v>
+      </c>
+      <c r="N349" t="n">
+        <v>322.95</v>
+      </c>
+      <c r="O349" t="n">
+        <v>330.03</v>
+      </c>
+      <c r="P349" t="n">
+        <v>315.52</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>305.6484615384616</v>
+      </c>
+      <c r="R349" t="n">
+        <v>303.59</v>
+      </c>
+      <c r="S349" t="n">
+        <v>294.6184615384616</v>
+      </c>
+      <c r="T349" t="n">
+        <v>297.91</v>
+      </c>
+      <c r="U349" t="n">
+        <v>292.91</v>
+      </c>
+      <c r="V349" t="n">
+        <v>290.4036363636364</v>
+      </c>
+      <c r="W349" t="n">
+        <v>291.4</v>
+      </c>
+      <c r="X349" t="n">
+        <v>292.87</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>293.8584615384615</v>
+      </c>
+      <c r="Z349" t="n">
+        <v>301.1188235294118</v>
+      </c>
+      <c r="AA349" t="n">
+        <v>303.25</v>
+      </c>
+      <c r="AB349" t="inlineStr"/>
+      <c r="AC349" t="inlineStr"/>
+      <c r="AD349" t="inlineStr"/>
+      <c r="AE349" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:41+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr"/>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
+      <c r="M350" t="inlineStr"/>
+      <c r="N350" t="n">
+        <v>296.09</v>
+      </c>
+      <c r="O350" t="n">
+        <v>293.81</v>
+      </c>
+      <c r="P350" t="n">
+        <v>289.33</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>278.89</v>
+      </c>
+      <c r="R350" t="n">
+        <v>299.57</v>
+      </c>
+      <c r="S350" t="n">
+        <v>288.11</v>
+      </c>
+      <c r="T350" t="n">
+        <v>284.92</v>
+      </c>
+      <c r="U350" t="n">
+        <v>287.12</v>
+      </c>
+      <c r="V350" t="n">
+        <v>282.31</v>
+      </c>
+      <c r="W350" t="n">
+        <v>287.07</v>
+      </c>
+      <c r="X350" t="n">
+        <v>274.57</v>
+      </c>
+      <c r="Y350" t="inlineStr"/>
+      <c r="Z350" t="inlineStr"/>
+      <c r="AA350" t="inlineStr"/>
+      <c r="AB350" t="n">
+        <v>267.66</v>
+      </c>
+      <c r="AC350" t="n">
+        <v>272.24</v>
+      </c>
+      <c r="AD350" t="n">
+        <v>298.32</v>
+      </c>
+      <c r="AE350" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29593,7 +29927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B358"/>
+  <dimension ref="A1:B362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33181,6 +33515,46 @@
       </c>
       <c r="B358" t="n">
         <v>0.17</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -33349,28 +33723,28 @@
         <v>0.1061</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06481423699329418</v>
+        <v>-0.04197743469341392</v>
       </c>
       <c r="J2" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K2" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003294786464120847</v>
+        <v>0.0001407625312501715</v>
       </c>
       <c r="M2" t="n">
-        <v>18.26717978546875</v>
+        <v>18.15516977199812</v>
       </c>
       <c r="N2" t="n">
-        <v>702.4865404126463</v>
+        <v>696.9870301329624</v>
       </c>
       <c r="O2" t="n">
-        <v>26.50446265089421</v>
+        <v>26.40051192937293</v>
       </c>
       <c r="P2" t="n">
-        <v>328.8602107168757</v>
+        <v>328.6390793910916</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -33426,28 +33800,28 @@
         <v>0.078</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01933638622754896</v>
+        <v>0.03232080170406223</v>
       </c>
       <c r="J3" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K3" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001136495002885818</v>
+        <v>0.0003230039855098843</v>
       </c>
       <c r="M3" t="n">
-        <v>10.58840860096978</v>
+        <v>10.55001523530957</v>
       </c>
       <c r="N3" t="n">
-        <v>182.3363569720599</v>
+        <v>181.1699826485588</v>
       </c>
       <c r="O3" t="n">
-        <v>13.50319802758072</v>
+        <v>13.45993991994611</v>
       </c>
       <c r="P3" t="n">
-        <v>338.192966267758</v>
+        <v>338.0690910753208</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -33503,28 +33877,28 @@
         <v>0.1061</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04312936729527551</v>
+        <v>-0.02237538963363044</v>
       </c>
       <c r="J4" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K4" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005160767961405188</v>
+        <v>0.0001400957902852884</v>
       </c>
       <c r="M4" t="n">
-        <v>11.05170854742746</v>
+        <v>11.05250877735414</v>
       </c>
       <c r="N4" t="n">
-        <v>203.5524916261299</v>
+        <v>204.0405016305819</v>
       </c>
       <c r="O4" t="n">
-        <v>14.26718232960278</v>
+        <v>14.28427462738594</v>
       </c>
       <c r="P4" t="n">
-        <v>343.8583618779359</v>
+        <v>343.663026301518</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -33580,28 +33954,28 @@
         <v>0.1011</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01864496003908337</v>
+        <v>0.03284740021900222</v>
       </c>
       <c r="J5" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K5" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L5" t="n">
-        <v>8.744619682121701e-05</v>
+        <v>0.0002764777027143284</v>
       </c>
       <c r="M5" t="n">
-        <v>11.87137994301733</v>
+        <v>11.82162330691355</v>
       </c>
       <c r="N5" t="n">
-        <v>226.6577141408533</v>
+        <v>224.9059160872723</v>
       </c>
       <c r="O5" t="n">
-        <v>15.05515573286618</v>
+        <v>14.99686354166338</v>
       </c>
       <c r="P5" t="n">
-        <v>352.5249908095895</v>
+        <v>352.3927060536902</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -33657,28 +34031,28 @@
         <v>0.1162</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1430622008745434</v>
+        <v>-0.1105237068687367</v>
       </c>
       <c r="J6" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K6" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003641153679578402</v>
+        <v>0.002204114904315935</v>
       </c>
       <c r="M6" t="n">
-        <v>12.96378029416674</v>
+        <v>12.97275025313915</v>
       </c>
       <c r="N6" t="n">
-        <v>316.435408781865</v>
+        <v>316.0581638408818</v>
       </c>
       <c r="O6" t="n">
-        <v>17.78863144769335</v>
+        <v>17.77802474519826</v>
       </c>
       <c r="P6" t="n">
-        <v>364.6373033103659</v>
+        <v>364.3319992827257</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -33734,28 +34108,28 @@
         <v>0.1021</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2829708567156339</v>
+        <v>-0.253515666565761</v>
       </c>
       <c r="J7" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K7" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01501514598740672</v>
+        <v>0.0122648961691999</v>
       </c>
       <c r="M7" t="n">
-        <v>12.46339404250932</v>
+        <v>12.47319072950928</v>
       </c>
       <c r="N7" t="n">
-        <v>294.9768176634291</v>
+        <v>294.1665284273471</v>
       </c>
       <c r="O7" t="n">
-        <v>17.17488916014974</v>
+        <v>17.15128357958515</v>
       </c>
       <c r="P7" t="n">
-        <v>365.4925615144356</v>
+        <v>365.2165272087149</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -33811,28 +34185,28 @@
         <v>0.1072</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5422084183030865</v>
+        <v>-0.5121123590216515</v>
       </c>
       <c r="J8" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K8" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04575787716940105</v>
+        <v>0.04150289990532929</v>
       </c>
       <c r="M8" t="n">
-        <v>13.73840536437685</v>
+        <v>13.72788072537686</v>
       </c>
       <c r="N8" t="n">
-        <v>349.05681870312</v>
+        <v>348.2193619760347</v>
       </c>
       <c r="O8" t="n">
-        <v>18.68306234810343</v>
+        <v>18.66063669803457</v>
       </c>
       <c r="P8" t="n">
-        <v>369.7226880064869</v>
+        <v>369.4373640551175</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -33888,28 +34262,28 @@
         <v>0.0983</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2845260323285134</v>
+        <v>-0.2440339875174996</v>
       </c>
       <c r="J9" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K9" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01924173766878123</v>
+        <v>0.01416759010772306</v>
       </c>
       <c r="M9" t="n">
-        <v>11.80946580132851</v>
+        <v>11.88841735245802</v>
       </c>
       <c r="N9" t="n">
-        <v>234.8432490266672</v>
+        <v>238.0927359070405</v>
       </c>
       <c r="O9" t="n">
-        <v>15.32459621088488</v>
+        <v>15.43025391583173</v>
       </c>
       <c r="P9" t="n">
-        <v>367.9978883637279</v>
+        <v>367.6130482203012</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -33965,28 +34339,28 @@
         <v>0.1201</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2462207568157605</v>
+        <v>-0.2158649108400321</v>
       </c>
       <c r="J10" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K10" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01391012274094316</v>
+        <v>0.01081074133836923</v>
       </c>
       <c r="M10" t="n">
-        <v>11.94121543223534</v>
+        <v>11.96959034504545</v>
       </c>
       <c r="N10" t="n">
-        <v>244.1590459557675</v>
+        <v>245.0793801470988</v>
       </c>
       <c r="O10" t="n">
-        <v>15.62558945946576</v>
+        <v>15.65501134292463</v>
       </c>
       <c r="P10" t="n">
-        <v>370.2479678003722</v>
+        <v>369.9652130549509</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -34042,28 +34416,28 @@
         <v>0.1398</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.39073629914529</v>
+        <v>-0.2762848816075051</v>
       </c>
       <c r="J11" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K11" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02470551200116133</v>
+        <v>0.01610484491938524</v>
       </c>
       <c r="M11" t="n">
-        <v>13.22467637023106</v>
+        <v>12.5989432493447</v>
       </c>
       <c r="N11" t="n">
-        <v>348.6262836485353</v>
+        <v>271.7187762516014</v>
       </c>
       <c r="O11" t="n">
-        <v>18.67153672434423</v>
+        <v>16.4838944503901</v>
       </c>
       <c r="P11" t="n">
-        <v>365.1840671757052</v>
+        <v>364.118669085909</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -34119,28 +34493,28 @@
         <v>0.1417</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1096454760240098</v>
+        <v>-0.1236090839999386</v>
       </c>
       <c r="J12" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K12" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00267548825509567</v>
+        <v>0.003429964229283877</v>
       </c>
       <c r="M12" t="n">
-        <v>11.80632850509016</v>
+        <v>11.79437394969653</v>
       </c>
       <c r="N12" t="n">
-        <v>258.5680181726907</v>
+        <v>257.9439487884136</v>
       </c>
       <c r="O12" t="n">
-        <v>16.08005031623629</v>
+        <v>16.0606335114283</v>
       </c>
       <c r="P12" t="n">
-        <v>356.6555446960413</v>
+        <v>356.7881083507034</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -34196,28 +34570,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.251803181989771</v>
+        <v>0.2238488049427076</v>
       </c>
       <c r="J13" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K13" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01371947459498235</v>
+        <v>0.01089524590429247</v>
       </c>
       <c r="M13" t="n">
-        <v>12.18687842925302</v>
+        <v>12.2420460734996</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1266336473603</v>
+        <v>257.4512827718796</v>
       </c>
       <c r="O13" t="n">
-        <v>16.00395681221867</v>
+        <v>16.04528849138836</v>
       </c>
       <c r="P13" t="n">
-        <v>346.9237000567896</v>
+        <v>347.1922066958908</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -34273,28 +34647,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5760875146486015</v>
+        <v>0.4978513181203191</v>
       </c>
       <c r="J14" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K14" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05515385780328264</v>
+        <v>0.04048264522565914</v>
       </c>
       <c r="M14" t="n">
-        <v>13.80448518442796</v>
+        <v>14.05833159571386</v>
       </c>
       <c r="N14" t="n">
-        <v>312.0621048723098</v>
+        <v>325.9051951490987</v>
       </c>
       <c r="O14" t="n">
-        <v>17.66527964319585</v>
+        <v>18.05284451683719</v>
       </c>
       <c r="P14" t="n">
-        <v>338.0100755904611</v>
+        <v>338.7784955147942</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -34350,28 +34724,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6170832710124593</v>
+        <v>0.5414934938460272</v>
       </c>
       <c r="J15" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K15" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06096751076534757</v>
+        <v>0.04623511081482501</v>
       </c>
       <c r="M15" t="n">
-        <v>14.16044167373004</v>
+        <v>14.36247095096772</v>
       </c>
       <c r="N15" t="n">
-        <v>322.2829757714985</v>
+        <v>335.8886041458521</v>
       </c>
       <c r="O15" t="n">
-        <v>17.95224152498786</v>
+        <v>18.32726395689908</v>
       </c>
       <c r="P15" t="n">
-        <v>336.4394639708655</v>
+        <v>337.1808649448283</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -34427,28 +34801,28 @@
         <v>0.1534</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5608754885091893</v>
+        <v>0.4780144083905277</v>
       </c>
       <c r="J16" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K16" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04438457417938446</v>
+        <v>0.03184218734216571</v>
       </c>
       <c r="M16" t="n">
-        <v>14.74006446703427</v>
+        <v>14.97155652375978</v>
       </c>
       <c r="N16" t="n">
-        <v>374.3335379563865</v>
+        <v>388.3942184585501</v>
       </c>
       <c r="O16" t="n">
-        <v>19.34770110262163</v>
+        <v>19.70771976811498</v>
       </c>
       <c r="P16" t="n">
-        <v>331.3637341312633</v>
+        <v>332.1662566801459</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -34504,28 +34878,28 @@
         <v>0.1082</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4483554026545173</v>
+        <v>0.3404416992873498</v>
       </c>
       <c r="J17" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K17" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01512356083184074</v>
+        <v>0.00877587317248929</v>
       </c>
       <c r="M17" t="n">
-        <v>17.55256561057938</v>
+        <v>17.90761117699057</v>
       </c>
       <c r="N17" t="n">
-        <v>709.2849589983203</v>
+        <v>720.7210154725382</v>
       </c>
       <c r="O17" t="n">
-        <v>26.63240430374848</v>
+        <v>26.84624769818937</v>
       </c>
       <c r="P17" t="n">
-        <v>326.6365667195404</v>
+        <v>327.693618758457</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -34581,28 +34955,28 @@
         <v>0.1029</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3369001573052119</v>
+        <v>0.239525012920971</v>
       </c>
       <c r="J18" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K18" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01346329662164347</v>
+        <v>0.006824379809573067</v>
       </c>
       <c r="M18" t="n">
-        <v>14.0232728711408</v>
+        <v>14.31750544053428</v>
       </c>
       <c r="N18" t="n">
-        <v>450.2404840259035</v>
+        <v>459.3677176346725</v>
       </c>
       <c r="O18" t="n">
-        <v>21.21887094135556</v>
+        <v>21.4328653622112</v>
       </c>
       <c r="P18" t="n">
-        <v>329.992974561969</v>
+        <v>330.94728443268</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -34658,28 +35032,28 @@
         <v>0.0912</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5066666404505258</v>
+        <v>0.3908506990930788</v>
       </c>
       <c r="J19" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K19" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05385808288225835</v>
+        <v>0.03090216628985898</v>
       </c>
       <c r="M19" t="n">
-        <v>12.47885214103303</v>
+        <v>12.8384984951178</v>
       </c>
       <c r="N19" t="n">
-        <v>252.5967706856268</v>
+        <v>272.6195431757503</v>
       </c>
       <c r="O19" t="n">
-        <v>15.89329326117236</v>
+        <v>16.51119448058651</v>
       </c>
       <c r="P19" t="n">
-        <v>322.8987548053531</v>
+        <v>324.0067994054168</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -34735,28 +35109,28 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4874173670626473</v>
+        <v>0.3936115221797698</v>
       </c>
       <c r="J20" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K20" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L20" t="n">
-        <v>0.057642534455699</v>
+        <v>0.03684352543120406</v>
       </c>
       <c r="M20" t="n">
-        <v>11.66255652701296</v>
+        <v>11.98688693269602</v>
       </c>
       <c r="N20" t="n">
-        <v>228.4816901540007</v>
+        <v>241.8312203523025</v>
       </c>
       <c r="O20" t="n">
-        <v>15.11561080982177</v>
+        <v>15.55092345657654</v>
       </c>
       <c r="P20" t="n">
-        <v>315.4072803717908</v>
+        <v>316.2768523132179</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -34812,28 +35186,28 @@
         <v>0.1149</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6411201956691948</v>
+        <v>0.551196863117044</v>
       </c>
       <c r="J21" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K21" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05279888744977268</v>
+        <v>0.03940523581443955</v>
       </c>
       <c r="M21" t="n">
-        <v>14.22772918035157</v>
+        <v>14.45847320959399</v>
       </c>
       <c r="N21" t="n">
-        <v>422.2401852133053</v>
+        <v>430.7190507078399</v>
       </c>
       <c r="O21" t="n">
-        <v>20.54848376920559</v>
+        <v>20.75377196337668</v>
       </c>
       <c r="P21" t="n">
-        <v>309.5007609515643</v>
+        <v>310.3479073325121</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -34889,28 +35263,28 @@
         <v>0.0694</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2439055547974376</v>
+        <v>0.1561532447009034</v>
       </c>
       <c r="J22" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K22" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01141864667418302</v>
+        <v>0.004638100535527712</v>
       </c>
       <c r="M22" t="n">
-        <v>13.7373827466151</v>
+        <v>13.98880595746358</v>
       </c>
       <c r="N22" t="n">
-        <v>290.6761455365129</v>
+        <v>299.9484240800676</v>
       </c>
       <c r="O22" t="n">
-        <v>17.04922712431602</v>
+        <v>17.31901914312897</v>
       </c>
       <c r="P22" t="n">
-        <v>314.5842260935211</v>
+        <v>315.423399408468</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -34966,28 +35340,28 @@
         <v>0.09859999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1298078602663585</v>
+        <v>0.01097564983313198</v>
       </c>
       <c r="J23" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K23" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L23" t="n">
-        <v>0.003607800809660278</v>
+        <v>2.398784983626001e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>12.5322531307123</v>
+        <v>13.04481282100155</v>
       </c>
       <c r="N23" t="n">
-        <v>266.3408414686045</v>
+        <v>291.8122199326153</v>
       </c>
       <c r="O23" t="n">
-        <v>16.31995225080651</v>
+        <v>17.08251210837022</v>
       </c>
       <c r="P23" t="n">
-        <v>315.4774617263931</v>
+        <v>316.6004737452849</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -35043,28 +35417,28 @@
         <v>0.1676</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1180011112754395</v>
+        <v>0.05018389484706151</v>
       </c>
       <c r="J24" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K24" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L24" t="n">
-        <v>0.003395972339541364</v>
+        <v>0.0005998906339879095</v>
       </c>
       <c r="M24" t="n">
-        <v>11.58103890663636</v>
+        <v>11.7987815348177</v>
       </c>
       <c r="N24" t="n">
-        <v>231.4708973554736</v>
+        <v>240.6042326869419</v>
       </c>
       <c r="O24" t="n">
-        <v>15.21416765240457</v>
+        <v>15.51142265193434</v>
       </c>
       <c r="P24" t="n">
-        <v>316.148076054211</v>
+        <v>316.7922596628687</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -35120,28 +35494,28 @@
         <v>0.1021</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1091428235635953</v>
+        <v>0.07217144071929354</v>
       </c>
       <c r="J25" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K25" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L25" t="n">
-        <v>0.003064458179264928</v>
+        <v>0.001338060462635848</v>
       </c>
       <c r="M25" t="n">
-        <v>11.31514708645073</v>
+        <v>11.42702763783232</v>
       </c>
       <c r="N25" t="n">
-        <v>221.8637856427992</v>
+        <v>224.4371796019116</v>
       </c>
       <c r="O25" t="n">
-        <v>14.89509266982919</v>
+        <v>14.98122757326353</v>
       </c>
       <c r="P25" t="n">
-        <v>315.77669333362</v>
+        <v>316.1261513874713</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -35197,28 +35571,28 @@
         <v>0.1086</v>
       </c>
       <c r="I26" t="n">
-        <v>0.08170014714370732</v>
+        <v>0.05375342224284151</v>
       </c>
       <c r="J26" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K26" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001788870595020309</v>
+        <v>0.0007783493170714362</v>
       </c>
       <c r="M26" t="n">
-        <v>11.28473366400427</v>
+        <v>11.35669939123168</v>
       </c>
       <c r="N26" t="n">
-        <v>217.7666453323888</v>
+        <v>218.6242418697578</v>
       </c>
       <c r="O26" t="n">
-        <v>14.75691855816751</v>
+        <v>14.78594744579318</v>
       </c>
       <c r="P26" t="n">
-        <v>316.6271486250514</v>
+        <v>316.8867997563839</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -35274,28 +35648,28 @@
         <v>0.1437</v>
       </c>
       <c r="I27" t="n">
-        <v>0.234538520669566</v>
+        <v>0.2076525190996198</v>
       </c>
       <c r="J27" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K27" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L27" t="n">
-        <v>0.005135275498075353</v>
+        <v>0.004082994123394856</v>
       </c>
       <c r="M27" t="n">
-        <v>12.2978531068539</v>
+        <v>12.34543915735478</v>
       </c>
       <c r="N27" t="n">
-        <v>615.7506312459689</v>
+        <v>612.7865958112235</v>
       </c>
       <c r="O27" t="n">
-        <v>24.8143231067456</v>
+        <v>24.75452677413211</v>
       </c>
       <c r="P27" t="n">
-        <v>314.185748733885</v>
+        <v>314.4375832563954</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -35351,28 +35725,28 @@
         <v>0.1558</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.05124508836828744</v>
+        <v>-0.09981894347572765</v>
       </c>
       <c r="J28" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K28" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0005448278748734214</v>
+        <v>0.002011661427419154</v>
       </c>
       <c r="M28" t="n">
-        <v>11.35216479123954</v>
+        <v>11.54164046807715</v>
       </c>
       <c r="N28" t="n">
-        <v>286.6850481099351</v>
+        <v>296.2390199768612</v>
       </c>
       <c r="O28" t="n">
-        <v>16.9317762833654</v>
+        <v>17.21159550933211</v>
       </c>
       <c r="P28" t="n">
-        <v>320.4967308073796</v>
+        <v>320.9514711829081</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -35428,28 +35802,28 @@
         <v>0.1987</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.08456793134779811</v>
+        <v>-0.1305490417541433</v>
       </c>
       <c r="J29" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K29" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L29" t="n">
-        <v>0.002612980219918626</v>
+        <v>0.005916769853255288</v>
       </c>
       <c r="M29" t="n">
-        <v>9.333694454870702</v>
+        <v>9.52826976268555</v>
       </c>
       <c r="N29" t="n">
-        <v>157.6047012991864</v>
+        <v>166.6614456444282</v>
       </c>
       <c r="O29" t="n">
-        <v>12.55407110459338</v>
+        <v>12.90974227645262</v>
       </c>
       <c r="P29" t="n">
-        <v>323.8051797868821</v>
+        <v>324.2356911507378</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -35505,28 +35879,28 @@
         <v>0.1121</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.07575014876942338</v>
+        <v>-0.1028162689603742</v>
       </c>
       <c r="J30" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K30" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L30" t="n">
-        <v>0.002168789910851898</v>
+        <v>0.003973160617495197</v>
       </c>
       <c r="M30" t="n">
-        <v>9.40481116824027</v>
+        <v>9.493645409763523</v>
       </c>
       <c r="N30" t="n">
-        <v>149.4799740075886</v>
+        <v>151.2755116383311</v>
       </c>
       <c r="O30" t="n">
-        <v>12.22620030948244</v>
+        <v>12.29941102810745</v>
       </c>
       <c r="P30" t="n">
-        <v>325.6641720755846</v>
+        <v>325.9195620910838</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -35563,7 +35937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE346"/>
+  <dimension ref="A1:AE350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79531,11 +79905,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>-42.902016404927544,173.29250235989858</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr"/>
       <c r="M346" t="inlineStr"/>
       <c r="N346" t="inlineStr"/>
@@ -79561,6 +79931,514 @@
         </is>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:07:54+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>-42.89825550804297,173.299289219855</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>-42.89871895465787,173.29864723057563</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>-42.89916734131593,173.2979880552989</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>-42.89966675594892,173.2973876313147</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>-42.900195642307104,173.29687567479442</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>-42.90068579694891,173.29633931849236</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>-42.90118123380725,173.29574646171525</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>-42.90178443990181,173.2953389885946</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>-42.90225378339291,173.29475655810631</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>-42.90270738568541,173.294107575947</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr"/>
+      <c r="M347" t="inlineStr"/>
+      <c r="N347" t="inlineStr"/>
+      <c r="O347" t="inlineStr"/>
+      <c r="P347" t="inlineStr"/>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>-42.90580681796974,173.29073508698707</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>-42.90636815058316,173.2902779291596</t>
+        </is>
+      </c>
+      <c r="S347" t="inlineStr">
+        <is>
+          <t>-42.90681188108143,173.28959889362773</t>
+        </is>
+      </c>
+      <c r="T347" t="inlineStr">
+        <is>
+          <t>-42.90732223663989,173.28906401318176</t>
+        </is>
+      </c>
+      <c r="U347" t="inlineStr">
+        <is>
+          <t>-42.90780936208575,173.28847080525827</t>
+        </is>
+      </c>
+      <c r="V347" t="inlineStr">
+        <is>
+          <t>-42.90833418924351,173.2879281619517</t>
+        </is>
+      </c>
+      <c r="W347" t="inlineStr">
+        <is>
+          <t>-42.908768680830576,173.2872336139799</t>
+        </is>
+      </c>
+      <c r="X347" t="inlineStr">
+        <is>
+          <t>-42.90937724365032,173.2868321208958</t>
+        </is>
+      </c>
+      <c r="Y347" t="inlineStr">
+        <is>
+          <t>-42.90986375866626,173.28623754657042</t>
+        </is>
+      </c>
+      <c r="Z347" t="inlineStr">
+        <is>
+          <t>-42.91037428780805,173.28568215310105</t>
+        </is>
+      </c>
+      <c r="AA347" t="inlineStr">
+        <is>
+          <t>-42.910891471160504,173.28512566024585</t>
+        </is>
+      </c>
+      <c r="AB347" t="inlineStr">
+        <is>
+          <t>-42.91140837805402,173.2845687329816</t>
+        </is>
+      </c>
+      <c r="AC347" t="inlineStr">
+        <is>
+          <t>-42.911930934003834,173.2840208195416</t>
+        </is>
+      </c>
+      <c r="AD347" t="inlineStr">
+        <is>
+          <t>-42.912442517039516,173.28345541619683</t>
+        </is>
+      </c>
+      <c r="AE347" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>-42.898306603894575,173.29934753943581</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>-42.89875534008925,173.29868875992096</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>-42.899300140562445,173.298139628613</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>-42.89967964093096,173.29740240099514</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>-42.900213758328135,173.29690115209735</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>-42.900641251722305,173.2962626953486</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>-42.90117576645195,173.29573705721387</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>-42.90175452869589,173.2952875375717</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>-42.90224458629293,173.29473828675006</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>-42.902708226370414,173.29410952899457</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>-42.90320900846181,173.2935001303318</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>-42.9037120408322,173.29289499106534</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>-42.90422378465175,173.29231019352355</t>
+        </is>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>-42.90477221316059,173.29181101578973</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>-42.90530294133093,173.29128944862552</t>
+        </is>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>-42.90583982353585,173.2908012104728</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>-42.90633589473958,173.29021583654375</t>
+        </is>
+      </c>
+      <c r="S348" t="inlineStr">
+        <is>
+          <t>-42.90686131114246,173.2896903217579</t>
+        </is>
+      </c>
+      <c r="T348" t="inlineStr">
+        <is>
+          <t>-42.9073383130426,173.2890918092976</t>
+        </is>
+      </c>
+      <c r="U348" t="inlineStr">
+        <is>
+          <t>-42.907873898821386,173.28857933319372</t>
+        </is>
+      </c>
+      <c r="V348" t="inlineStr">
+        <is>
+          <t>-42.90832944208738,173.2879201789325</t>
+        </is>
+      </c>
+      <c r="W348" t="inlineStr">
+        <is>
+          <t>-42.90858295224996,173.2869212881727</t>
+        </is>
+      </c>
+      <c r="X348" t="inlineStr"/>
+      <c r="Y348" t="inlineStr"/>
+      <c r="Z348" t="inlineStr"/>
+      <c r="AA348" t="inlineStr"/>
+      <c r="AB348" t="inlineStr"/>
+      <c r="AC348" t="inlineStr"/>
+      <c r="AD348" t="inlineStr"/>
+      <c r="AE348" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>-42.89817572552989,173.29919815826838</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>-42.89866290928331,173.29858326203407</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>-42.89910561010838,173.29791759734147</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>-42.899630336927494,173.29734588529436</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>-42.90012128352589,173.2967711012338</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>-42.90061242995552,173.2962131185519</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>-42.90111594420264,173.29563415602638</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>-42.901655718215125,173.2951175718008</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>-42.90213122486888,173.29451307897287</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>-42.9026685863031,173.29401743883258</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>-42.90312724376855,173.29330932324476</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>-42.90366091086654,173.29277567390727</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>-42.90420818425454,173.29227378842975</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>-42.90480782822753,173.29189412725017</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>-42.905303641541124,173.29129099259336</t>
+        </is>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>-42.90579323750277,173.29070787986706</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>-42.90631321861862,173.2901721850067</t>
+        </is>
+      </c>
+      <c r="S349" t="inlineStr">
+        <is>
+          <t>-42.90679574365261,173.28956904515317</t>
+        </is>
+      </c>
+      <c r="T349" t="inlineStr">
+        <is>
+          <t>-42.907323262793454,173.2890657874015</t>
+        </is>
+      </c>
+      <c r="U349" t="inlineStr">
+        <is>
+          <t>-42.907800725086034,173.28845628091375</t>
+        </is>
+      </c>
+      <c r="V349" t="inlineStr">
+        <is>
+          <t>-42.908296886466786,173.28786543207778</t>
+        </is>
+      </c>
+      <c r="W349" t="inlineStr">
+        <is>
+          <t>-42.90881288175917,173.2873079438523</t>
+        </is>
+      </c>
+      <c r="X349" t="inlineStr">
+        <is>
+          <t>-42.909331419872714,173.2867551192667</t>
+        </is>
+      </c>
+      <c r="Y349" t="inlineStr">
+        <is>
+          <t>-42.90984231491069,173.2862024609528</t>
+        </is>
+      </c>
+      <c r="Z349" t="inlineStr">
+        <is>
+          <t>-42.91037949662676,173.28569045856892</t>
+        </is>
+      </c>
+      <c r="AA349" t="inlineStr">
+        <is>
+          <t>-42.9108912540639,173.28512531408518</t>
+        </is>
+      </c>
+      <c r="AB349" t="inlineStr"/>
+      <c r="AC349" t="inlineStr"/>
+      <c r="AD349" t="inlineStr"/>
+      <c r="AE349" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:41+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr"/>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
+      <c r="M350" t="inlineStr"/>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>-42.904086373774966,173.29198953300738</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>-42.90464356909702,173.29151081347445</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>-42.9051798120828,173.29101794912552</t>
+        </is>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>-42.905657876078685,173.2904366980328</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>-42.90629232677648,173.29013196826358</t>
+        </is>
+      </c>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>-42.906761018604215,173.28950481632927</t>
+        </is>
+      </c>
+      <c r="T350" t="inlineStr">
+        <is>
+          <t>-42.90725093083074,173.28894072568525</t>
+        </is>
+      </c>
+      <c r="U350" t="inlineStr">
+        <is>
+          <t>-42.907767932788076,173.28840113606222</t>
+        </is>
+      </c>
+      <c r="V350" t="inlineStr">
+        <is>
+          <t>-42.90825104699589,173.28778834673372</t>
+        </is>
+      </c>
+      <c r="W350" t="inlineStr">
+        <is>
+          <t>-42.90878835805761,173.28726670388986</t>
+        </is>
+      </c>
+      <c r="X350" t="inlineStr">
+        <is>
+          <t>-42.909227727294,173.28658087646747</t>
+        </is>
+      </c>
+      <c r="Y350" t="inlineStr"/>
+      <c r="Z350" t="inlineStr"/>
+      <c r="AA350" t="inlineStr"/>
+      <c r="AB350" t="inlineStr">
+        <is>
+          <t>-42.9111825290808,173.28420861901037</t>
+        </is>
+      </c>
+      <c r="AC350" t="inlineStr">
+        <is>
+          <t>-42.91170859092733,173.28366629565298</t>
+        </is>
+      </c>
+      <c r="AD350" t="inlineStr">
+        <is>
+          <t>-42.912360316832476,173.28332434833507</t>
+        </is>
+      </c>
+      <c r="AE350" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0411/nzd0411.xlsx
+++ b/data/nzd0411/nzd0411.xlsx
@@ -33568,7 +33568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33659,35 +33659,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -33746,27 +33751,28 @@
       <c r="P2" t="n">
         <v>328.6390793910916</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.29661152695965 -42.895909362650166, 173.30364062641306 -42.9020676140182)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.2966115269597</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-42.89590936265017</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.3036406264131</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-42.9020676140182</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.3001260766864</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-42.89898848833418</v>
       </c>
     </row>
@@ -33823,27 +33829,28 @@
       <c r="P3" t="n">
         <v>338.0690910753208</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.29592168722147 -42.89633087556834, 173.3029507730795 -42.902489141341256)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.2959216872215</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-42.89633087556834</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.3029507730795</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-42.90248914134126</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.2994362301505</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-42.89941000845479</v>
       </c>
     </row>
@@ -33900,27 +33907,28 @@
       <c r="P4" t="n">
         <v>343.663026301518</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.29523184748388 -42.89675238560502, 173.30226091974478 -42.90291066578279)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.2952318474839</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-42.89675238560502</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.3022609197448</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-42.90291066578279</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.2987463836143</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-42.89983152569391</v>
       </c>
     </row>
@@ -33977,27 +33985,28 @@
       <c r="P5" t="n">
         <v>352.3927060536902</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.2945351414943 -42.89717812338197, 173.30158188911824 -42.90332550749001)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.2945351414943</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-42.89717812338197</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.3015818891182</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-42.90332550749001</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.2980585153063</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-42.90025181543599</v>
       </c>
     </row>
@@ -34054,27 +34063,28 @@
       <c r="P6" t="n">
         <v>364.3319992827257</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.29353190591348 -42.89781786280718, 173.30139300805175 -42.90340750435508)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.2935319059135</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-42.89781786280718</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.3013930080517</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-42.90340750435508</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.2974624569826</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-42.90061268358113</v>
       </c>
     </row>
@@ -34131,27 +34141,28 @@
       <c r="P7" t="n">
         <v>365.2165272087149</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.2926937642793 -42.8985663082126, 173.30127322068088 -42.9035539000067)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.2926937642793</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-42.8985663082126</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.3012732206809</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-42.9035539000067</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.2969834924801</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-42.90106010410965</v>
       </c>
     </row>
@@ -34208,27 +34219,28 @@
       <c r="P8" t="n">
         <v>369.4373640551175</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.2921344923449 -42.899081268228294, 173.3007139667909 -42.90406887415475)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.2921344923449</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-42.89908126822829</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.3007139667909</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-42.90406887415475</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.2964242295679</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-42.90157507119152</v>
       </c>
     </row>
@@ -34285,27 +34297,28 @@
       <c r="P9" t="n">
         <v>367.6130482203012</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.29157522041072 -42.89959622394284, 173.30015471290037 -42.90458384400185)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.2915752204107</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-42.89959622394284</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.3001547129004</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-42.90458384400185</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.2958649666555</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-42.90209003397234</v>
       </c>
     </row>
@@ -34362,27 +34375,28 @@
       <c r="P10" t="n">
         <v>369.9652130549509</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.29084268118459 -42.90028355821802, 173.29986846980583 -42.904826700719255)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.2908426811846</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-42.90028355821802</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.2998684698058</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-42.90482670071925</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.2953555754952</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-42.90255512946864</v>
       </c>
     </row>
@@ -34439,27 +34453,28 @@
       <c r="P11" t="n">
         <v>364.118669085909</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.29022417143779 -42.901035671291204, 173.29966460947887 -42.905099170253195)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.2902241714378</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-42.9010356712912</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.2996646094789</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-42.90509917025319</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.2949443904583</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-42.9030674207722</v>
       </c>
     </row>
@@ -34516,27 +34531,28 @@
       <c r="P12" t="n">
         <v>356.7881083507034</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.28976535561915 -42.901608484525894, 173.29921665637897 -42.90565840670063)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.2897653556192</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-42.90160848452589</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.299216656379</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-42.90565840670063</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.2944910059991</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-42.90363344561327</v>
       </c>
     </row>
@@ -34593,27 +34609,28 @@
       <c r="P13" t="n">
         <v>347.1922066958908</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.2893107428943 -42.90217602201441, 173.29876208222984 -42.90622595676586)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.2893107428943</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-42.90217602201441</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.2987620822298</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-42.90622595676586</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.2940364125621</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-42.90420098939013</v>
       </c>
     </row>
@@ -34670,27 +34687,28 @@
       <c r="P14" t="n">
         <v>338.7784955147942</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (173.28885613016936 -42.90274355427817, 173.2983075080808 -42.9067935016066)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>173.2888561301694</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-42.90274355427817</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>173.2983075080808</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-42.9067935016066</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>173.2935818191251</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-42.90476852794238</v>
       </c>
     </row>
@@ -34747,27 +34765,28 @@
       <c r="P15" t="n">
         <v>337.1808649448283</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (173.28840151744438 -42.903311081317234, 173.29785293393178 -42.90736104122278)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>173.2884015174444</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-42.90331108131723</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>173.2978529339318</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-42.90736104122278</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>173.2931272256881</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-42.90533606127001</v>
       </c>
     </row>
@@ -34824,27 +34843,28 @@
       <c r="P16" t="n">
         <v>332.1662566801459</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (173.28800161596394 -42.903811781445796, 173.29731217040234 -42.90803404655181)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>173.2880016159639</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-42.9038117814458</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>173.2973121704023</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-42.90803404655181</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>173.2926568931831</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-42.90592291399881</v>
       </c>
     </row>
@@ -34901,27 +34921,28 @@
       <c r="P17" t="n">
         <v>327.693618758457</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (173.28761037655107 -42.90424703333265, 173.29666057900678 -42.90876423702602)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>173.2876103765511</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-42.90424703333265</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>173.2966605790068</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-42.90876423702602</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>173.2921354777789</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-42.90650563517934</v>
       </c>
     </row>
@@ -34978,27 +34999,28 @@
       <c r="P18" t="n">
         <v>330.94728443268</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (173.2871350968908 -42.90473542858733, 173.29606874966143 -42.909376066072035)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>173.2871350968908</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-42.90473542858733</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>173.2960687496614</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-42.90937606607203</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>173.2916019232761</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-42.90705574732968</v>
       </c>
     </row>
@@ -35055,27 +35077,28 @@
       <c r="P19" t="n">
         <v>324.0067994054168</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (173.2866616717917 -42.90522380871926, 173.29547399497721 -42.909987908317106)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>173.2866616717917</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-42.90522380871926</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>173.2954739949772</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-42.90998790831711</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>173.2910678333845</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-42.90760585851818</v>
       </c>
     </row>
@@ -35132,27 +35155,28 @@
       <c r="P20" t="n">
         <v>316.2768523132179</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (173.2861977210919 -42.9056643815666, 173.29479452887114 -42.91063626630782)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>173.2861977210919</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-42.9056643815666</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>173.2947945288711</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-42.91063626630782</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>173.2904961249815</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-42.90815032393721</v>
       </c>
     </row>
@@ -35209,27 +35233,28 @@
       <c r="P21" t="n">
         <v>310.3479073325121</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (173.2856666342394 -42.90614176351312, 173.29417097680385 -42.91119867742962)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>173.2856666342394</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-42.90614176351312</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>173.2941709768039</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-42.91119867742962</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>173.2899188055216</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-42.90867022047136</v>
       </c>
     </row>
@@ -35286,27 +35311,28 @@
       <c r="P22" t="n">
         <v>315.423399408468</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (173.28509964360862 -42.906652110884934, 173.29360400252358 -42.911709039012386)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>173.2850996436086</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-42.90665211088493</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>173.2936040025236</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-42.91170903901239</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>173.2893518230661</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-42.90918057494866</v>
       </c>
     </row>
@@ -35363,27 +35389,28 @@
       <c r="P23" t="n">
         <v>316.6004737452849</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (173.28453265297819 -42.907162454031166, 173.29303702824265 -42.91221939636987)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>173.2845326529782</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-42.90716245403117</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>173.2930370282427</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-42.91221939636987</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>173.2887848406104</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-42.90969092520052</v>
       </c>
     </row>
@@ -35440,27 +35467,28 @@
       <c r="P24" t="n">
         <v>316.7922596628687</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (173.28396663804867 -42.9076719097072, 173.29246851640062 -42.912731143788164)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>173.2839666380487</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-42.9076719097072</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>173.2924685164006</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-42.91273114378816</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>173.2882175772247</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-42.91020152674768</v>
       </c>
     </row>
@@ -35517,27 +35545,28 @@
       <c r="P25" t="n">
         <v>316.1261513874713</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (173.28343441131358 -42.90815044706113, 173.29184546297316 -42.91329089434035)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>173.2834344113136</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-42.90815044706113</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>173.2918454629732</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-42.91329089434035</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>173.2876399371434</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-42.91072067070074</v>
       </c>
     </row>
@@ -35594,27 +35623,28 @@
       <c r="P26" t="n">
         <v>316.8867997563839</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (173.28288421098088 -42.9086194587207, 173.291205587806 -42.91383801093539)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>173.2828842109809</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-42.9086194587207</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>173.291205587806</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-42.91383801093539</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>173.2870448993934</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-42.91122873482804</v>
       </c>
     </row>
@@ -35671,27 +35701,28 @@
       <c r="P27" t="n">
         <v>314.4375832563954</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (173.28229919297763 -42.90911875012392, 173.2906205821226 -42.91433731670169)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>173.2822991929776</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-42.90911875012392</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>173.2906205821226</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-42.91433731670169</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>173.2864598875501</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-42.91172803341281</v>
       </c>
     </row>
@@ -35748,27 +35779,28 @@
       <c r="P28" t="n">
         <v>320.9514711829081</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (173.2817141749747 -42.90961803748228, 173.29003557643853 -42.914836618423436)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>173.2817141749747</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-42.90961803748228</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>173.2900355764385</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-42.91483661842344</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>173.2858748757066</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-42.91222732795286</v>
       </c>
     </row>
@@ -35825,27 +35857,28 @@
       <c r="P29" t="n">
         <v>324.2356911507378</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (173.2811291569722 -42.91011732079582, 173.28945057075367 -42.91533591610058)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>173.2811291569722</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-42.91011732079582</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>173.2894505707537</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-42.91533591610058</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>173.2852898638629</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-42.9127266184482</v>
       </c>
     </row>
@@ -35902,27 +35935,28 @@
       <c r="P30" t="n">
         <v>325.9195620910838</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (173.28054413896993 -42.91061660006457, 173.28886556506842 -42.91583520973295)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>173.2805441389699</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-42.91061660006457</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>173.2888655650684</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-42.91583520973295</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>173.2847048520192</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-42.91322590489876</v>
       </c>
     </row>

--- a/data/nzd0411/nzd0411.xlsx
+++ b/data/nzd0411/nzd0411.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE350"/>
+  <dimension ref="A1:AE353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29916,6 +29916,303 @@
         </is>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>319.6228571428572</v>
+      </c>
+      <c r="C351" t="n">
+        <v>321.71</v>
+      </c>
+      <c r="D351" t="n">
+        <v>330.5405882352941</v>
+      </c>
+      <c r="E351" t="n">
+        <v>340.3705882352941</v>
+      </c>
+      <c r="F351" t="n">
+        <v>356.9315789473685</v>
+      </c>
+      <c r="G351" t="n">
+        <v>359.825</v>
+      </c>
+      <c r="H351" t="n">
+        <v>360.0905882352941</v>
+      </c>
+      <c r="I351" t="n">
+        <v>367.405</v>
+      </c>
+      <c r="J351" t="n">
+        <v>367.3155555555555</v>
+      </c>
+      <c r="K351" t="n">
+        <v>356.2819047619047</v>
+      </c>
+      <c r="L351" t="n">
+        <v>339.5</v>
+      </c>
+      <c r="M351" t="n">
+        <v>337.98</v>
+      </c>
+      <c r="N351" t="n">
+        <v>330.64</v>
+      </c>
+      <c r="O351" t="n">
+        <v>331.4766666666667</v>
+      </c>
+      <c r="P351" t="n">
+        <v>336.8319047619048</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>329.22</v>
+      </c>
+      <c r="R351" t="n">
+        <v>316.4533333333333</v>
+      </c>
+      <c r="S351" t="n">
+        <v>311.78</v>
+      </c>
+      <c r="T351" t="n">
+        <v>304.7828571428572</v>
+      </c>
+      <c r="U351" t="n">
+        <v>301.545</v>
+      </c>
+      <c r="V351" t="n">
+        <v>300.4663636363636</v>
+      </c>
+      <c r="W351" t="n">
+        <v>301.8928571428572</v>
+      </c>
+      <c r="X351" t="n">
+        <v>302.8919047619048</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>301.91</v>
+      </c>
+      <c r="Z351" t="n">
+        <v>307.4005882352941</v>
+      </c>
+      <c r="AA351" t="n">
+        <v>302.8919047619048</v>
+      </c>
+      <c r="AB351" t="n">
+        <v>307.8481818181818</v>
+      </c>
+      <c r="AC351" t="n">
+        <v>309.49</v>
+      </c>
+      <c r="AD351" t="n">
+        <v>315.1855555555555</v>
+      </c>
+      <c r="AE351" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:07:30+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>333.15</v>
+      </c>
+      <c r="C352" t="n">
+        <v>332.2015384615385</v>
+      </c>
+      <c r="D352" t="n">
+        <v>337.4311764705882</v>
+      </c>
+      <c r="E352" t="n">
+        <v>342.2111764705882</v>
+      </c>
+      <c r="F352" t="n">
+        <v>356.7510526315789</v>
+      </c>
+      <c r="G352" t="n">
+        <v>359.97</v>
+      </c>
+      <c r="H352" t="n">
+        <v>357.3911764705882</v>
+      </c>
+      <c r="I352" t="n">
+        <v>362.68</v>
+      </c>
+      <c r="J352" t="n">
+        <v>361.5766666666667</v>
+      </c>
+      <c r="K352" t="n">
+        <v>351.58</v>
+      </c>
+      <c r="L352" t="n">
+        <v>338.33</v>
+      </c>
+      <c r="M352" t="n">
+        <v>315.0107692307692</v>
+      </c>
+      <c r="N352" t="n">
+        <v>298.9</v>
+      </c>
+      <c r="O352" t="n">
+        <v>308.71</v>
+      </c>
+      <c r="P352" t="n">
+        <v>329.98</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>328.2915384615384</v>
+      </c>
+      <c r="R352" t="n">
+        <v>323.86</v>
+      </c>
+      <c r="S352" t="n">
+        <v>312.7215384615384</v>
+      </c>
+      <c r="T352" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="U352" t="n">
+        <v>295.81</v>
+      </c>
+      <c r="V352" t="n">
+        <v>301.0263636363636</v>
+      </c>
+      <c r="W352" t="n">
+        <v>302.44</v>
+      </c>
+      <c r="X352" t="n">
+        <v>301.3</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>301.7715384615385</v>
+      </c>
+      <c r="Z352" t="n">
+        <v>304.3311764705882</v>
+      </c>
+      <c r="AA352" t="n">
+        <v>307.99</v>
+      </c>
+      <c r="AB352" t="n">
+        <v>312.1081818181818</v>
+      </c>
+      <c r="AC352" t="n">
+        <v>313.61</v>
+      </c>
+      <c r="AD352" t="n">
+        <v>309.8666666666667</v>
+      </c>
+      <c r="AE352" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>330.4328571428572</v>
+      </c>
+      <c r="C353" t="n">
+        <v>333.8515384615384</v>
+      </c>
+      <c r="D353" t="n">
+        <v>340.7458823529412</v>
+      </c>
+      <c r="E353" t="n">
+        <v>348.6958823529412</v>
+      </c>
+      <c r="F353" t="n">
+        <v>362.1036842105263</v>
+      </c>
+      <c r="G353" t="n">
+        <v>358.1</v>
+      </c>
+      <c r="H353" t="n">
+        <v>355.7458823529412</v>
+      </c>
+      <c r="I353" t="n">
+        <v>353.61</v>
+      </c>
+      <c r="J353" t="n">
+        <v>351.9111111111111</v>
+      </c>
+      <c r="K353" t="n">
+        <v>347.0252380952381</v>
+      </c>
+      <c r="L353" t="n">
+        <v>335.37</v>
+      </c>
+      <c r="M353" t="n">
+        <v>320.3807692307692</v>
+      </c>
+      <c r="N353" t="n">
+        <v>298.32</v>
+      </c>
+      <c r="O353" t="n">
+        <v>338.4533333333333</v>
+      </c>
+      <c r="P353" t="n">
+        <v>346.3052380952381</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>331.1315384615385</v>
+      </c>
+      <c r="R353" t="n">
+        <v>324.5366666666667</v>
+      </c>
+      <c r="S353" t="n">
+        <v>313.3015384615384</v>
+      </c>
+      <c r="T353" t="n">
+        <v>308.6328571428572</v>
+      </c>
+      <c r="U353" t="n">
+        <v>303.67</v>
+      </c>
+      <c r="V353" t="n">
+        <v>295.1772727272727</v>
+      </c>
+      <c r="W353" t="n">
+        <v>305.6328571428572</v>
+      </c>
+      <c r="X353" t="n">
+        <v>309.7352380952381</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>304.5515384615384</v>
+      </c>
+      <c r="Z353" t="n">
+        <v>303.7358823529411</v>
+      </c>
+      <c r="AA353" t="n">
+        <v>310.2252380952381</v>
+      </c>
+      <c r="AB353" t="n">
+        <v>312.3036363636364</v>
+      </c>
+      <c r="AC353" t="n">
+        <v>315.37</v>
+      </c>
+      <c r="AD353" t="n">
+        <v>318.2811111111111</v>
+      </c>
+      <c r="AE353" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29927,7 +30224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B362"/>
+  <dimension ref="A1:B365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33555,6 +33852,36 @@
       </c>
       <c r="B362" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>-0.62</v>
       </c>
     </row>
   </sheetData>
@@ -33728,28 +34055,28 @@
         <v>0.1061</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04197743469341392</v>
+        <v>-0.04158997111132166</v>
       </c>
       <c r="J2" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K2" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001407625312501715</v>
+        <v>0.0001410506394385891</v>
       </c>
       <c r="M2" t="n">
-        <v>18.15516977199812</v>
+        <v>18.02010439830681</v>
       </c>
       <c r="N2" t="n">
-        <v>696.9870301329624</v>
+        <v>689.9608579318409</v>
       </c>
       <c r="O2" t="n">
-        <v>26.40051192937293</v>
+        <v>26.26710600602664</v>
       </c>
       <c r="P2" t="n">
-        <v>328.6390793910916</v>
+        <v>328.6350336600908</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33806,28 +34133,28 @@
         <v>0.078</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03232080170406223</v>
+        <v>0.01334958257491059</v>
       </c>
       <c r="J3" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K3" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003230039855098843</v>
+        <v>5.59300132224605e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>10.55001523530957</v>
+        <v>10.53866272424712</v>
       </c>
       <c r="N3" t="n">
-        <v>181.1699826485588</v>
+        <v>180.5199843795124</v>
       </c>
       <c r="O3" t="n">
-        <v>13.45993991994611</v>
+        <v>13.43577256355258</v>
       </c>
       <c r="P3" t="n">
-        <v>338.0690910753208</v>
+        <v>338.2524769335989</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33884,28 +34211,28 @@
         <v>0.1061</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02237538963363044</v>
+        <v>-0.03548743350046873</v>
       </c>
       <c r="J4" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K4" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001400957902852884</v>
+        <v>0.0003586623072080464</v>
       </c>
       <c r="M4" t="n">
-        <v>11.05250877735414</v>
+        <v>11.0109616395736</v>
       </c>
       <c r="N4" t="n">
-        <v>204.0405016305819</v>
+        <v>202.5921140059633</v>
       </c>
       <c r="O4" t="n">
-        <v>14.28427462738594</v>
+        <v>14.23348565903529</v>
       </c>
       <c r="P4" t="n">
-        <v>343.663026301518</v>
+        <v>343.788041685222</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33962,28 +34289,28 @@
         <v>0.1011</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03284740021900222</v>
+        <v>0.01448566631977062</v>
       </c>
       <c r="J5" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K5" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002764777027143284</v>
+        <v>5.469673544111764e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>11.82162330691355</v>
+        <v>11.79555254606703</v>
       </c>
       <c r="N5" t="n">
-        <v>224.9059160872723</v>
+        <v>223.6019321920589</v>
       </c>
       <c r="O5" t="n">
-        <v>14.99686354166338</v>
+        <v>14.95332512159282</v>
       </c>
       <c r="P5" t="n">
-        <v>352.3927060536902</v>
+        <v>352.5659055938246</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34040,28 +34367,28 @@
         <v>0.1162</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1105237068687367</v>
+        <v>-0.1164164341362405</v>
       </c>
       <c r="J6" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K6" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002204114904315935</v>
+        <v>0.002499190061290624</v>
       </c>
       <c r="M6" t="n">
-        <v>12.97275025313915</v>
+        <v>12.87090029775645</v>
       </c>
       <c r="N6" t="n">
-        <v>316.0581638408818</v>
+        <v>312.7664225501035</v>
       </c>
       <c r="O6" t="n">
-        <v>17.77802474519826</v>
+        <v>17.68520349190542</v>
       </c>
       <c r="P6" t="n">
-        <v>364.3319992827257</v>
+        <v>364.3879289101113</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34118,28 +34445,28 @@
         <v>0.1021</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.253515666565761</v>
+        <v>-0.2523046331201729</v>
       </c>
       <c r="J7" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K7" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0122648961691999</v>
+        <v>0.0124283264779248</v>
       </c>
       <c r="M7" t="n">
-        <v>12.47319072950928</v>
+        <v>12.34750221246845</v>
       </c>
       <c r="N7" t="n">
-        <v>294.1665284273471</v>
+        <v>290.9687692967184</v>
       </c>
       <c r="O7" t="n">
-        <v>17.15128357958515</v>
+        <v>17.05780669654568</v>
       </c>
       <c r="P7" t="n">
-        <v>365.2165272087149</v>
+        <v>365.2050643997082</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34196,28 +34523,28 @@
         <v>0.1072</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5121123590216515</v>
+        <v>-0.5093815691277948</v>
       </c>
       <c r="J8" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K8" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04150289990532929</v>
+        <v>0.04188455014845482</v>
       </c>
       <c r="M8" t="n">
-        <v>13.72788072537686</v>
+        <v>13.60055554561783</v>
       </c>
       <c r="N8" t="n">
-        <v>348.2193619760347</v>
+        <v>344.6457586546742</v>
       </c>
       <c r="O8" t="n">
-        <v>18.66063669803457</v>
+        <v>18.56463731546281</v>
       </c>
       <c r="P8" t="n">
-        <v>369.4373640551175</v>
+        <v>369.4112024426174</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34274,28 +34601,28 @@
         <v>0.0983</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2440339875174996</v>
+        <v>-0.2443068416977541</v>
       </c>
       <c r="J9" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K9" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01416759010772306</v>
+        <v>0.01446211008756459</v>
       </c>
       <c r="M9" t="n">
-        <v>11.88841735245802</v>
+        <v>11.81760958113706</v>
       </c>
       <c r="N9" t="n">
-        <v>238.0927359070405</v>
+        <v>235.9672766307221</v>
       </c>
       <c r="O9" t="n">
-        <v>15.43025391583173</v>
+        <v>15.36122640386249</v>
       </c>
       <c r="P9" t="n">
-        <v>367.6130482203012</v>
+        <v>367.6159766278423</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34352,28 +34679,28 @@
         <v>0.1201</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2158649108400321</v>
+        <v>-0.2244860515270484</v>
       </c>
       <c r="J10" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K10" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01081074133836923</v>
+        <v>0.01191761616043352</v>
       </c>
       <c r="M10" t="n">
-        <v>11.96959034504545</v>
+        <v>11.9052891707906</v>
       </c>
       <c r="N10" t="n">
-        <v>245.0793801470988</v>
+        <v>243.0044435644195</v>
       </c>
       <c r="O10" t="n">
-        <v>15.65501134292463</v>
+        <v>15.58859979486354</v>
       </c>
       <c r="P10" t="n">
-        <v>369.9652130549509</v>
+        <v>370.047076067442</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34430,28 +34757,28 @@
         <v>0.1398</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2762848816075051</v>
+        <v>-0.287343184103136</v>
       </c>
       <c r="J11" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K11" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01610484491938524</v>
+        <v>0.01775072368649411</v>
       </c>
       <c r="M11" t="n">
-        <v>12.5989432493447</v>
+        <v>12.52201233482338</v>
       </c>
       <c r="N11" t="n">
-        <v>271.7187762516014</v>
+        <v>269.1317373482129</v>
       </c>
       <c r="O11" t="n">
-        <v>16.4838944503901</v>
+        <v>16.40523505921853</v>
       </c>
       <c r="P11" t="n">
-        <v>364.118669085909</v>
+        <v>364.2237429743448</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34508,28 +34835,28 @@
         <v>0.1417</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1236090839999386</v>
+        <v>-0.1563480208813093</v>
       </c>
       <c r="J12" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K12" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003429964229283877</v>
+        <v>0.005537105184619251</v>
       </c>
       <c r="M12" t="n">
-        <v>11.79437394969653</v>
+        <v>11.849022640812</v>
       </c>
       <c r="N12" t="n">
-        <v>257.9439487884136</v>
+        <v>257.8164579893148</v>
       </c>
       <c r="O12" t="n">
-        <v>16.0606335114283</v>
+        <v>16.05666397447847</v>
       </c>
       <c r="P12" t="n">
-        <v>356.7881083507034</v>
+        <v>357.1013540923024</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34586,28 +34913,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2238488049427076</v>
+        <v>0.165832303206067</v>
       </c>
       <c r="J13" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K13" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01089524590429247</v>
+        <v>0.00591709886233116</v>
       </c>
       <c r="M13" t="n">
-        <v>12.2420460734996</v>
+        <v>12.41936674882455</v>
       </c>
       <c r="N13" t="n">
-        <v>257.4512827718796</v>
+        <v>264.3307168663822</v>
       </c>
       <c r="O13" t="n">
-        <v>16.04528849138836</v>
+        <v>16.25825073205547</v>
       </c>
       <c r="P13" t="n">
-        <v>347.1922066958908</v>
+        <v>347.7551126812583</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34664,28 +34991,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4978513181203191</v>
+        <v>0.4112503093840654</v>
       </c>
       <c r="J14" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K14" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04048264522565914</v>
+        <v>0.02682624302435754</v>
       </c>
       <c r="M14" t="n">
-        <v>14.05833159571386</v>
+        <v>14.35743309337726</v>
       </c>
       <c r="N14" t="n">
-        <v>325.9051951490987</v>
+        <v>343.9713293921957</v>
       </c>
       <c r="O14" t="n">
-        <v>18.05284451683719</v>
+        <v>18.54646406709903</v>
       </c>
       <c r="P14" t="n">
-        <v>338.7784955147942</v>
+        <v>339.6365409488328</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34742,28 +35069,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5414934938460272</v>
+        <v>0.4913756141856541</v>
       </c>
       <c r="J15" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K15" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04623511081482501</v>
+        <v>0.03826539381297889</v>
       </c>
       <c r="M15" t="n">
-        <v>14.36247095096772</v>
+        <v>14.45347517197817</v>
       </c>
       <c r="N15" t="n">
-        <v>335.8886041458521</v>
+        <v>340.5138381599494</v>
       </c>
       <c r="O15" t="n">
-        <v>18.32726395689908</v>
+        <v>18.45301704762528</v>
       </c>
       <c r="P15" t="n">
-        <v>337.1808649448283</v>
+        <v>337.6762658679291</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34820,28 +35147,28 @@
         <v>0.1534</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4780144083905277</v>
+        <v>0.463998727668589</v>
       </c>
       <c r="J16" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K16" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03184218734216571</v>
+        <v>0.03064480938519032</v>
       </c>
       <c r="M16" t="n">
-        <v>14.97155652375978</v>
+        <v>14.88731370382579</v>
       </c>
       <c r="N16" t="n">
-        <v>388.3942184585501</v>
+        <v>385.0362181166118</v>
       </c>
       <c r="O16" t="n">
-        <v>19.70771976811498</v>
+        <v>19.62233977171458</v>
       </c>
       <c r="P16" t="n">
-        <v>332.1662566801459</v>
+        <v>332.3028642381996</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34898,28 +35225,28 @@
         <v>0.1082</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3404416992873498</v>
+        <v>0.3253026142409752</v>
       </c>
       <c r="J17" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K17" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00877587317248929</v>
+        <v>0.008202113514926834</v>
       </c>
       <c r="M17" t="n">
-        <v>17.90761117699057</v>
+        <v>17.78872305569502</v>
       </c>
       <c r="N17" t="n">
-        <v>720.7210154725382</v>
+        <v>712.8273624533173</v>
       </c>
       <c r="O17" t="n">
-        <v>26.84624769818937</v>
+        <v>26.69882698646735</v>
       </c>
       <c r="P17" t="n">
-        <v>327.693618758457</v>
+        <v>327.8432244928613</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34976,28 +35303,28 @@
         <v>0.1029</v>
       </c>
       <c r="I18" t="n">
-        <v>0.239525012920971</v>
+        <v>0.2051282788689709</v>
       </c>
       <c r="J18" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K18" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006824379809573067</v>
+        <v>0.005101918956474494</v>
       </c>
       <c r="M18" t="n">
-        <v>14.31750544053428</v>
+        <v>14.33339541819978</v>
       </c>
       <c r="N18" t="n">
-        <v>459.3677176346725</v>
+        <v>456.8202651090037</v>
       </c>
       <c r="O18" t="n">
-        <v>21.4328653622112</v>
+        <v>21.37335409122779</v>
       </c>
       <c r="P18" t="n">
-        <v>330.94728443268</v>
+        <v>331.2874447208027</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35054,28 +35381,28 @@
         <v>0.0912</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3908506990930788</v>
+        <v>0.3439168114059341</v>
       </c>
       <c r="J19" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K19" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03090216628985898</v>
+        <v>0.02419191535710818</v>
       </c>
       <c r="M19" t="n">
-        <v>12.8384984951178</v>
+        <v>12.91754860137475</v>
       </c>
       <c r="N19" t="n">
-        <v>272.6195431757503</v>
+        <v>274.6666239441895</v>
       </c>
       <c r="O19" t="n">
-        <v>16.51119448058651</v>
+        <v>16.57306923729547</v>
       </c>
       <c r="P19" t="n">
-        <v>324.0067994054168</v>
+        <v>324.4603727048344</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35132,28 +35459,28 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3936115221797698</v>
+        <v>0.3466966227763269</v>
       </c>
       <c r="J20" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K20" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03684352543120406</v>
+        <v>0.02879038222961294</v>
       </c>
       <c r="M20" t="n">
-        <v>11.98688693269602</v>
+        <v>12.1082255614354</v>
       </c>
       <c r="N20" t="n">
-        <v>241.8312203523025</v>
+        <v>244.7655887121795</v>
       </c>
       <c r="O20" t="n">
-        <v>15.55092345657654</v>
+        <v>15.64498605663103</v>
       </c>
       <c r="P20" t="n">
-        <v>316.2768523132179</v>
+        <v>316.716405545295</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35210,28 +35537,28 @@
         <v>0.1149</v>
       </c>
       <c r="I21" t="n">
-        <v>0.551196863117044</v>
+        <v>0.4991549893149638</v>
       </c>
       <c r="J21" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K21" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03940523581443955</v>
+        <v>0.03278019651868114</v>
       </c>
       <c r="M21" t="n">
-        <v>14.45847320959399</v>
+        <v>14.55797178448496</v>
       </c>
       <c r="N21" t="n">
-        <v>430.7190507078399</v>
+        <v>432.4334384037442</v>
       </c>
       <c r="O21" t="n">
-        <v>20.75377196337668</v>
+        <v>20.79503398419306</v>
       </c>
       <c r="P21" t="n">
-        <v>310.3479073325121</v>
+        <v>310.8432248410625</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35288,28 +35615,28 @@
         <v>0.0694</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1561532447009034</v>
+        <v>0.1108640898690293</v>
       </c>
       <c r="J22" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K22" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L22" t="n">
-        <v>0.004638100535527712</v>
+        <v>0.002359085391557381</v>
       </c>
       <c r="M22" t="n">
-        <v>13.98880595746358</v>
+        <v>14.08712441820226</v>
       </c>
       <c r="N22" t="n">
-        <v>299.9484240800676</v>
+        <v>301.3399322578149</v>
       </c>
       <c r="O22" t="n">
-        <v>17.31901914312897</v>
+        <v>17.35914549330741</v>
       </c>
       <c r="P22" t="n">
-        <v>315.423399408468</v>
+        <v>315.8610355944574</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35366,28 +35693,28 @@
         <v>0.09859999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01097564983313198</v>
+        <v>-0.01836792750937054</v>
       </c>
       <c r="J23" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K23" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L23" t="n">
-        <v>2.398784983626001e-05</v>
+        <v>6.824782900638482e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>13.04481282100155</v>
+        <v>13.06930543373931</v>
       </c>
       <c r="N23" t="n">
-        <v>291.8122199326153</v>
+        <v>290.4619938240701</v>
       </c>
       <c r="O23" t="n">
-        <v>17.08251210837022</v>
+        <v>17.04294557358176</v>
       </c>
       <c r="P23" t="n">
-        <v>316.6004737452849</v>
+        <v>316.8810702004401</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35444,28 +35771,28 @@
         <v>0.1676</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05018389484706151</v>
+        <v>0.02018835125100055</v>
       </c>
       <c r="J24" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K24" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0005998906339879095</v>
+        <v>9.85782312965533e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>11.7987815348177</v>
+        <v>11.82127419761986</v>
       </c>
       <c r="N24" t="n">
-        <v>240.6042326869419</v>
+        <v>239.9563027888619</v>
       </c>
       <c r="O24" t="n">
-        <v>15.51142265193434</v>
+        <v>15.4905229992038</v>
       </c>
       <c r="P24" t="n">
-        <v>316.7922596628687</v>
+        <v>317.0793625780765</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35522,28 +35849,28 @@
         <v>0.1021</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07217144071929354</v>
+        <v>0.03588741991243233</v>
       </c>
       <c r="J25" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K25" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001338060462635848</v>
+        <v>0.0003353889846131608</v>
       </c>
       <c r="M25" t="n">
-        <v>11.42702763783232</v>
+        <v>11.48019933139579</v>
       </c>
       <c r="N25" t="n">
-        <v>224.4371796019116</v>
+        <v>224.4421131716115</v>
       </c>
       <c r="O25" t="n">
-        <v>14.98122757326353</v>
+        <v>14.98139223075117</v>
       </c>
       <c r="P25" t="n">
-        <v>316.1261513874713</v>
+        <v>316.4729740443607</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -35600,28 +35927,28 @@
         <v>0.1086</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05375342224284151</v>
+        <v>0.02377914423463873</v>
       </c>
       <c r="J26" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K26" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0007783493170714362</v>
+        <v>0.0001547383490433374</v>
       </c>
       <c r="M26" t="n">
-        <v>11.35669939123168</v>
+        <v>11.38774416488918</v>
       </c>
       <c r="N26" t="n">
-        <v>218.6242418697578</v>
+        <v>217.9790750760126</v>
       </c>
       <c r="O26" t="n">
-        <v>14.78594744579318</v>
+        <v>14.76411443588855</v>
       </c>
       <c r="P26" t="n">
-        <v>316.8867997563839</v>
+        <v>317.1687939843408</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -35678,28 +36005,28 @@
         <v>0.1437</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2076525190996198</v>
+        <v>0.1778290937442659</v>
       </c>
       <c r="J27" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K27" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L27" t="n">
-        <v>0.004082994123394856</v>
+        <v>0.003064432464007227</v>
       </c>
       <c r="M27" t="n">
-        <v>12.34543915735478</v>
+        <v>12.35935897413325</v>
       </c>
       <c r="N27" t="n">
-        <v>612.7865958112235</v>
+        <v>606.9753133697724</v>
       </c>
       <c r="O27" t="n">
-        <v>24.75452677413211</v>
+        <v>24.63686898471014</v>
       </c>
       <c r="P27" t="n">
-        <v>314.4375832563954</v>
+        <v>314.7200677894641</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -35756,28 +36083,28 @@
         <v>0.1558</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.09981894347572765</v>
+        <v>-0.1166884000084343</v>
       </c>
       <c r="J28" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K28" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L28" t="n">
-        <v>0.002011661427419154</v>
+        <v>0.002804991095386122</v>
       </c>
       <c r="M28" t="n">
-        <v>11.54164046807715</v>
+        <v>11.49212494459636</v>
       </c>
       <c r="N28" t="n">
-        <v>296.2390199768612</v>
+        <v>293.2032572751955</v>
       </c>
       <c r="O28" t="n">
-        <v>17.21159550933211</v>
+        <v>17.12317894770698</v>
       </c>
       <c r="P28" t="n">
-        <v>320.9514711829081</v>
+        <v>321.1106538267585</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -35834,28 +36161,28 @@
         <v>0.1987</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1305490417541433</v>
+        <v>-0.1483982205147304</v>
       </c>
       <c r="J29" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K29" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L29" t="n">
-        <v>0.005916769853255288</v>
+        <v>0.007780343902140774</v>
       </c>
       <c r="M29" t="n">
-        <v>9.52826976268555</v>
+        <v>9.517971137682744</v>
       </c>
       <c r="N29" t="n">
-        <v>166.6614456444282</v>
+        <v>165.4722731448781</v>
       </c>
       <c r="O29" t="n">
-        <v>12.90974227645262</v>
+        <v>12.86360265030284</v>
       </c>
       <c r="P29" t="n">
-        <v>324.2356911507378</v>
+        <v>324.4039635822504</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -35912,28 +36239,28 @@
         <v>0.1121</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1028162689603742</v>
+        <v>-0.1219318442492528</v>
       </c>
       <c r="J30" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K30" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L30" t="n">
-        <v>0.003973160617495197</v>
+        <v>0.005675066287538222</v>
       </c>
       <c r="M30" t="n">
-        <v>9.493645409763523</v>
+        <v>9.495905917637243</v>
       </c>
       <c r="N30" t="n">
-        <v>151.2755116383311</v>
+        <v>150.5360269104435</v>
       </c>
       <c r="O30" t="n">
-        <v>12.29941102810745</v>
+        <v>12.26931240577252</v>
       </c>
       <c r="P30" t="n">
-        <v>325.9195620910838</v>
+        <v>326.1014412464332</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -35971,7 +36298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE350"/>
+  <dimension ref="A1:AE353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80473,6 +80800,477 @@
         </is>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>-42.89811421331926,173.29912795012547</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>-42.89855013390756,173.29845454401644</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>-42.899032569773844,173.29783423176795</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>-42.899521962803576,173.29722165971774</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>-42.900052496541754,173.29667436384725</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>-42.90057620721973,173.29615081134475</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>-42.90109266189803,173.29559410786712</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>-42.901648484763996,173.2951051294437</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>-42.90215234944863,173.2945550456733</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>-42.902656855688925,173.29399018681156</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>-42.90314814980217,173.2933581097011</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>-42.9037088035699,173.2928874365584</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>-42.904243058382164,173.2923551707723</t>
+        </is>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>-42.90481438889113,173.29190943726644</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>-42.9054044062957,173.29151318035449</t>
+        </is>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>-42.90591247689256,173.2909467650246</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>-42.90638006895284,173.2903008720974</t>
+        </is>
+      </c>
+      <c r="S351" t="inlineStr">
+        <is>
+          <t>-42.90688730662983,173.2897384043286</t>
+        </is>
+      </c>
+      <c r="T351" t="inlineStr">
+        <is>
+          <t>-42.907361532733375,173.28913195621175</t>
+        </is>
+      </c>
+      <c r="U351" t="inlineStr">
+        <is>
+          <t>-42.90784963030248,173.28853852209184</t>
+        </is>
+      </c>
+      <c r="V351" t="inlineStr">
+        <is>
+          <t>-42.90835387809324,173.28796127158023</t>
+        </is>
+      </c>
+      <c r="W351" t="inlineStr">
+        <is>
+          <t>-42.908872309802234,173.28740788048543</t>
+        </is>
+      </c>
+      <c r="X351" t="inlineStr">
+        <is>
+          <t>-42.90938820648824,173.28685054272387</t>
+        </is>
+      </c>
+      <c r="Y351" t="inlineStr">
+        <is>
+          <t>-42.90988867007867,173.2862783059151</t>
+        </is>
+      </c>
+      <c r="Z351" t="inlineStr">
+        <is>
+          <t>-42.91041621276454,173.2857490025635</t>
+        </is>
+      </c>
+      <c r="AA351" t="inlineStr">
+        <is>
+          <t>-42.910889161029885,173.28512197674155</t>
+        </is>
+      </c>
+      <c r="AB351" t="inlineStr">
+        <is>
+          <t>-42.91141742707962,173.28458316165705</t>
+        </is>
+      </c>
+      <c r="AC351" t="inlineStr">
+        <is>
+          <t>-42.91192631648019,173.2840134569008</t>
+        </is>
+      </c>
+      <c r="AD351" t="inlineStr">
+        <is>
+          <t>-42.91245889601493,173.28348153247035</t>
+        </is>
+      </c>
+      <c r="AE351" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:07:30+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>-42.89820752620204,173.29923445465081</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>-42.89862250692371,173.29853714806742</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>-42.899080102807524,173.29788848420827</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>-42.89953463717564,173.2972361878892</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>-42.90005136634679,173.29667277441985</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>-42.90057701713478,173.29615220448892</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>-42.901077583920404,173.29556817209385</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>-42.901622092430756,173.29505973167906</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>-42.90212315264109,173.29449704246764</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>-42.9026354614932,173.29394048487</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>-42.903142843934454,173.29334572788588</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>-42.903604638805355,173.2926443576936</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>-42.904099117198,173.29201927077102</t>
+        </is>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>-42.90471114134218,173.2916684989066</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>-42.9053720098723,173.2914417455825</t>
+        </is>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>-42.90590778017059,173.29093735553732</t>
+        </is>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>-42.90641856109759,173.29037496984338</t>
+        </is>
+      </c>
+      <c r="S352" t="inlineStr">
+        <is>
+          <t>-42.90689233006866,173.28974769594464</t>
+        </is>
+      </c>
+      <c r="T352" t="inlineStr">
+        <is>
+          <t>-42.907332116349835,173.2890810952067</t>
+        </is>
+      </c>
+      <c r="U352" t="inlineStr">
+        <is>
+          <t>-42.90781714954293,173.28848390098221</t>
+        </is>
+      </c>
+      <c r="V352" t="inlineStr">
+        <is>
+          <t>-42.90835704972714,173.2879666051416</t>
+        </is>
+      </c>
+      <c r="W352" t="inlineStr">
+        <is>
+          <t>-42.90887540863446,173.28741309161805</t>
+        </is>
+      </c>
+      <c r="X352" t="inlineStr">
+        <is>
+          <t>-42.90937918636363,173.2868353854083</t>
+        </is>
+      </c>
+      <c r="Y352" t="inlineStr">
+        <is>
+          <t>-42.9098878729137,173.28627700161553</t>
+        </is>
+      </c>
+      <c r="Z352" t="inlineStr">
+        <is>
+          <t>-42.9103982724362,173.28572039664007</t>
+        </is>
+      </c>
+      <c r="AA352" t="inlineStr">
+        <is>
+          <t>-42.91091895892224,173.28516948953006</t>
+        </is>
+      </c>
+      <c r="AB352" t="inlineStr">
+        <is>
+          <t>-42.91144232650281,173.28462286383564</t>
+        </is>
+      </c>
+      <c r="AC352" t="inlineStr">
+        <is>
+          <t>-42.911950397737485,173.28405185448278</t>
+        </is>
+      </c>
+      <c r="AD352" t="inlineStr">
+        <is>
+          <t>-42.91242780712979,173.2834319612683</t>
+        </is>
+      </c>
+      <c r="AE352" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>-42.898188782826196,173.29921306148876</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>-42.898633888993054,173.2985501391906</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>-42.89910296848404,173.29791458228314</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>-42.899579291132355,173.2972873731595</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>-42.90008487678268,173.2967199011982</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>-42.90056657202208,173.296134237736</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>-42.90106839387534,173.2955523642208</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>-42.90157143027112,173.29497258729535</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>-42.90207397870585,173.29439935239054</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>-42.90261473679329,173.29389233834905</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>-42.90312942053659,173.29331440296102</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>-42.903628991639,173.29270118727737</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>-42.90409648688357,173.2920131327263</t>
+        </is>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>-42.90484602819139,173.29198327110015</t>
+        </is>
+      </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>-42.90544919699562,173.29161194504445</t>
+        </is>
+      </c>
+      <c r="Q353" t="inlineStr">
+        <is>
+          <t>-42.90592214661181,173.29096613750283</t>
+        </is>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>-42.90642207770426,173.290381739354</t>
+        </is>
+      </c>
+      <c r="S353" t="inlineStr">
+        <is>
+          <t>-42.90689542457227,173.28975341970235</t>
+        </is>
+      </c>
+      <c r="T353" t="inlineStr">
+        <is>
+          <t>-42.90738297056472,173.2891690223343</t>
+        </is>
+      </c>
+      <c r="U353" t="inlineStr">
+        <is>
+          <t>-42.9078616654508,173.28855876096569</t>
+        </is>
+      </c>
+      <c r="V353" t="inlineStr">
+        <is>
+          <t>-42.90832392261664,173.28791089715898</t>
+        </is>
+      </c>
+      <c r="W353" t="inlineStr">
+        <is>
+          <t>-42.90889349189343,173.28744350124055</t>
+        </is>
+      </c>
+      <c r="X353" t="inlineStr">
+        <is>
+          <t>-42.909426982477825,173.2869157015483</t>
+        </is>
+      </c>
+      <c r="Y353" t="inlineStr">
+        <is>
+          <t>-42.90990387821193,173.28630318905826</t>
+        </is>
+      </c>
+      <c r="Z353" t="inlineStr">
+        <is>
+          <t>-42.9103947930156,173.28571484869366</t>
+        </is>
+      </c>
+      <c r="AA353" t="inlineStr">
+        <is>
+          <t>-42.91093202367463,173.2851903213238</t>
+        </is>
+      </c>
+      <c r="AB353" t="inlineStr">
+        <is>
+          <t>-42.91144346892159,173.2846246854259</t>
+        </is>
+      </c>
+      <c r="AC353" t="inlineStr">
+        <is>
+          <t>-42.91196068487253,173.28406825734243</t>
+        </is>
+      </c>
+      <c r="AD353" t="inlineStr">
+        <is>
+          <t>-42.912476989515255,173.2835103825808</t>
+        </is>
+      </c>
+      <c r="AE353" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0411/nzd0411.xlsx
+++ b/data/nzd0411/nzd0411.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE353"/>
+  <dimension ref="A1:AE354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30213,6 +30213,103 @@
         </is>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr"/>
+      <c r="C354" t="n">
+        <v>347.6638461538461</v>
+      </c>
+      <c r="D354" t="n">
+        <v>348.0976470588236</v>
+      </c>
+      <c r="E354" t="n">
+        <v>357.8276470588235</v>
+      </c>
+      <c r="F354" t="n">
+        <v>364.0152631578948</v>
+      </c>
+      <c r="G354" t="n">
+        <v>369.025</v>
+      </c>
+      <c r="H354" t="n">
+        <v>367.8876470588235</v>
+      </c>
+      <c r="I354" t="n">
+        <v>362.565</v>
+      </c>
+      <c r="J354" t="n">
+        <v>349.7711111111111</v>
+      </c>
+      <c r="K354" t="n">
+        <v>342.6052380952381</v>
+      </c>
+      <c r="L354" t="n">
+        <v>339.27</v>
+      </c>
+      <c r="M354" t="n">
+        <v>337.7169230769231</v>
+      </c>
+      <c r="N354" t="n">
+        <v>331.76</v>
+      </c>
+      <c r="O354" t="n">
+        <v>330.1233333333333</v>
+      </c>
+      <c r="P354" t="n">
+        <v>330.6452380952381</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>324.9138461538461</v>
+      </c>
+      <c r="R354" t="n">
+        <v>338.7166666666667</v>
+      </c>
+      <c r="S354" t="n">
+        <v>331.2638461538461</v>
+      </c>
+      <c r="T354" t="n">
+        <v>326.5428571428571</v>
+      </c>
+      <c r="U354" t="n">
+        <v>321.325</v>
+      </c>
+      <c r="V354" t="n">
+        <v>319.1718181818182</v>
+      </c>
+      <c r="W354" t="n">
+        <v>310.1428571428572</v>
+      </c>
+      <c r="X354" t="n">
+        <v>306.9952380952381</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>304.7638461538461</v>
+      </c>
+      <c r="Z354" t="n">
+        <v>309.6676470588235</v>
+      </c>
+      <c r="AA354" t="n">
+        <v>314.1152380952381</v>
+      </c>
+      <c r="AB354" t="n">
+        <v>315.6009090909091</v>
+      </c>
+      <c r="AC354" t="n">
+        <v>317.23</v>
+      </c>
+      <c r="AD354" t="n">
+        <v>316.3811111111111</v>
+      </c>
+      <c r="AE354" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30224,7 +30321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:B366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33882,6 +33979,16 @@
       </c>
       <c r="B365" t="n">
         <v>-0.62</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -34058,7 +34165,7 @@
         <v>-0.04158997111132166</v>
       </c>
       <c r="J2" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K2" t="n">
         <v>283</v>
@@ -34133,28 +34240,28 @@
         <v>0.078</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01334958257491059</v>
+        <v>0.0193195308216952</v>
       </c>
       <c r="J3" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K3" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L3" t="n">
-        <v>5.59300132224605e-05</v>
+        <v>0.0001177876892568541</v>
       </c>
       <c r="M3" t="n">
-        <v>10.53866272424712</v>
+        <v>10.53303661722837</v>
       </c>
       <c r="N3" t="n">
-        <v>180.5199843795124</v>
+        <v>180.1756096831453</v>
       </c>
       <c r="O3" t="n">
-        <v>13.43577256355258</v>
+        <v>13.42295085602064</v>
       </c>
       <c r="P3" t="n">
-        <v>338.2524769335989</v>
+        <v>338.1943021613758</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34211,28 +34318,28 @@
         <v>0.1061</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03548743350046873</v>
+        <v>-0.03213725929378614</v>
       </c>
       <c r="J4" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K4" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003586623072080464</v>
+        <v>0.0002960895333007363</v>
       </c>
       <c r="M4" t="n">
-        <v>11.0109616395736</v>
+        <v>10.99011988997678</v>
       </c>
       <c r="N4" t="n">
-        <v>202.5921140059633</v>
+        <v>201.9908387348039</v>
       </c>
       <c r="O4" t="n">
-        <v>14.23348565903529</v>
+        <v>14.21234810771267</v>
       </c>
       <c r="P4" t="n">
-        <v>343.788041685222</v>
+        <v>343.7558277975688</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34289,28 +34396,28 @@
         <v>0.1011</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01448566631977062</v>
+        <v>0.01765267662118411</v>
       </c>
       <c r="J5" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K5" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L5" t="n">
-        <v>5.469673544111764e-05</v>
+        <v>8.177841594114721e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>11.79555254606703</v>
+        <v>11.77176146266346</v>
       </c>
       <c r="N5" t="n">
-        <v>223.6019321920589</v>
+        <v>222.9100230366404</v>
       </c>
       <c r="O5" t="n">
-        <v>14.95332512159282</v>
+        <v>14.93017156755542</v>
       </c>
       <c r="P5" t="n">
-        <v>352.5659055938246</v>
+        <v>352.5357990049965</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34367,28 +34474,28 @@
         <v>0.1162</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1164164341362405</v>
+        <v>-0.1146257591459889</v>
       </c>
       <c r="J6" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K6" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002499190061290624</v>
+        <v>0.002441025941723129</v>
       </c>
       <c r="M6" t="n">
-        <v>12.87090029775645</v>
+        <v>12.83260134277609</v>
       </c>
       <c r="N6" t="n">
-        <v>312.7664225501035</v>
+        <v>311.6580151993842</v>
       </c>
       <c r="O6" t="n">
-        <v>17.68520349190542</v>
+        <v>17.65383854008482</v>
       </c>
       <c r="P6" t="n">
-        <v>364.3879289101113</v>
+        <v>364.3707832328936</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34445,28 +34552,28 @@
         <v>0.1021</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2523046331201729</v>
+        <v>-0.2451856558533552</v>
       </c>
       <c r="J7" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K7" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0124283264779248</v>
+        <v>0.01181845320654451</v>
       </c>
       <c r="M7" t="n">
-        <v>12.34750221246845</v>
+        <v>12.33851226369838</v>
       </c>
       <c r="N7" t="n">
-        <v>290.9687692967184</v>
+        <v>290.2968165546213</v>
       </c>
       <c r="O7" t="n">
-        <v>17.05780669654568</v>
+        <v>17.038098971265</v>
       </c>
       <c r="P7" t="n">
-        <v>365.2050643997082</v>
+        <v>365.1370148809349</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34523,28 +34630,28 @@
         <v>0.1072</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5093815691277948</v>
+        <v>-0.5020327083342947</v>
       </c>
       <c r="J8" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K8" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04188455014845482</v>
+        <v>0.04094654257162966</v>
       </c>
       <c r="M8" t="n">
-        <v>13.60055554561783</v>
+        <v>13.58585900968378</v>
       </c>
       <c r="N8" t="n">
-        <v>344.6457586546742</v>
+        <v>343.9156026566574</v>
       </c>
       <c r="O8" t="n">
-        <v>18.56463731546281</v>
+        <v>18.54496165152836</v>
       </c>
       <c r="P8" t="n">
-        <v>369.4112024426174</v>
+        <v>369.3400525612577</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34601,28 +34708,28 @@
         <v>0.0983</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2443068416977541</v>
+        <v>-0.2435232317540065</v>
       </c>
       <c r="J9" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K9" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01446211008756459</v>
+        <v>0.01446533903653646</v>
       </c>
       <c r="M9" t="n">
-        <v>11.81760958113706</v>
+        <v>11.78087547501067</v>
       </c>
       <c r="N9" t="n">
-        <v>235.9672766307221</v>
+        <v>235.1617292357061</v>
       </c>
       <c r="O9" t="n">
-        <v>15.36122640386249</v>
+        <v>15.33498383552151</v>
       </c>
       <c r="P9" t="n">
-        <v>367.6159766278423</v>
+        <v>367.608365843368</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34679,28 +34786,28 @@
         <v>0.1201</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2244860515270484</v>
+        <v>-0.2344343266295867</v>
       </c>
       <c r="J10" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K10" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01191761616043352</v>
+        <v>0.01304033676827199</v>
       </c>
       <c r="M10" t="n">
-        <v>11.9052891707906</v>
+        <v>11.91548280509357</v>
       </c>
       <c r="N10" t="n">
-        <v>243.0044435644195</v>
+        <v>242.8741598094196</v>
       </c>
       <c r="O10" t="n">
-        <v>15.58859979486354</v>
+        <v>15.58442041942592</v>
       </c>
       <c r="P10" t="n">
-        <v>370.047076067442</v>
+        <v>370.141783576226</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34757,28 +34864,28 @@
         <v>0.1398</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.287343184103136</v>
+        <v>-0.2970210092360229</v>
       </c>
       <c r="J11" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K11" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01775072368649411</v>
+        <v>0.01902918207956472</v>
       </c>
       <c r="M11" t="n">
-        <v>12.52201233482338</v>
+        <v>12.53151538477662</v>
       </c>
       <c r="N11" t="n">
-        <v>269.1317373482129</v>
+        <v>268.8710830774234</v>
       </c>
       <c r="O11" t="n">
-        <v>16.40523505921853</v>
+        <v>16.39728889412586</v>
       </c>
       <c r="P11" t="n">
-        <v>364.2237429743448</v>
+        <v>364.316163720418</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34835,28 +34942,28 @@
         <v>0.1417</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1563480208813093</v>
+        <v>-0.1658352737119612</v>
       </c>
       <c r="J12" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K12" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005537105184619251</v>
+        <v>0.006253454101097122</v>
       </c>
       <c r="M12" t="n">
-        <v>11.849022640812</v>
+        <v>11.86233095512384</v>
       </c>
       <c r="N12" t="n">
-        <v>257.8164579893148</v>
+        <v>257.5509380959787</v>
       </c>
       <c r="O12" t="n">
-        <v>16.05666397447847</v>
+        <v>16.04839362976802</v>
       </c>
       <c r="P12" t="n">
-        <v>357.1013540923024</v>
+        <v>357.1927521449173</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34913,28 +35020,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.165832303206067</v>
+        <v>0.1561097216413116</v>
       </c>
       <c r="J13" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K13" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00591709886233116</v>
+        <v>0.005270509120937628</v>
       </c>
       <c r="M13" t="n">
-        <v>12.41936674882455</v>
+        <v>12.42800771675647</v>
       </c>
       <c r="N13" t="n">
-        <v>264.3307168663822</v>
+        <v>264.1051148537748</v>
       </c>
       <c r="O13" t="n">
-        <v>16.25825073205547</v>
+        <v>16.25131117337228</v>
       </c>
       <c r="P13" t="n">
-        <v>347.7551126812583</v>
+        <v>347.8500268795775</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34991,28 +35098,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4112503093840654</v>
+        <v>0.3986239528735886</v>
       </c>
       <c r="J14" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K14" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02682624302435754</v>
+        <v>0.02533321186756754</v>
       </c>
       <c r="M14" t="n">
-        <v>14.35743309337726</v>
+        <v>14.37055440982438</v>
       </c>
       <c r="N14" t="n">
-        <v>343.9713293921957</v>
+        <v>343.9497010566436</v>
       </c>
       <c r="O14" t="n">
-        <v>18.54646406709903</v>
+        <v>18.54588097278324</v>
       </c>
       <c r="P14" t="n">
-        <v>339.6365409488328</v>
+        <v>339.7623888767168</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35069,28 +35176,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4913756141856541</v>
+        <v>0.4777511457283463</v>
       </c>
       <c r="J15" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K15" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03826539381297889</v>
+        <v>0.03634606080965119</v>
       </c>
       <c r="M15" t="n">
-        <v>14.45347517197817</v>
+        <v>14.46993168960782</v>
       </c>
       <c r="N15" t="n">
-        <v>340.5138381599494</v>
+        <v>340.7472380704327</v>
       </c>
       <c r="O15" t="n">
-        <v>18.45301704762528</v>
+        <v>18.45934013095898</v>
       </c>
       <c r="P15" t="n">
-        <v>337.6762658679291</v>
+        <v>337.8119052339719</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35147,28 +35254,28 @@
         <v>0.1534</v>
       </c>
       <c r="I16" t="n">
-        <v>0.463998727668589</v>
+        <v>0.4545001622592077</v>
       </c>
       <c r="J16" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K16" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03064480938519032</v>
+        <v>0.029602598259034</v>
       </c>
       <c r="M16" t="n">
-        <v>14.88731370382579</v>
+        <v>14.87820798873076</v>
       </c>
       <c r="N16" t="n">
-        <v>385.0362181166118</v>
+        <v>384.2877383351764</v>
       </c>
       <c r="O16" t="n">
-        <v>19.62233977171458</v>
+        <v>19.60325836015983</v>
       </c>
       <c r="P16" t="n">
-        <v>332.3028642381996</v>
+        <v>332.3962193914365</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35225,28 +35332,28 @@
         <v>0.1082</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3253026142409752</v>
+        <v>0.316992527419748</v>
       </c>
       <c r="J17" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K17" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L17" t="n">
-        <v>0.008202113514926834</v>
+        <v>0.007846779670448556</v>
       </c>
       <c r="M17" t="n">
-        <v>17.78872305569502</v>
+        <v>17.76880126306297</v>
       </c>
       <c r="N17" t="n">
-        <v>712.8273624533173</v>
+        <v>710.5467563390175</v>
       </c>
       <c r="O17" t="n">
-        <v>26.69882698646735</v>
+        <v>26.65608291439343</v>
       </c>
       <c r="P17" t="n">
-        <v>327.8432244928613</v>
+        <v>327.9259199333111</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35303,28 +35410,28 @@
         <v>0.1029</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2051282788689709</v>
+        <v>0.2067136816590188</v>
       </c>
       <c r="J18" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K18" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005101918956474494</v>
+        <v>0.005221238028174646</v>
       </c>
       <c r="M18" t="n">
-        <v>14.33339541819978</v>
+        <v>14.2849512077925</v>
       </c>
       <c r="N18" t="n">
-        <v>456.8202651090037</v>
+        <v>455.0395216159501</v>
       </c>
       <c r="O18" t="n">
-        <v>21.37335409122779</v>
+        <v>21.33165538855225</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2874447208027</v>
+        <v>331.2716519280686</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35381,28 +35488,28 @@
         <v>0.0912</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3439168114059341</v>
+        <v>0.3424051087236875</v>
       </c>
       <c r="J19" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K19" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02419191535710818</v>
+        <v>0.024167286273448</v>
       </c>
       <c r="M19" t="n">
-        <v>12.91754860137475</v>
+        <v>12.87372809971876</v>
       </c>
       <c r="N19" t="n">
-        <v>274.6666239441895</v>
+        <v>273.5934826550646</v>
       </c>
       <c r="O19" t="n">
-        <v>16.57306923729547</v>
+        <v>16.54066149387819</v>
       </c>
       <c r="P19" t="n">
-        <v>324.4603727048344</v>
+        <v>324.4750846744421</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35459,28 +35566,28 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3466966227763269</v>
+        <v>0.3473214532704639</v>
       </c>
       <c r="J20" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K20" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02879038222961294</v>
+        <v>0.02910616093659635</v>
       </c>
       <c r="M20" t="n">
-        <v>12.1082255614354</v>
+        <v>12.06304122060165</v>
       </c>
       <c r="N20" t="n">
-        <v>244.7655887121795</v>
+        <v>243.7856764254029</v>
       </c>
       <c r="O20" t="n">
-        <v>15.64498605663103</v>
+        <v>15.61363751421823</v>
       </c>
       <c r="P20" t="n">
-        <v>316.716405545295</v>
+        <v>316.7105066417952</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35537,28 +35644,28 @@
         <v>0.1149</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4991549893149638</v>
+        <v>0.4974321318669956</v>
       </c>
       <c r="J21" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K21" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03278019651868114</v>
+        <v>0.03280489388469132</v>
       </c>
       <c r="M21" t="n">
-        <v>14.55797178448496</v>
+        <v>14.50929942365845</v>
       </c>
       <c r="N21" t="n">
-        <v>432.4334384037442</v>
+        <v>430.7399703199479</v>
       </c>
       <c r="O21" t="n">
-        <v>20.79503398419306</v>
+        <v>20.75427595267896</v>
       </c>
       <c r="P21" t="n">
-        <v>310.8432248410625</v>
+        <v>310.8597410844525</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35615,28 +35722,28 @@
         <v>0.0694</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1108640898690293</v>
+        <v>0.1111950497847475</v>
       </c>
       <c r="J22" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K22" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002359085391557381</v>
+        <v>0.002391752252577262</v>
       </c>
       <c r="M22" t="n">
-        <v>14.08712441820226</v>
+        <v>14.03172228561012</v>
       </c>
       <c r="N22" t="n">
-        <v>301.3399322578149</v>
+        <v>300.1207438460661</v>
       </c>
       <c r="O22" t="n">
-        <v>17.35914549330741</v>
+        <v>17.32399329964273</v>
       </c>
       <c r="P22" t="n">
-        <v>315.8610355944574</v>
+        <v>315.8578157729269</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35693,28 +35800,28 @@
         <v>0.09859999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.01836792750937054</v>
+        <v>-0.02289206532446795</v>
       </c>
       <c r="J23" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K23" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L23" t="n">
-        <v>6.824782900638482e-05</v>
+        <v>0.0001067679587376524</v>
       </c>
       <c r="M23" t="n">
-        <v>13.06930543373931</v>
+        <v>13.04495599245827</v>
       </c>
       <c r="N23" t="n">
-        <v>290.4619938240701</v>
+        <v>289.451235562751</v>
       </c>
       <c r="O23" t="n">
-        <v>17.04294557358176</v>
+        <v>17.01326645776028</v>
       </c>
       <c r="P23" t="n">
-        <v>316.8810702004401</v>
+        <v>316.9246584893359</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35771,28 +35878,28 @@
         <v>0.1676</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02018835125100055</v>
+        <v>0.01228814351446214</v>
       </c>
       <c r="J24" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K24" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L24" t="n">
-        <v>9.85782312965533e-05</v>
+        <v>3.675016713022838e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>11.82127419761986</v>
+        <v>11.81675435647644</v>
       </c>
       <c r="N24" t="n">
-        <v>239.9563027888619</v>
+        <v>239.4346684148708</v>
       </c>
       <c r="O24" t="n">
-        <v>15.4905229992038</v>
+        <v>15.47367662887107</v>
       </c>
       <c r="P24" t="n">
-        <v>317.0793625780765</v>
+        <v>317.1555510819028</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35849,28 +35956,28 @@
         <v>0.1021</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03588741991243233</v>
+        <v>0.02585865639792996</v>
       </c>
       <c r="J25" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K25" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003353889846131608</v>
+        <v>0.0001751140406295315</v>
       </c>
       <c r="M25" t="n">
-        <v>11.48019933139579</v>
+        <v>11.48542288198158</v>
       </c>
       <c r="N25" t="n">
-        <v>224.4421131716115</v>
+        <v>224.1502078614713</v>
       </c>
       <c r="O25" t="n">
-        <v>14.98139223075117</v>
+        <v>14.97164679858135</v>
       </c>
       <c r="P25" t="n">
-        <v>316.4729740443607</v>
+        <v>316.5695333576303</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -35927,28 +36034,28 @@
         <v>0.1086</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02377914423463873</v>
+        <v>0.01760040244850854</v>
       </c>
       <c r="J26" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K26" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001547383490433374</v>
+        <v>8.537275097664221e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>11.38774416488918</v>
+        <v>11.37574180224065</v>
       </c>
       <c r="N26" t="n">
-        <v>217.9790750760126</v>
+        <v>217.3309832281232</v>
       </c>
       <c r="O26" t="n">
-        <v>14.76411443588855</v>
+        <v>14.74214988487511</v>
       </c>
       <c r="P26" t="n">
-        <v>317.1687939843408</v>
+        <v>317.2273226671499</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -36005,28 +36112,28 @@
         <v>0.1437</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1778290937442659</v>
+        <v>0.1737717655519781</v>
       </c>
       <c r="J27" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K27" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L27" t="n">
-        <v>0.003064432464007227</v>
+        <v>0.002950834830418025</v>
       </c>
       <c r="M27" t="n">
-        <v>12.35935897413325</v>
+        <v>12.33050891663881</v>
       </c>
       <c r="N27" t="n">
-        <v>606.9753133697724</v>
+        <v>604.4738062334287</v>
       </c>
       <c r="O27" t="n">
-        <v>24.63686898471014</v>
+        <v>24.58604901633096</v>
       </c>
       <c r="P27" t="n">
-        <v>314.7200677894641</v>
+        <v>314.7587987254085</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -36083,28 +36190,28 @@
         <v>0.1558</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.1166884000084343</v>
+        <v>-0.1185318484678668</v>
       </c>
       <c r="J28" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K28" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L28" t="n">
-        <v>0.002804991095386122</v>
+        <v>0.002916402784742922</v>
       </c>
       <c r="M28" t="n">
-        <v>11.49212494459636</v>
+        <v>11.45384672808542</v>
       </c>
       <c r="N28" t="n">
-        <v>293.2032572751955</v>
+        <v>291.9766195012515</v>
       </c>
       <c r="O28" t="n">
-        <v>17.12317894770698</v>
+        <v>17.08732335684122</v>
       </c>
       <c r="P28" t="n">
-        <v>321.1106538267585</v>
+        <v>321.1281959312024</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -36161,28 +36268,28 @@
         <v>0.1987</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1483982205147304</v>
+        <v>-0.1508708606497955</v>
       </c>
       <c r="J29" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K29" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L29" t="n">
-        <v>0.007780343902140774</v>
+        <v>0.008102210004867549</v>
       </c>
       <c r="M29" t="n">
-        <v>9.517971137682744</v>
+        <v>9.494052817131848</v>
       </c>
       <c r="N29" t="n">
-        <v>165.4722731448781</v>
+        <v>164.8496214346354</v>
       </c>
       <c r="O29" t="n">
-        <v>12.86360265030284</v>
+        <v>12.83937776664568</v>
       </c>
       <c r="P29" t="n">
-        <v>324.4039635822504</v>
+        <v>324.4274579549494</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -36239,28 +36346,28 @@
         <v>0.1121</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1219318442492528</v>
+        <v>-0.1266777234446813</v>
       </c>
       <c r="J30" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K30" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L30" t="n">
-        <v>0.005675066287538222</v>
+        <v>0.00616437380467949</v>
       </c>
       <c r="M30" t="n">
-        <v>9.495905917637243</v>
+        <v>9.486802808329371</v>
       </c>
       <c r="N30" t="n">
-        <v>150.5360269104435</v>
+        <v>150.1213323812609</v>
       </c>
       <c r="O30" t="n">
-        <v>12.26931240577252</v>
+        <v>12.25240108636919</v>
       </c>
       <c r="P30" t="n">
-        <v>326.1014412464332</v>
+        <v>326.1469202576125</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -36298,7 +36405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE353"/>
+  <dimension ref="A1:AE354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81271,6 +81378,159 @@
         </is>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr"/>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>-42.89872916932408,173.29865888931212</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>-42.89915368278794,173.29797246589055</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>-42.899642172807376,173.29735945239733</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>-42.90009684431998,173.29673673154085</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>-42.900627594899476,173.29623920401184</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>-42.901136213530215,173.2956690215737</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>-42.90162145007742,173.2950586267604</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>-42.90206309135117,173.29437772336354</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>-42.902594625256306,173.29384561637167</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>-42.903147106768444,173.2933556756689</t>
+        </is>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>-42.90370761052698,173.29288465246228</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>-42.904248137574044,173.29236702360487</t>
+        </is>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>-42.90480825149622,173.29189511499305</t>
+        </is>
+      </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>-42.90537515517995,173.2914486810422</t>
+        </is>
+      </c>
+      <c r="Q354" t="inlineStr">
+        <is>
+          <t>-42.905890693746265,173.29090312434923</t>
+        </is>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>-42.90649577044247,173.29052359912808</t>
+        </is>
+      </c>
+      <c r="S354" t="inlineStr">
+        <is>
+          <t>-42.906991259646176,173.28993068187657</t>
+        </is>
+      </c>
+      <c r="T354" t="inlineStr">
+        <is>
+          <t>-42.90748269808268,173.28934145234822</t>
+        </is>
+      </c>
+      <c r="U354" t="inlineStr">
+        <is>
+          <t>-42.90796165615458,173.28872691059576</t>
+        </is>
+      </c>
+      <c r="V354" t="inlineStr">
+        <is>
+          <t>-42.90845981876667,173.28813942667932</t>
+        </is>
+      </c>
+      <c r="W354" t="inlineStr">
+        <is>
+          <t>-42.90891903498844,173.2874864557129</t>
+        </is>
+      </c>
+      <c r="X354" t="inlineStr">
+        <is>
+          <t>-42.909411456976514,173.28688961261807</t>
+        </is>
+      </c>
+      <c r="Y354" t="inlineStr">
+        <is>
+          <t>-42.90990510053107,173.28630518898527</t>
+        </is>
+      </c>
+      <c r="Z354" t="inlineStr">
+        <is>
+          <t>-42.91042946343551,173.28577013082804</t>
+        </is>
+      </c>
+      <c r="AA354" t="inlineStr">
+        <is>
+          <t>-42.91095476034256,173.28522657505653</t>
+        </is>
+      </c>
+      <c r="AB354" t="inlineStr">
+        <is>
+          <t>-42.91146274125634,173.28465541524022</t>
+        </is>
+      </c>
+      <c r="AC354" t="inlineStr">
+        <is>
+          <t>-42.91197155650132,173.2840855921887</t>
+        </is>
+      </c>
+      <c r="AD354" t="inlineStr">
+        <is>
+          <t>-42.912465884029565,173.28349267486564</t>
+        </is>
+      </c>
+      <c r="AE354" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0411/nzd0411.xlsx
+++ b/data/nzd0411/nzd0411.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE354"/>
+  <dimension ref="A1:AE355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30219,7 +30219,9 @@
           <t>2025-05-06 22:07:18+00:00</t>
         </is>
       </c>
-      <c r="B354" t="inlineStr"/>
+      <c r="B354" t="n">
+        <v>254.7628571428572</v>
+      </c>
       <c r="C354" t="n">
         <v>347.6638461538461</v>
       </c>
@@ -30307,6 +30309,103 @@
       <c r="AE354" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>254.7357142857143</v>
+      </c>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="n">
+        <v>352.2394117647058</v>
+      </c>
+      <c r="E355" t="n">
+        <v>361.1194117647058</v>
+      </c>
+      <c r="F355" t="n">
+        <v>364.7278947368421</v>
+      </c>
+      <c r="G355" t="n">
+        <v>358.7</v>
+      </c>
+      <c r="H355" t="n">
+        <v>354.1494117647059</v>
+      </c>
+      <c r="I355" t="n">
+        <v>349.04</v>
+      </c>
+      <c r="J355" t="n">
+        <v>346.3733333333333</v>
+      </c>
+      <c r="K355" t="n">
+        <v>349.5271428571428</v>
+      </c>
+      <c r="L355" t="n">
+        <v>320.63</v>
+      </c>
+      <c r="M355" t="n">
+        <v>322.0976923076923</v>
+      </c>
+      <c r="N355" t="n">
+        <v>312.92</v>
+      </c>
+      <c r="O355" t="n">
+        <v>318.82</v>
+      </c>
+      <c r="P355" t="n">
+        <v>323.6371428571428</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>316.6353846153846</v>
+      </c>
+      <c r="R355" t="n">
+        <v>320.74</v>
+      </c>
+      <c r="S355" t="n">
+        <v>318.1153846153846</v>
+      </c>
+      <c r="T355" t="n">
+        <v>309.9357142857143</v>
+      </c>
+      <c r="U355" t="n">
+        <v>308.56</v>
+      </c>
+      <c r="V355" t="n">
+        <v>311.9845454545454</v>
+      </c>
+      <c r="W355" t="n">
+        <v>307.9757142857143</v>
+      </c>
+      <c r="X355" t="n">
+        <v>306.6071428571428</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>305.9853846153846</v>
+      </c>
+      <c r="Z355" t="n">
+        <v>307.5894117647059</v>
+      </c>
+      <c r="AA355" t="n">
+        <v>305.2671428571429</v>
+      </c>
+      <c r="AB355" t="n">
+        <v>310.4272727272727</v>
+      </c>
+      <c r="AC355" t="n">
+        <v>311.14</v>
+      </c>
+      <c r="AD355" t="n">
+        <v>311.6433333333333</v>
+      </c>
+      <c r="AE355" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -30321,7 +30420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B366"/>
+  <dimension ref="A1:B367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33989,6 +34088,16 @@
       </c>
       <c r="B366" t="n">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -34162,28 +34271,28 @@
         <v>0.1061</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04158997111132166</v>
+        <v>-0.1368580770761494</v>
       </c>
       <c r="J2" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K2" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001410506394385891</v>
+        <v>0.001468762284138947</v>
       </c>
       <c r="M2" t="n">
-        <v>18.02010439830681</v>
+        <v>18.56597023910525</v>
       </c>
       <c r="N2" t="n">
-        <v>689.9608579318409</v>
+        <v>721.5470651004066</v>
       </c>
       <c r="O2" t="n">
-        <v>26.26710600602664</v>
+        <v>26.86162811708193</v>
       </c>
       <c r="P2" t="n">
-        <v>328.6350336600908</v>
+        <v>329.5787426970608</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34243,7 +34352,7 @@
         <v>0.0193195308216952</v>
       </c>
       <c r="J3" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K3" t="n">
         <v>288</v>
@@ -34318,28 +34427,28 @@
         <v>0.1061</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03213725929378614</v>
+        <v>-0.02619101750059927</v>
       </c>
       <c r="J4" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K4" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002960895333007363</v>
+        <v>0.0001977681303337864</v>
       </c>
       <c r="M4" t="n">
-        <v>10.99011988997678</v>
+        <v>10.98313966897876</v>
       </c>
       <c r="N4" t="n">
-        <v>201.9908387348039</v>
+        <v>201.594517498095</v>
       </c>
       <c r="O4" t="n">
-        <v>14.21234810771267</v>
+        <v>14.19839841313431</v>
       </c>
       <c r="P4" t="n">
-        <v>343.7558277975688</v>
+        <v>343.6984599121747</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34396,28 +34505,28 @@
         <v>0.1011</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01765267662118411</v>
+        <v>0.02289408599830056</v>
       </c>
       <c r="J5" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K5" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L5" t="n">
-        <v>8.177841594114721e-05</v>
+        <v>0.0001383875449164629</v>
       </c>
       <c r="M5" t="n">
-        <v>11.77176146266346</v>
+        <v>11.75908560501551</v>
       </c>
       <c r="N5" t="n">
-        <v>222.9100230366404</v>
+        <v>222.366720729757</v>
       </c>
       <c r="O5" t="n">
-        <v>14.93017156755542</v>
+        <v>14.91196568966537</v>
       </c>
       <c r="P5" t="n">
-        <v>352.5357990049965</v>
+        <v>352.4858056312963</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34474,28 +34583,28 @@
         <v>0.1162</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1146257591459889</v>
+        <v>-0.1123761412736529</v>
       </c>
       <c r="J6" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K6" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002441025941723129</v>
+        <v>0.002363592111312318</v>
       </c>
       <c r="M6" t="n">
-        <v>12.83260134277609</v>
+        <v>12.79664002383653</v>
       </c>
       <c r="N6" t="n">
-        <v>311.6580151993842</v>
+        <v>310.5723011651111</v>
       </c>
       <c r="O6" t="n">
-        <v>17.65383854008482</v>
+        <v>17.62306162859085</v>
       </c>
       <c r="P6" t="n">
-        <v>364.3707832328936</v>
+        <v>364.3491714436344</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34552,28 +34661,28 @@
         <v>0.1021</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2451856558533552</v>
+        <v>-0.2452506089006246</v>
       </c>
       <c r="J7" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K7" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01181845320654451</v>
+        <v>0.01191383340967789</v>
       </c>
       <c r="M7" t="n">
-        <v>12.33851226369838</v>
+        <v>12.29431998129095</v>
       </c>
       <c r="N7" t="n">
-        <v>290.2968165546213</v>
+        <v>289.2488456516987</v>
       </c>
       <c r="O7" t="n">
-        <v>17.038098971265</v>
+        <v>17.00731741491581</v>
       </c>
       <c r="P7" t="n">
-        <v>365.1370148809349</v>
+        <v>365.137637790358</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34630,28 +34739,28 @@
         <v>0.1072</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5020327083342947</v>
+        <v>-0.5034212949080497</v>
       </c>
       <c r="J8" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K8" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04094654257162966</v>
+        <v>0.04143022606077995</v>
       </c>
       <c r="M8" t="n">
-        <v>13.58585900968378</v>
+        <v>13.5478379727319</v>
       </c>
       <c r="N8" t="n">
-        <v>343.9156026566574</v>
+        <v>342.7462735841299</v>
       </c>
       <c r="O8" t="n">
-        <v>18.54496165152836</v>
+        <v>18.51340794084465</v>
       </c>
       <c r="P8" t="n">
-        <v>369.3400525612577</v>
+        <v>369.3535431072078</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34708,28 +34817,28 @@
         <v>0.0983</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2435232317540065</v>
+        <v>-0.2511691875839824</v>
       </c>
       <c r="J9" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K9" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01446533903653646</v>
+        <v>0.01544189414662134</v>
       </c>
       <c r="M9" t="n">
-        <v>11.78087547501067</v>
+        <v>11.7867135127555</v>
       </c>
       <c r="N9" t="n">
-        <v>235.1617292357061</v>
+        <v>234.8667181303424</v>
       </c>
       <c r="O9" t="n">
-        <v>15.33498383552151</v>
+        <v>15.3253619249381</v>
       </c>
       <c r="P9" t="n">
-        <v>367.608365843368</v>
+        <v>367.6828857464718</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34786,28 +34895,28 @@
         <v>0.1201</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2344343266295867</v>
+        <v>-0.2465311448602948</v>
       </c>
       <c r="J10" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K10" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01304033676827199</v>
+        <v>0.0144420237319004</v>
       </c>
       <c r="M10" t="n">
-        <v>11.91548280509357</v>
+        <v>11.93847008888482</v>
       </c>
       <c r="N10" t="n">
-        <v>242.8741598094196</v>
+        <v>243.1189533531633</v>
       </c>
       <c r="O10" t="n">
-        <v>15.58442041942592</v>
+        <v>15.59227223188344</v>
       </c>
       <c r="P10" t="n">
-        <v>370.141783576226</v>
+        <v>370.2573300708787</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34864,28 +34973,28 @@
         <v>0.1398</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2970210092360229</v>
+        <v>-0.3018381871149087</v>
       </c>
       <c r="J11" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K11" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01902918207956472</v>
+        <v>0.01976798153618031</v>
       </c>
       <c r="M11" t="n">
-        <v>12.53151538477662</v>
+        <v>12.51275809585633</v>
       </c>
       <c r="N11" t="n">
-        <v>268.8710830774234</v>
+        <v>268.0541634135976</v>
       </c>
       <c r="O11" t="n">
-        <v>16.39728889412586</v>
+        <v>16.37235973870589</v>
       </c>
       <c r="P11" t="n">
-        <v>364.316163720418</v>
+        <v>364.3623273437037</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34942,28 +35051,28 @@
         <v>0.1417</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1658352737119612</v>
+        <v>-0.187916559290939</v>
       </c>
       <c r="J12" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K12" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006253454101097122</v>
+        <v>0.007953522272544644</v>
       </c>
       <c r="M12" t="n">
-        <v>11.86233095512384</v>
+        <v>11.95684090438431</v>
       </c>
       <c r="N12" t="n">
-        <v>257.5509380959787</v>
+        <v>260.4880295970015</v>
       </c>
       <c r="O12" t="n">
-        <v>16.04839362976802</v>
+        <v>16.13964155726519</v>
       </c>
       <c r="P12" t="n">
-        <v>357.1927521449173</v>
+        <v>357.4062321764293</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35020,28 +35129,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1561097216413116</v>
+        <v>0.1359753290418507</v>
       </c>
       <c r="J13" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K13" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005270509120937628</v>
+        <v>0.003984499452108214</v>
       </c>
       <c r="M13" t="n">
-        <v>12.42800771675647</v>
+        <v>12.4944782622716</v>
       </c>
       <c r="N13" t="n">
-        <v>264.1051148537748</v>
+        <v>266.3449913641841</v>
       </c>
       <c r="O13" t="n">
-        <v>16.25131117337228</v>
+        <v>16.32007939209194</v>
       </c>
       <c r="P13" t="n">
-        <v>347.8500268795775</v>
+        <v>348.0472499447415</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35098,28 +35207,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3986239528735886</v>
+        <v>0.3733649972025499</v>
       </c>
       <c r="J14" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K14" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02533321186756754</v>
+        <v>0.02213485905655677</v>
       </c>
       <c r="M14" t="n">
-        <v>14.37055440982438</v>
+        <v>14.45031949003512</v>
       </c>
       <c r="N14" t="n">
-        <v>343.9497010566436</v>
+        <v>347.691664849473</v>
       </c>
       <c r="O14" t="n">
-        <v>18.54588097278324</v>
+        <v>18.64649202529722</v>
       </c>
       <c r="P14" t="n">
-        <v>339.7623888767168</v>
+        <v>340.0149964681981</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35176,28 +35285,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4777511457283463</v>
+        <v>0.4567324249543612</v>
       </c>
       <c r="J15" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K15" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03634606080965119</v>
+        <v>0.03321960726355455</v>
       </c>
       <c r="M15" t="n">
-        <v>14.46993168960782</v>
+        <v>14.52405739524479</v>
       </c>
       <c r="N15" t="n">
-        <v>340.7472380704327</v>
+        <v>343.0274272122669</v>
       </c>
       <c r="O15" t="n">
-        <v>18.45934013095898</v>
+        <v>18.52099962778108</v>
       </c>
       <c r="P15" t="n">
-        <v>337.8119052339719</v>
+        <v>338.0218641566188</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35254,28 +35363,28 @@
         <v>0.1534</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4545001622592077</v>
+        <v>0.4402738581448948</v>
       </c>
       <c r="J16" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K16" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L16" t="n">
-        <v>0.029602598259034</v>
+        <v>0.02792219750683655</v>
       </c>
       <c r="M16" t="n">
-        <v>14.87820798873076</v>
+        <v>14.89456881372709</v>
       </c>
       <c r="N16" t="n">
-        <v>384.2877383351764</v>
+        <v>384.406019171577</v>
       </c>
       <c r="O16" t="n">
-        <v>19.60325836015983</v>
+        <v>19.60627499479636</v>
       </c>
       <c r="P16" t="n">
-        <v>332.3962193914365</v>
+        <v>332.5365061898608</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35332,28 +35441,28 @@
         <v>0.1082</v>
       </c>
       <c r="I17" t="n">
-        <v>0.316992527419748</v>
+        <v>0.3027657609898764</v>
       </c>
       <c r="J17" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K17" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L17" t="n">
-        <v>0.007846779670448556</v>
+        <v>0.007204006981436195</v>
       </c>
       <c r="M17" t="n">
-        <v>17.76880126306297</v>
+        <v>17.78458511403343</v>
       </c>
       <c r="N17" t="n">
-        <v>710.5467563390175</v>
+        <v>709.2479924145589</v>
       </c>
       <c r="O17" t="n">
-        <v>26.65608291439343</v>
+        <v>26.63171027956258</v>
       </c>
       <c r="P17" t="n">
-        <v>327.9259199333111</v>
+        <v>328.0679604316812</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35410,28 +35519,28 @@
         <v>0.1029</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2067136816590188</v>
+        <v>0.1949966937654863</v>
       </c>
       <c r="J18" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K18" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005221238028174646</v>
+        <v>0.004675228866515946</v>
       </c>
       <c r="M18" t="n">
-        <v>14.2849512077925</v>
+        <v>14.29393032152043</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0395216159501</v>
+        <v>454.2322364581</v>
       </c>
       <c r="O18" t="n">
-        <v>21.33165538855225</v>
+        <v>21.31272475443016</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2716519280686</v>
+        <v>331.3887546177236</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35488,28 +35597,28 @@
         <v>0.0912</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3424051087236875</v>
+        <v>0.3313550462355934</v>
       </c>
       <c r="J19" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K19" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L19" t="n">
-        <v>0.024167286273448</v>
+        <v>0.02276702361687666</v>
       </c>
       <c r="M19" t="n">
-        <v>12.87372809971876</v>
+        <v>12.87663986953624</v>
       </c>
       <c r="N19" t="n">
-        <v>273.5934826550646</v>
+        <v>273.4166013899262</v>
       </c>
       <c r="O19" t="n">
-        <v>16.54066149387819</v>
+        <v>16.5353137675076</v>
       </c>
       <c r="P19" t="n">
-        <v>324.4750846744421</v>
+        <v>324.5829931675241</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35566,28 +35675,28 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3473214532704639</v>
+        <v>0.3362080113637275</v>
       </c>
       <c r="J20" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K20" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02910616093659635</v>
+        <v>0.02741878101837858</v>
       </c>
       <c r="M20" t="n">
-        <v>12.06304122060165</v>
+        <v>12.07876897763215</v>
       </c>
       <c r="N20" t="n">
-        <v>243.7856764254029</v>
+        <v>243.792438656912</v>
       </c>
       <c r="O20" t="n">
-        <v>15.61363751421823</v>
+        <v>15.61385406159901</v>
       </c>
       <c r="P20" t="n">
-        <v>316.7105066417952</v>
+        <v>316.8158107599409</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35644,28 +35753,28 @@
         <v>0.1149</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4974321318669956</v>
+        <v>0.486591990012421</v>
       </c>
       <c r="J21" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K21" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03280489388469132</v>
+        <v>0.03160692965310019</v>
       </c>
       <c r="M21" t="n">
-        <v>14.50929942365845</v>
+        <v>14.50856275305863</v>
       </c>
       <c r="N21" t="n">
-        <v>430.7399703199479</v>
+        <v>429.9361143670694</v>
       </c>
       <c r="O21" t="n">
-        <v>20.75427595267896</v>
+        <v>20.73490087671194</v>
       </c>
       <c r="P21" t="n">
-        <v>310.8597410844525</v>
+        <v>310.9640260779194</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35722,28 +35831,28 @@
         <v>0.0694</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1111950497847475</v>
+        <v>0.1062624038243322</v>
       </c>
       <c r="J22" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K22" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002391752252577262</v>
+        <v>0.002200447756300905</v>
       </c>
       <c r="M22" t="n">
-        <v>14.03172228561012</v>
+        <v>14.00488710999546</v>
       </c>
       <c r="N22" t="n">
-        <v>300.1207438460661</v>
+        <v>299.0921142894755</v>
       </c>
       <c r="O22" t="n">
-        <v>17.32399329964273</v>
+        <v>17.29427981413148</v>
       </c>
       <c r="P22" t="n">
-        <v>315.8578157729269</v>
+        <v>315.9059721503293</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35800,28 +35909,28 @@
         <v>0.09859999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.02289206532446795</v>
+        <v>-0.02889416635958587</v>
       </c>
       <c r="J23" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K23" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001067679587376524</v>
+        <v>0.0001712336909197587</v>
       </c>
       <c r="M23" t="n">
-        <v>13.04495599245827</v>
+        <v>13.02974135313104</v>
       </c>
       <c r="N23" t="n">
-        <v>289.451235562751</v>
+        <v>288.5695244628538</v>
       </c>
       <c r="O23" t="n">
-        <v>17.01326645776028</v>
+        <v>16.9873342365085</v>
       </c>
       <c r="P23" t="n">
-        <v>316.9246584893359</v>
+        <v>316.9826918779947</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35878,28 +35987,28 @@
         <v>0.1676</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01228814351446214</v>
+        <v>0.00424135730278867</v>
       </c>
       <c r="J24" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K24" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L24" t="n">
-        <v>3.675016713022838e-05</v>
+        <v>4.404923182654841e-06</v>
       </c>
       <c r="M24" t="n">
-        <v>11.81675435647644</v>
+        <v>11.81351806707874</v>
       </c>
       <c r="N24" t="n">
-        <v>239.4346684148708</v>
+        <v>238.9396098081508</v>
       </c>
       <c r="O24" t="n">
-        <v>15.47367662887107</v>
+        <v>15.45767155195603</v>
       </c>
       <c r="P24" t="n">
-        <v>317.1555510819028</v>
+        <v>317.2334195178008</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35956,28 +36065,28 @@
         <v>0.1021</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02585865639792996</v>
+        <v>0.01698667183974627</v>
       </c>
       <c r="J25" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K25" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001751140406295315</v>
+        <v>7.603339477457727e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>11.48542288198158</v>
+        <v>11.48400851480627</v>
       </c>
       <c r="N25" t="n">
-        <v>224.1502078614713</v>
+        <v>223.7191766377405</v>
       </c>
       <c r="O25" t="n">
-        <v>14.97164679858135</v>
+        <v>14.957244954795</v>
       </c>
       <c r="P25" t="n">
-        <v>316.5695333576303</v>
+        <v>316.6552536332575</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -36034,28 +36143,28 @@
         <v>0.1086</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01760040244850854</v>
+        <v>0.009963975292529507</v>
       </c>
       <c r="J26" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K26" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L26" t="n">
-        <v>8.537275097664221e-05</v>
+        <v>2.753509141240063e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>11.37574180224065</v>
+        <v>11.37209362421186</v>
       </c>
       <c r="N26" t="n">
-        <v>217.3309832281232</v>
+        <v>216.83849528833</v>
       </c>
       <c r="O26" t="n">
-        <v>14.74214988487511</v>
+        <v>14.72543701519008</v>
       </c>
       <c r="P26" t="n">
-        <v>317.2273226671499</v>
+        <v>317.2999172471991</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -36112,28 +36221,28 @@
         <v>0.1437</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1737717655519781</v>
+        <v>0.1629162056809688</v>
       </c>
       <c r="J27" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K27" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002950834830418025</v>
+        <v>0.002612893297922803</v>
       </c>
       <c r="M27" t="n">
-        <v>12.33050891663881</v>
+        <v>12.34321380295889</v>
       </c>
       <c r="N27" t="n">
-        <v>604.4738062334287</v>
+        <v>602.7084821274796</v>
       </c>
       <c r="O27" t="n">
-        <v>24.58604901633096</v>
+        <v>24.5501218352879</v>
       </c>
       <c r="P27" t="n">
-        <v>314.7587987254085</v>
+        <v>314.862789273125</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -36190,28 +36299,28 @@
         <v>0.1558</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.1185318484678668</v>
+        <v>-0.124131309338385</v>
       </c>
       <c r="J28" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K28" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L28" t="n">
-        <v>0.002916402784742922</v>
+        <v>0.003219719126131504</v>
       </c>
       <c r="M28" t="n">
-        <v>11.45384672808542</v>
+        <v>11.43765689598601</v>
       </c>
       <c r="N28" t="n">
-        <v>291.9766195012515</v>
+        <v>290.9792432711261</v>
       </c>
       <c r="O28" t="n">
-        <v>17.08732335684122</v>
+        <v>17.05811370788476</v>
       </c>
       <c r="P28" t="n">
-        <v>321.1281959312024</v>
+        <v>321.1816818267436</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -36268,28 +36377,28 @@
         <v>0.1987</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1508708606497955</v>
+        <v>-0.1577663288633544</v>
       </c>
       <c r="J29" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K29" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L29" t="n">
-        <v>0.008102210004867549</v>
+        <v>0.008905161659177541</v>
       </c>
       <c r="M29" t="n">
-        <v>9.494052817131848</v>
+        <v>9.496788041554744</v>
       </c>
       <c r="N29" t="n">
-        <v>164.8496214346354</v>
+        <v>164.5370464898774</v>
       </c>
       <c r="O29" t="n">
-        <v>12.83937776664568</v>
+        <v>12.82719947961664</v>
       </c>
       <c r="P29" t="n">
-        <v>324.4274579549494</v>
+        <v>324.4932034036192</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -36346,28 +36455,28 @@
         <v>0.1121</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1266777234446813</v>
+        <v>-0.134735935953667</v>
       </c>
       <c r="J30" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K30" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L30" t="n">
-        <v>0.00616437380467949</v>
+        <v>0.007000592275276274</v>
       </c>
       <c r="M30" t="n">
-        <v>9.486802808329371</v>
+        <v>9.496566976236243</v>
       </c>
       <c r="N30" t="n">
-        <v>150.1213323812609</v>
+        <v>150.0234361947037</v>
       </c>
       <c r="O30" t="n">
-        <v>12.25240108636919</v>
+        <v>12.248405455189</v>
       </c>
       <c r="P30" t="n">
-        <v>326.1469202576125</v>
+        <v>326.2243983203068</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -36405,7 +36514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE354"/>
+  <dimension ref="A1:AE355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39870,7 +39979,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-42.90060893894546,173.29620711361358</t>
+          <t>-42.90060893894547,173.29620711361358</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -41828,7 +41937,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>-42.90422423815149,173.29231125181144</t>
+          <t>-42.904224238151485,173.29231125181144</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -53675,7 +53784,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>-42.90259634996976,173.29384962312486</t>
+          <t>-42.90259634996977,173.29384962312486</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -54206,7 +54315,7 @@
       </c>
       <c r="AD134" t="inlineStr">
         <is>
-          <t>-42.91256858044119,173.2836564248739</t>
+          <t>-42.912568580441196,173.2836564248739</t>
         </is>
       </c>
       <c r="AE134" t="inlineStr">
@@ -55717,7 +55826,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>-42.903786295398376,173.2930682727848</t>
+          <t>-42.90378629539837,173.2930682727848</t>
         </is>
       </c>
       <c r="N146" t="inlineStr"/>
@@ -60258,7 +60367,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>-42.904872845219586,173.29204585177115</t>
+          <t>-42.90487284521958,173.29204585177115</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
@@ -68086,7 +68195,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-42.89816555561923,173.29918655063244</t>
+          <t>-42.89816555561922,173.29918655063244</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -68143,7 +68252,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>-42.90492859550374,173.29217595200902</t>
+          <t>-42.90492859550375,173.29217595200902</t>
         </is>
       </c>
       <c r="P246" t="inlineStr">
@@ -68440,7 +68549,7 @@
       </c>
       <c r="Z248" t="inlineStr">
         <is>
-          <t>-42.910505560167614,173.28589146776486</t>
+          <t>-42.91050556016761,173.28589146776486</t>
         </is>
       </c>
       <c r="AA248" t="inlineStr">
@@ -69861,7 +69970,7 @@
       </c>
       <c r="X259" t="inlineStr">
         <is>
-          <t>-42.90948531502956,173.28701372331685</t>
+          <t>-42.90948531502957,173.28701372331685</t>
         </is>
       </c>
       <c r="Y259" t="inlineStr">
@@ -70627,7 +70736,7 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>-42.90425167486765,173.29237527825725</t>
+          <t>-42.90425167486766,173.29237527825725</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -71178,7 +71287,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>-42.90104600853285,173.29551385904242</t>
+          <t>-42.901046008532845,173.29551385904242</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -73344,7 +73453,7 @@
       </c>
       <c r="S291" t="inlineStr">
         <is>
-          <t>-42.90706701721717,173.29007080827535</t>
+          <t>-42.90706701721718,173.29007080827535</t>
         </is>
       </c>
       <c r="T291" t="inlineStr">
@@ -81384,7 +81493,11 @@
           <t>2025-05-06 22:07:18+00:00</t>
         </is>
       </c>
-      <c r="B354" t="inlineStr"/>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>-42.8976667949154,173.29861728625633</t>
+        </is>
+      </c>
       <c r="C354" t="inlineStr">
         <is>
           <t>-42.89872916932408,173.29865888931212</t>
@@ -81528,6 +81641,159 @@
       <c r="AE354" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>-42.89766660767757,173.29861707255333</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>-42.89918225369918,173.29800507582834</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>-42.89966484001148,173.297385435132</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>-42.90010130578562,173.29674300584975</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>-42.90056992339545,173.2961400024689</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>-42.90105947653954,173.2955370254454</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>-42.90154590366689,173.2949286788782</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>-42.90204580498202,173.29434338196447</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>-42.9026261207554,173.29391878495468</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>-42.90306257551448,173.29315841350342</t>
+        </is>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>-42.90363677784197,173.29271935712362</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>-42.90416269814605,173.29216764228693</t>
+        </is>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>-42.90475699057308,173.29177549237207</t>
+        </is>
+      </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>-42.90534202023183,173.29137561797074</t>
+        </is>
+      </c>
+      <c r="Q355" t="inlineStr">
+        <is>
+          <t>-42.90584881620345,173.2908192264454</t>
+        </is>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>-42.90640234659068,173.29034375674024</t>
+        </is>
+      </c>
+      <c r="S355" t="inlineStr">
+        <is>
+          <t>-42.90692110812024,173.28980092539504</t>
+        </is>
+      </c>
+      <c r="T355" t="inlineStr">
+        <is>
+          <t>-42.90739022521955,173.28918156568102</t>
+        </is>
+      </c>
+      <c r="U355" t="inlineStr">
+        <is>
+          <t>-42.90788936043716,173.28860533421582</t>
+        </is>
+      </c>
+      <c r="V355" t="inlineStr">
+        <is>
+          <t>-42.908419112784934,173.28807097335033</t>
+        </is>
+      </c>
+      <c r="W355" t="inlineStr">
+        <is>
+          <t>-42.90890676103574,173.2874658152477</t>
+        </is>
+      </c>
+      <c r="X355" t="inlineStr">
+        <is>
+          <t>-42.90940925793474,173.28688591736744</t>
+        </is>
+      </c>
+      <c r="Y355" t="inlineStr">
+        <is>
+          <t>-42.90991213329419,173.2863166958132</t>
+        </is>
+      </c>
+      <c r="Z355" t="inlineStr">
+        <is>
+          <t>-42.91041731641424,173.28575076233818</t>
+        </is>
+      </c>
+      <c r="AA355" t="inlineStr">
+        <is>
+          <t>-42.91090304407806,173.2851441132751</t>
+        </is>
+      </c>
+      <c r="AB355" t="inlineStr">
+        <is>
+          <t>-42.91143250170007,173.28460719816212</t>
+        </is>
+      </c>
+      <c r="AC355" t="inlineStr">
+        <is>
+          <t>-42.91193596067461,173.2840288345696</t>
+        </is>
+      </c>
+      <c r="AD355" t="inlineStr">
+        <is>
+          <t>-42.912438191742055,173.2834485195147</t>
+        </is>
+      </c>
+      <c r="AE355" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0411/nzd0411.xlsx
+++ b/data/nzd0411/nzd0411.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE355"/>
+  <dimension ref="A1:AE356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30321,7 +30321,9 @@
       <c r="B355" t="n">
         <v>254.7357142857143</v>
       </c>
-      <c r="C355" t="inlineStr"/>
+      <c r="C355" t="n">
+        <v>254.2053846153846</v>
+      </c>
       <c r="D355" t="n">
         <v>352.2394117647058</v>
       </c>
@@ -30404,6 +30406,101 @@
         <v>311.6433333333333</v>
       </c>
       <c r="AE355" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr"/>
+      <c r="C356" t="n">
+        <v>270.5669230769231</v>
+      </c>
+      <c r="D356" t="n">
+        <v>314.8805882352941</v>
+      </c>
+      <c r="E356" t="n">
+        <v>336.5205882352941</v>
+      </c>
+      <c r="F356" t="n">
+        <v>351.078947368421</v>
+      </c>
+      <c r="G356" t="n">
+        <v>350.01</v>
+      </c>
+      <c r="H356" t="n">
+        <v>340.4905882352941</v>
+      </c>
+      <c r="I356" t="n">
+        <v>353.58</v>
+      </c>
+      <c r="J356" t="n">
+        <v>359.07</v>
+      </c>
+      <c r="K356" t="n">
+        <v>350.0671428571428</v>
+      </c>
+      <c r="L356" t="n">
+        <v>342.38</v>
+      </c>
+      <c r="M356" t="n">
+        <v>341.9284615384615</v>
+      </c>
+      <c r="N356" t="n">
+        <v>335.11</v>
+      </c>
+      <c r="O356" t="n">
+        <v>325.4</v>
+      </c>
+      <c r="P356" t="n">
+        <v>305.5271428571428</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>319.5169230769231</v>
+      </c>
+      <c r="R356" t="n">
+        <v>316.12</v>
+      </c>
+      <c r="S356" t="n">
+        <v>292.8169230769231</v>
+      </c>
+      <c r="T356" t="inlineStr"/>
+      <c r="U356" t="n">
+        <v>289.98</v>
+      </c>
+      <c r="V356" t="n">
+        <v>306.740909090909</v>
+      </c>
+      <c r="W356" t="n">
+        <v>300.3557142857143</v>
+      </c>
+      <c r="X356" t="n">
+        <v>299.2271428571428</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>299.6669230769231</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>295.1505882352941</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>301.1871428571428</v>
+      </c>
+      <c r="AB356" t="n">
+        <v>304.5754545454545</v>
+      </c>
+      <c r="AC356" t="n">
+        <v>295.95</v>
+      </c>
+      <c r="AD356" t="n">
+        <v>295.75</v>
+      </c>
+      <c r="AE356" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -30420,7 +30517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:B368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34098,6 +34195,16 @@
       </c>
       <c r="B367" t="n">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
@@ -34274,7 +34381,7 @@
         <v>-0.1368580770761494</v>
       </c>
       <c r="J2" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K2" t="n">
         <v>285</v>
@@ -34349,28 +34456,28 @@
         <v>0.078</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0193195308216952</v>
+        <v>-0.08018888682417555</v>
       </c>
       <c r="J3" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K3" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001177876892568541</v>
+        <v>0.001681544953176073</v>
       </c>
       <c r="M3" t="n">
-        <v>10.53303661722837</v>
+        <v>10.99825336082766</v>
       </c>
       <c r="N3" t="n">
-        <v>180.1756096831453</v>
+        <v>218.7094137366176</v>
       </c>
       <c r="O3" t="n">
-        <v>13.42295085602064</v>
+        <v>14.78882732797356</v>
       </c>
       <c r="P3" t="n">
-        <v>338.1943021613758</v>
+        <v>339.169948062607</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34427,28 +34534,28 @@
         <v>0.1061</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02619101750059927</v>
+        <v>-0.04418028740524028</v>
       </c>
       <c r="J4" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K4" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001977681303337864</v>
+        <v>0.0005591077954156809</v>
       </c>
       <c r="M4" t="n">
-        <v>10.98313966897876</v>
+        <v>11.04634467069694</v>
       </c>
       <c r="N4" t="n">
-        <v>201.594517498095</v>
+        <v>203.5735958811032</v>
       </c>
       <c r="O4" t="n">
-        <v>14.19839841313431</v>
+        <v>14.26792191880455</v>
       </c>
       <c r="P4" t="n">
-        <v>343.6984599121747</v>
+        <v>343.8731645759947</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34505,28 +34612,28 @@
         <v>0.1011</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02289408599830056</v>
+        <v>0.01220025953113931</v>
       </c>
       <c r="J5" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K5" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001383875449164629</v>
+        <v>3.942175580085028e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>11.75908560501551</v>
+        <v>11.77517819029439</v>
       </c>
       <c r="N5" t="n">
-        <v>222.366720729757</v>
+        <v>222.535027723941</v>
       </c>
       <c r="O5" t="n">
-        <v>14.91196568966537</v>
+        <v>14.91760797594377</v>
       </c>
       <c r="P5" t="n">
-        <v>352.4858056312963</v>
+        <v>352.5884810934746</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34583,28 +34690,28 @@
         <v>0.1162</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1123761412736529</v>
+        <v>-0.1193895316494539</v>
       </c>
       <c r="J6" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K6" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002363592111312318</v>
+        <v>0.002683803524819339</v>
       </c>
       <c r="M6" t="n">
-        <v>12.79664002383653</v>
+        <v>12.79245095053229</v>
       </c>
       <c r="N6" t="n">
-        <v>310.5723011651111</v>
+        <v>309.8361000434519</v>
       </c>
       <c r="O6" t="n">
-        <v>17.62306162859085</v>
+        <v>17.60216180028612</v>
       </c>
       <c r="P6" t="n">
-        <v>364.3491714436344</v>
+        <v>364.4169924422337</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34661,28 +34768,28 @@
         <v>0.1021</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2452506089006246</v>
+        <v>-0.2512537563961849</v>
       </c>
       <c r="J7" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K7" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01191383340967789</v>
+        <v>0.01258013830520122</v>
       </c>
       <c r="M7" t="n">
-        <v>12.29431998129095</v>
+        <v>12.28221033735265</v>
       </c>
       <c r="N7" t="n">
-        <v>289.2488456516987</v>
+        <v>288.4807894939589</v>
       </c>
       <c r="O7" t="n">
-        <v>17.00731741491581</v>
+        <v>16.98472223776294</v>
       </c>
       <c r="P7" t="n">
-        <v>365.137637790358</v>
+        <v>365.1955817119525</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34739,28 +34846,28 @@
         <v>0.1072</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5034212949080497</v>
+        <v>-0.5133771287466881</v>
       </c>
       <c r="J8" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K8" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04143022606077995</v>
+        <v>0.04319418537032849</v>
       </c>
       <c r="M8" t="n">
-        <v>13.5478379727319</v>
+        <v>13.56526276640516</v>
       </c>
       <c r="N8" t="n">
-        <v>342.7462735841299</v>
+        <v>342.4148225043359</v>
       </c>
       <c r="O8" t="n">
-        <v>18.51340794084465</v>
+        <v>18.50445412608369</v>
       </c>
       <c r="P8" t="n">
-        <v>369.3535431072078</v>
+        <v>369.450929729794</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34817,28 +34924,28 @@
         <v>0.0983</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2511691875839824</v>
+        <v>-0.2558985615396764</v>
       </c>
       <c r="J9" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K9" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01544189414662134</v>
+        <v>0.01611296551439823</v>
       </c>
       <c r="M9" t="n">
-        <v>11.7867135127555</v>
+        <v>11.77480844519056</v>
       </c>
       <c r="N9" t="n">
-        <v>234.8667181303424</v>
+        <v>234.2588730061754</v>
       </c>
       <c r="O9" t="n">
-        <v>15.3253619249381</v>
+        <v>15.30551773074584</v>
       </c>
       <c r="P9" t="n">
-        <v>367.6828857464718</v>
+        <v>367.7292972354539</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34895,28 +35002,28 @@
         <v>0.1201</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2465311448602948</v>
+        <v>-0.2497978023079473</v>
       </c>
       <c r="J10" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K10" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0144420237319004</v>
+        <v>0.01492829953679031</v>
       </c>
       <c r="M10" t="n">
-        <v>11.93847008888482</v>
+        <v>11.912776218216</v>
       </c>
       <c r="N10" t="n">
-        <v>243.1189533531633</v>
+        <v>242.3169652163698</v>
       </c>
       <c r="O10" t="n">
-        <v>15.59227223188344</v>
+        <v>15.56653350031309</v>
       </c>
       <c r="P10" t="n">
-        <v>370.2573300708787</v>
+        <v>370.2887390377363</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34973,28 +35080,28 @@
         <v>0.1398</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3018381871149087</v>
+        <v>-0.3062134285757608</v>
       </c>
       <c r="J11" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K11" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01976798153618031</v>
+        <v>0.02047057494082183</v>
       </c>
       <c r="M11" t="n">
-        <v>12.51275809585633</v>
+        <v>12.4916843043233</v>
       </c>
       <c r="N11" t="n">
-        <v>268.0541634135976</v>
+        <v>267.2105158327687</v>
       </c>
       <c r="O11" t="n">
-        <v>16.37235973870589</v>
+        <v>16.34657504900549</v>
       </c>
       <c r="P11" t="n">
-        <v>364.3623273437037</v>
+        <v>364.4045458813021</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35051,28 +35158,28 @@
         <v>0.1417</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.187916559290939</v>
+        <v>-0.1948622565933381</v>
       </c>
       <c r="J12" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K12" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007953522272544644</v>
+        <v>0.008597560970025619</v>
       </c>
       <c r="M12" t="n">
-        <v>11.95684090438431</v>
+        <v>11.95538389139312</v>
       </c>
       <c r="N12" t="n">
-        <v>260.4880295970015</v>
+        <v>259.8865124410845</v>
       </c>
       <c r="O12" t="n">
-        <v>16.13964155726519</v>
+        <v>16.12099601268745</v>
       </c>
       <c r="P12" t="n">
-        <v>357.4062321764293</v>
+        <v>357.4738534379617</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35129,28 +35236,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1359753290418507</v>
+        <v>0.1294423183047922</v>
       </c>
       <c r="J13" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K13" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003984499452108214</v>
+        <v>0.003634104004654803</v>
       </c>
       <c r="M13" t="n">
-        <v>12.4944782622716</v>
+        <v>12.48528000794516</v>
       </c>
       <c r="N13" t="n">
-        <v>266.3449913641841</v>
+        <v>265.711668375837</v>
       </c>
       <c r="O13" t="n">
-        <v>16.32007939209194</v>
+        <v>16.30066466055409</v>
       </c>
       <c r="P13" t="n">
-        <v>348.0472499447415</v>
+        <v>348.1116720898229</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35207,28 +35314,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3733649972025499</v>
+        <v>0.363415560641221</v>
       </c>
       <c r="J14" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K14" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02213485905655677</v>
+        <v>0.02109891591006052</v>
       </c>
       <c r="M14" t="n">
-        <v>14.45031949003512</v>
+        <v>14.44889052799055</v>
       </c>
       <c r="N14" t="n">
-        <v>347.691664849473</v>
+        <v>347.1934972113844</v>
       </c>
       <c r="O14" t="n">
-        <v>18.64649202529722</v>
+        <v>18.6331290236338</v>
       </c>
       <c r="P14" t="n">
-        <v>340.0149964681981</v>
+        <v>340.1151619243693</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35285,28 +35392,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4567324249543612</v>
+        <v>0.4402811680241244</v>
       </c>
       <c r="J15" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K15" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03321960726355455</v>
+        <v>0.03097030031808545</v>
       </c>
       <c r="M15" t="n">
-        <v>14.52405739524479</v>
+        <v>14.55369151303495</v>
       </c>
       <c r="N15" t="n">
-        <v>343.0274272122669</v>
+        <v>343.9289218293927</v>
       </c>
       <c r="O15" t="n">
-        <v>18.52099962778108</v>
+        <v>18.54532075293907</v>
       </c>
       <c r="P15" t="n">
-        <v>338.0218641566188</v>
+        <v>338.1872937087112</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35363,28 +35470,28 @@
         <v>0.1534</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4402738581448948</v>
+        <v>0.413579828727333</v>
       </c>
       <c r="J16" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K16" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02792219750683655</v>
+        <v>0.0245646522395101</v>
       </c>
       <c r="M16" t="n">
-        <v>14.89456881372709</v>
+        <v>14.97334916478169</v>
       </c>
       <c r="N16" t="n">
-        <v>384.406019171577</v>
+        <v>388.3836930588354</v>
       </c>
       <c r="O16" t="n">
-        <v>19.60627499479636</v>
+        <v>19.70745272882407</v>
       </c>
       <c r="P16" t="n">
-        <v>332.5365061898608</v>
+        <v>332.8014737552194</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35441,28 +35548,28 @@
         <v>0.1082</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3027657609898764</v>
+        <v>0.2907706413188124</v>
       </c>
       <c r="J17" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K17" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L17" t="n">
-        <v>0.007204006981436195</v>
+        <v>0.006690568965527444</v>
       </c>
       <c r="M17" t="n">
-        <v>17.78458511403343</v>
+        <v>17.78783994462458</v>
       </c>
       <c r="N17" t="n">
-        <v>709.2479924145589</v>
+        <v>707.5387634913857</v>
       </c>
       <c r="O17" t="n">
-        <v>26.63171027956258</v>
+        <v>26.59960081451197</v>
       </c>
       <c r="P17" t="n">
-        <v>328.0679604316812</v>
+        <v>328.1885020394421</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35519,28 +35626,28 @@
         <v>0.1029</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1949966937654863</v>
+        <v>0.179980931140648</v>
       </c>
       <c r="J18" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K18" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004675228866515946</v>
+        <v>0.004003185172300805</v>
       </c>
       <c r="M18" t="n">
-        <v>14.29393032152043</v>
+        <v>14.32124955213119</v>
       </c>
       <c r="N18" t="n">
-        <v>454.2322364581</v>
+        <v>454.0546998245185</v>
       </c>
       <c r="O18" t="n">
-        <v>21.31272475443016</v>
+        <v>21.3085593089847</v>
       </c>
       <c r="P18" t="n">
-        <v>331.3887546177236</v>
+        <v>331.539807175769</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35597,28 +35704,28 @@
         <v>0.0912</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3313550462355934</v>
+        <v>0.3020185273175256</v>
       </c>
       <c r="J19" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K19" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02276702361687666</v>
+        <v>0.01870697661989429</v>
       </c>
       <c r="M19" t="n">
-        <v>12.87663986953624</v>
+        <v>12.96791039157158</v>
       </c>
       <c r="N19" t="n">
-        <v>273.4166013899262</v>
+        <v>278.6844926634805</v>
       </c>
       <c r="O19" t="n">
-        <v>16.5353137675076</v>
+        <v>16.69384595183148</v>
       </c>
       <c r="P19" t="n">
-        <v>324.5829931675241</v>
+        <v>324.871421334987</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35678,7 +35785,7 @@
         <v>0.3362080113637275</v>
       </c>
       <c r="J20" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K20" t="n">
         <v>250</v>
@@ -35753,28 +35860,28 @@
         <v>0.1149</v>
       </c>
       <c r="I21" t="n">
-        <v>0.486591990012421</v>
+        <v>0.4625415075843649</v>
       </c>
       <c r="J21" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K21" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03160692965310019</v>
+        <v>0.0285792019518899</v>
       </c>
       <c r="M21" t="n">
-        <v>14.50856275305863</v>
+        <v>14.57521095749856</v>
       </c>
       <c r="N21" t="n">
-        <v>429.9361143670694</v>
+        <v>432.6454278088286</v>
       </c>
       <c r="O21" t="n">
-        <v>20.73490087671194</v>
+        <v>20.80013047576454</v>
       </c>
       <c r="P21" t="n">
-        <v>310.9640260779194</v>
+        <v>311.1970092377904</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35831,28 +35938,28 @@
         <v>0.0694</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1062624038243322</v>
+        <v>0.09754163158736225</v>
       </c>
       <c r="J22" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K22" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002200447756300905</v>
+        <v>0.001865828961848282</v>
       </c>
       <c r="M22" t="n">
-        <v>14.00488710999546</v>
+        <v>14.00040723455415</v>
       </c>
       <c r="N22" t="n">
-        <v>299.0921142894755</v>
+        <v>298.4555563317403</v>
       </c>
       <c r="O22" t="n">
-        <v>17.29427981413148</v>
+        <v>17.27586629757652</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9059721503293</v>
+        <v>315.9917011646114</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35909,28 +36016,28 @@
         <v>0.09859999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.02889416635958587</v>
+        <v>-0.04030270903814071</v>
       </c>
       <c r="J23" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K23" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001712336909197587</v>
+        <v>0.0003345343901023368</v>
       </c>
       <c r="M23" t="n">
-        <v>13.02974135313104</v>
+        <v>13.04730467425086</v>
       </c>
       <c r="N23" t="n">
-        <v>288.5695244628538</v>
+        <v>288.4122543017249</v>
       </c>
       <c r="O23" t="n">
-        <v>16.9873342365085</v>
+        <v>16.98270456381212</v>
       </c>
       <c r="P23" t="n">
-        <v>316.9826918779947</v>
+        <v>317.0937752835274</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35987,28 +36094,28 @@
         <v>0.1676</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00424135730278867</v>
+        <v>-0.009175068190748346</v>
       </c>
       <c r="J24" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K24" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L24" t="n">
-        <v>4.404923182654841e-06</v>
+        <v>2.066723876081866e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>11.81351806707874</v>
+        <v>11.84037252897503</v>
       </c>
       <c r="N24" t="n">
-        <v>238.9396098081508</v>
+        <v>239.2822543539147</v>
       </c>
       <c r="O24" t="n">
-        <v>15.45767155195603</v>
+        <v>15.46875089830833</v>
       </c>
       <c r="P24" t="n">
-        <v>317.2334195178008</v>
+        <v>317.3641324214317</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -36065,28 +36172,28 @@
         <v>0.1021</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01698667183974627</v>
+        <v>0.003254144577315526</v>
       </c>
       <c r="J25" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K25" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L25" t="n">
-        <v>7.603339477457727e-05</v>
+        <v>2.798260588465773e-06</v>
       </c>
       <c r="M25" t="n">
-        <v>11.48400851480627</v>
+        <v>11.51095278215215</v>
       </c>
       <c r="N25" t="n">
-        <v>223.7191766377405</v>
+        <v>224.049003774559</v>
       </c>
       <c r="O25" t="n">
-        <v>14.957244954795</v>
+        <v>14.96826655877557</v>
       </c>
       <c r="P25" t="n">
-        <v>316.6552536332575</v>
+        <v>316.7888556442808</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -36143,28 +36250,28 @@
         <v>0.1086</v>
       </c>
       <c r="I26" t="n">
-        <v>0.009963975292529507</v>
+        <v>-0.006983466802202767</v>
       </c>
       <c r="J26" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K26" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L26" t="n">
-        <v>2.753509141240063e-05</v>
+        <v>1.350824532420081e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>11.37209362421186</v>
+        <v>11.42116824573252</v>
       </c>
       <c r="N26" t="n">
-        <v>216.83849528833</v>
+        <v>218.0110131700629</v>
       </c>
       <c r="O26" t="n">
-        <v>14.72543701519008</v>
+        <v>14.76519600852162</v>
       </c>
       <c r="P26" t="n">
-        <v>317.2999172471991</v>
+        <v>317.4621635324838</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -36221,28 +36328,28 @@
         <v>0.1437</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1629162056809688</v>
+        <v>0.1490232800347874</v>
       </c>
       <c r="J27" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K27" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002612893297922803</v>
+        <v>0.002200827905218139</v>
       </c>
       <c r="M27" t="n">
-        <v>12.34321380295889</v>
+        <v>12.37303960282311</v>
       </c>
       <c r="N27" t="n">
-        <v>602.7084821274796</v>
+        <v>601.4864098023482</v>
       </c>
       <c r="O27" t="n">
-        <v>24.5501218352879</v>
+        <v>24.52521987266064</v>
       </c>
       <c r="P27" t="n">
-        <v>314.862789273125</v>
+        <v>314.9968033270038</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -36299,28 +36406,28 @@
         <v>0.1558</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.124131309338385</v>
+        <v>-0.1339468851492505</v>
       </c>
       <c r="J28" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K28" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L28" t="n">
-        <v>0.003219719126131504</v>
+        <v>0.003766737259905506</v>
       </c>
       <c r="M28" t="n">
-        <v>11.43765689598601</v>
+        <v>11.44547836896936</v>
       </c>
       <c r="N28" t="n">
-        <v>290.9792432711261</v>
+        <v>290.4956311487101</v>
       </c>
       <c r="O28" t="n">
-        <v>17.05811370788476</v>
+        <v>17.04393238512492</v>
       </c>
       <c r="P28" t="n">
-        <v>321.1816818267436</v>
+        <v>321.2761430482993</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -36377,28 +36484,28 @@
         <v>0.1987</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1577663288633544</v>
+        <v>-0.1757227950414006</v>
       </c>
       <c r="J29" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K29" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L29" t="n">
-        <v>0.008905161659177541</v>
+        <v>0.0109567361385462</v>
       </c>
       <c r="M29" t="n">
-        <v>9.496788041554744</v>
+        <v>9.565309538749469</v>
       </c>
       <c r="N29" t="n">
-        <v>164.5370464898774</v>
+        <v>166.2396564929056</v>
       </c>
       <c r="O29" t="n">
-        <v>12.82719947961664</v>
+        <v>12.89339584798767</v>
       </c>
       <c r="P29" t="n">
-        <v>324.4932034036192</v>
+        <v>324.6655836948251</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -36455,28 +36562,28 @@
         <v>0.1121</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.134735935953667</v>
+        <v>-0.1540986871844444</v>
       </c>
       <c r="J30" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K30" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L30" t="n">
-        <v>0.007000592275276274</v>
+        <v>0.009045373375484833</v>
       </c>
       <c r="M30" t="n">
-        <v>9.496566976236243</v>
+        <v>9.569431220276256</v>
       </c>
       <c r="N30" t="n">
-        <v>150.0234361947037</v>
+        <v>152.1948577307569</v>
       </c>
       <c r="O30" t="n">
-        <v>12.248405455189</v>
+        <v>12.33672799938285</v>
       </c>
       <c r="P30" t="n">
-        <v>326.2243983203068</v>
+        <v>326.4117968944474</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -36514,7 +36621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE355"/>
+  <dimension ref="A1:AE356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81655,7 +81762,11 @@
           <t>-42.89766660767757,173.29861707255333</t>
         </is>
       </c>
-      <c r="C355" t="inlineStr"/>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>-42.89808447027113,173.29792305798168</t>
+        </is>
+      </c>
       <c r="D355" t="inlineStr">
         <is>
           <t>-42.89918225369918,173.29800507582834</t>
@@ -81792,6 +81903,155 @@
         </is>
       </c>
       <c r="AE355" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr"/>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>-42.8981973364675,173.29805187701928</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>-42.89892454300497,173.29771093444575</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>-42.899495451527045,173.29719127083246</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>-42.9000158558073,173.296622834919</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>-42.90052138430906,173.29605650998172</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>-42.90098318296241,173.2954057926247</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>-42.90157126270048,173.29497229905616</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>-42.90211039987324,173.2944717074931</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>-42.90262857781835,173.29392449307375</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>-42.903161210393876,173.2933885880246</t>
+        </is>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>-42.903726709670735,173.2929292224348</t>
+        </is>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>-42.90426332979235,173.29240247628528</t>
+        </is>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>-42.904786831066815,173.29184512816454</t>
+        </is>
+      </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>-42.90525639419264,173.2911868120764</t>
+        </is>
+      </c>
+      <c r="Q356" t="inlineStr">
+        <is>
+          <t>-42.90586339280178,173.29084842932676</t>
+        </is>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>-42.90637833663195,173.2902975373675</t>
+        </is>
+      </c>
+      <c r="S356" t="inlineStr">
+        <is>
+          <t>-42.90678613178256,173.28955126664394</t>
+        </is>
+      </c>
+      <c r="T356" t="inlineStr"/>
+      <c r="U356" t="inlineStr">
+        <is>
+          <t>-42.907784130714084,173.28842837513528</t>
+        </is>
+      </c>
+      <c r="V356" t="inlineStr">
+        <is>
+          <t>-42.90838941479485,173.28802103174235</t>
+        </is>
+      </c>
+      <c r="W356" t="inlineStr">
+        <is>
+          <t>-42.908863603943324,173.28739324033495</t>
+        </is>
+      </c>
+      <c r="X356" t="inlineStr">
+        <is>
+          <t>-42.909367441041304,173.28681564871297</t>
+        </is>
+      </c>
+      <c r="Y356" t="inlineStr">
+        <is>
+          <t>-42.909875756004325,173.2862571762667</t>
+        </is>
+      </c>
+      <c r="Z356" t="inlineStr">
+        <is>
+          <t>-42.91034461300147,173.28563483663038</t>
+        </is>
+      </c>
+      <c r="AA356" t="inlineStr">
+        <is>
+          <t>-42.91087919685071,173.28510608885873</t>
+        </is>
+      </c>
+      <c r="AB356" t="inlineStr">
+        <is>
+          <t>-42.911398298191884,173.28455266064523</t>
+        </is>
+      </c>
+      <c r="AC356" t="inlineStr">
+        <is>
+          <t>-42.91184717555715,173.28388726699956</t>
+        </is>
+      </c>
+      <c r="AD356" t="inlineStr">
+        <is>
+          <t>-42.9123452951617,173.28330039641222</t>
+        </is>
+      </c>
+      <c r="AE356" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0411/nzd0411.xlsx
+++ b/data/nzd0411/nzd0411.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE356"/>
+  <dimension ref="A1:AE357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30219,9 +30219,7 @@
           <t>2025-05-06 22:07:18+00:00</t>
         </is>
       </c>
-      <c r="B354" t="n">
-        <v>254.7628571428572</v>
-      </c>
+      <c r="B354" t="inlineStr"/>
       <c r="C354" t="n">
         <v>347.6638461538461</v>
       </c>
@@ -30318,12 +30316,8 @@
           <t>2025-05-30 22:07:06+00:00</t>
         </is>
       </c>
-      <c r="B355" t="n">
-        <v>254.7357142857143</v>
-      </c>
-      <c r="C355" t="n">
-        <v>254.2053846153846</v>
-      </c>
+      <c r="B355" t="inlineStr"/>
+      <c r="C355" t="inlineStr"/>
       <c r="D355" t="n">
         <v>352.2394117647058</v>
       </c>
@@ -30418,9 +30412,7 @@
         </is>
       </c>
       <c r="B356" t="inlineStr"/>
-      <c r="C356" t="n">
-        <v>270.5669230769231</v>
-      </c>
+      <c r="C356" t="inlineStr"/>
       <c r="D356" t="n">
         <v>314.8805882352941</v>
       </c>
@@ -30503,6 +30495,105 @@
       <c r="AE356" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>332.2742857142857</v>
+      </c>
+      <c r="C357" t="n">
+        <v>343.2861538461539</v>
+      </c>
+      <c r="D357" t="n">
+        <v>348.5617647058824</v>
+      </c>
+      <c r="E357" t="n">
+        <v>354.0817647058824</v>
+      </c>
+      <c r="F357" t="n">
+        <v>365.2831578947368</v>
+      </c>
+      <c r="G357" t="n">
+        <v>361.66</v>
+      </c>
+      <c r="H357" t="n">
+        <v>360.1917647058823</v>
+      </c>
+      <c r="I357" t="n">
+        <v>363.7</v>
+      </c>
+      <c r="J357" t="n">
+        <v>364.9133333333333</v>
+      </c>
+      <c r="K357" t="n">
+        <v>364.4628571428572</v>
+      </c>
+      <c r="L357" t="n">
+        <v>351.37</v>
+      </c>
+      <c r="M357" t="n">
+        <v>338.6530769230769</v>
+      </c>
+      <c r="N357" t="n">
+        <v>334.89</v>
+      </c>
+      <c r="O357" t="n">
+        <v>330.33</v>
+      </c>
+      <c r="P357" t="n">
+        <v>310.4228571428571</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>314.3061538461538</v>
+      </c>
+      <c r="R357" t="n">
+        <v>318.33</v>
+      </c>
+      <c r="S357" t="n">
+        <v>309.5961538461539</v>
+      </c>
+      <c r="T357" t="n">
+        <v>304.7042857142857</v>
+      </c>
+      <c r="U357" t="n">
+        <v>300.77</v>
+      </c>
+      <c r="V357" t="n">
+        <v>300.6418181818182</v>
+      </c>
+      <c r="W357" t="n">
+        <v>298.6942857142857</v>
+      </c>
+      <c r="X357" t="n">
+        <v>294.8228571428572</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>298.5361538461539</v>
+      </c>
+      <c r="Z357" t="n">
+        <v>299.9217647058824</v>
+      </c>
+      <c r="AA357" t="n">
+        <v>301.8728571428572</v>
+      </c>
+      <c r="AB357" t="n">
+        <v>303.420909090909</v>
+      </c>
+      <c r="AC357" t="n">
+        <v>306.82</v>
+      </c>
+      <c r="AD357" t="n">
+        <v>306.8833333333333</v>
+      </c>
+      <c r="AE357" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -30517,7 +30608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B368"/>
+  <dimension ref="A1:B369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34205,6 +34296,16 @@
       </c>
       <c r="B368" t="n">
         <v>0.72</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -34378,28 +34479,28 @@
         <v>0.1061</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1368580770761494</v>
+        <v>-0.0383870024999999</v>
       </c>
       <c r="J2" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K2" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001468762284138947</v>
+        <v>0.0001210460537539593</v>
       </c>
       <c r="M2" t="n">
-        <v>18.56597023910525</v>
+        <v>17.96797175634162</v>
       </c>
       <c r="N2" t="n">
-        <v>721.5470651004066</v>
+        <v>687.6091762612966</v>
       </c>
       <c r="O2" t="n">
-        <v>26.86162811708193</v>
+        <v>26.22230303122318</v>
       </c>
       <c r="P2" t="n">
-        <v>329.5787426970608</v>
+        <v>328.6028806719912</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34456,28 +34557,28 @@
         <v>0.078</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08018888682417555</v>
+        <v>0.02239220169830579</v>
       </c>
       <c r="J3" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K3" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001681544953176073</v>
+        <v>0.0001593478243829827</v>
       </c>
       <c r="M3" t="n">
-        <v>10.99825336082766</v>
+        <v>10.51222686270163</v>
       </c>
       <c r="N3" t="n">
-        <v>218.7094137366176</v>
+        <v>179.6241928279922</v>
       </c>
       <c r="O3" t="n">
-        <v>14.78882732797356</v>
+        <v>13.40239504073776</v>
       </c>
       <c r="P3" t="n">
-        <v>339.169948062607</v>
+        <v>338.1639121753699</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34534,28 +34635,28 @@
         <v>0.1061</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04418028740524028</v>
+        <v>-0.04044727951131021</v>
       </c>
       <c r="J4" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K4" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005591077954156809</v>
+        <v>0.0004717314435780384</v>
       </c>
       <c r="M4" t="n">
-        <v>11.04634467069694</v>
+        <v>11.02725283380349</v>
       </c>
       <c r="N4" t="n">
-        <v>203.5735958811032</v>
+        <v>202.9980016328914</v>
       </c>
       <c r="O4" t="n">
-        <v>14.26792191880455</v>
+        <v>14.24773671966503</v>
       </c>
       <c r="P4" t="n">
-        <v>343.8731645759947</v>
+        <v>343.8367147266634</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34612,28 +34713,28 @@
         <v>0.1011</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01220025953113931</v>
+        <v>0.01295822149993334</v>
       </c>
       <c r="J5" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K5" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L5" t="n">
-        <v>3.942175580085028e-05</v>
+        <v>4.479429239057087e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>11.77517819029439</v>
+        <v>11.73886262531095</v>
       </c>
       <c r="N5" t="n">
-        <v>222.535027723941</v>
+        <v>221.7775975040599</v>
       </c>
       <c r="O5" t="n">
-        <v>14.91760797594377</v>
+        <v>14.89219921650459</v>
       </c>
       <c r="P5" t="n">
-        <v>352.5884810934746</v>
+        <v>352.5811641215169</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34690,28 +34791,28 @@
         <v>0.1162</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1193895316494539</v>
+        <v>-0.1166934696683591</v>
       </c>
       <c r="J6" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K6" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002683803524819339</v>
+        <v>0.002583212875132634</v>
       </c>
       <c r="M6" t="n">
-        <v>12.79245095053229</v>
+        <v>12.75895790099166</v>
       </c>
       <c r="N6" t="n">
-        <v>309.8361000434519</v>
+        <v>308.7818127812848</v>
       </c>
       <c r="O6" t="n">
-        <v>17.60216180028612</v>
+        <v>17.57218861671149</v>
       </c>
       <c r="P6" t="n">
-        <v>364.4169924422337</v>
+        <v>364.3907801401198</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34768,28 +34869,28 @@
         <v>0.1021</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2512537563961849</v>
+        <v>-0.2491823620706967</v>
       </c>
       <c r="J7" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K7" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01258013830520122</v>
+        <v>0.01246931838992571</v>
       </c>
       <c r="M7" t="n">
-        <v>12.28221033735265</v>
+        <v>12.2485847505232</v>
       </c>
       <c r="N7" t="n">
-        <v>288.4807894939589</v>
+        <v>287.4792201711854</v>
       </c>
       <c r="O7" t="n">
-        <v>16.98472223776294</v>
+        <v>16.95521218301869</v>
       </c>
       <c r="P7" t="n">
-        <v>365.1955817119525</v>
+        <v>365.1754819837848</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34846,28 +34947,28 @@
         <v>0.1072</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5133771287466881</v>
+        <v>-0.5107621736525952</v>
       </c>
       <c r="J8" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K8" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04319418537032849</v>
+        <v>0.04305001115377538</v>
       </c>
       <c r="M8" t="n">
-        <v>13.56526276640516</v>
+        <v>13.53024563797168</v>
       </c>
       <c r="N8" t="n">
-        <v>342.4148225043359</v>
+        <v>341.300380398905</v>
       </c>
       <c r="O8" t="n">
-        <v>18.50445412608369</v>
+        <v>18.47431677759437</v>
       </c>
       <c r="P8" t="n">
-        <v>369.450929729794</v>
+        <v>369.4252072939931</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34924,28 +35025,28 @@
         <v>0.0983</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2558985615396764</v>
+        <v>-0.2542425495728917</v>
       </c>
       <c r="J9" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K9" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01611296551439823</v>
+        <v>0.01601339272328983</v>
       </c>
       <c r="M9" t="n">
-        <v>11.77480844519056</v>
+        <v>11.74282462062172</v>
       </c>
       <c r="N9" t="n">
-        <v>234.2588730061754</v>
+        <v>233.4857489830003</v>
       </c>
       <c r="O9" t="n">
-        <v>15.30551773074584</v>
+        <v>15.28024047530013</v>
       </c>
       <c r="P9" t="n">
-        <v>367.7292972354539</v>
+        <v>367.7129545227183</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35002,28 +35103,28 @@
         <v>0.1201</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2497978023079473</v>
+        <v>-0.2490151604942576</v>
       </c>
       <c r="J10" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K10" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01492829953679031</v>
+        <v>0.01494835388544169</v>
       </c>
       <c r="M10" t="n">
-        <v>11.912776218216</v>
+        <v>11.87364044328396</v>
       </c>
       <c r="N10" t="n">
-        <v>242.3169652163698</v>
+        <v>241.4437130645989</v>
       </c>
       <c r="O10" t="n">
-        <v>15.56653350031309</v>
+        <v>15.53845915992312</v>
       </c>
       <c r="P10" t="n">
-        <v>370.2887390377363</v>
+        <v>370.2811731290189</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35080,28 +35181,28 @@
         <v>0.1398</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3062134285757608</v>
+        <v>-0.3007552952940523</v>
       </c>
       <c r="J11" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K11" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02047057494082183</v>
+        <v>0.01988944286491123</v>
       </c>
       <c r="M11" t="n">
-        <v>12.4916843043233</v>
+        <v>12.47313529951436</v>
       </c>
       <c r="N11" t="n">
-        <v>267.2105158327687</v>
+        <v>266.4583635220212</v>
       </c>
       <c r="O11" t="n">
-        <v>16.34657504900549</v>
+        <v>16.32355241735148</v>
       </c>
       <c r="P11" t="n">
-        <v>364.4045458813021</v>
+        <v>364.3515798322269</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35158,28 +35259,28 @@
         <v>0.1417</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1948622565933381</v>
+        <v>-0.1955576509911008</v>
       </c>
       <c r="J12" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K12" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008597560970025619</v>
+        <v>0.008722518959659142</v>
       </c>
       <c r="M12" t="n">
-        <v>11.95538389139312</v>
+        <v>11.91460170639602</v>
       </c>
       <c r="N12" t="n">
-        <v>259.8865124410845</v>
+        <v>258.9096631802754</v>
       </c>
       <c r="O12" t="n">
-        <v>16.12099601268745</v>
+        <v>16.09067006623016</v>
       </c>
       <c r="P12" t="n">
-        <v>357.4738534379617</v>
+        <v>357.4806624374811</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35236,28 +35337,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1294423183047922</v>
+        <v>0.1207622420817874</v>
       </c>
       <c r="J13" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K13" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003634104004654803</v>
+        <v>0.003180837811095238</v>
       </c>
       <c r="M13" t="n">
-        <v>12.48528000794516</v>
+        <v>12.48753086306683</v>
       </c>
       <c r="N13" t="n">
-        <v>265.711668375837</v>
+        <v>265.3395687786377</v>
       </c>
       <c r="O13" t="n">
-        <v>16.30066466055409</v>
+        <v>16.28924702921033</v>
       </c>
       <c r="P13" t="n">
-        <v>348.1116720898229</v>
+        <v>348.1977362528683</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35314,28 +35415,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.363415560641221</v>
+        <v>0.3534034749080798</v>
       </c>
       <c r="J14" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K14" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02109891591006052</v>
+        <v>0.02007431029888229</v>
       </c>
       <c r="M14" t="n">
-        <v>14.44889052799055</v>
+        <v>14.44773333803703</v>
       </c>
       <c r="N14" t="n">
-        <v>347.1934972113844</v>
+        <v>346.7096131911113</v>
       </c>
       <c r="O14" t="n">
-        <v>18.6331290236338</v>
+        <v>18.62013998849394</v>
       </c>
       <c r="P14" t="n">
-        <v>340.1151619243693</v>
+        <v>340.2165083380394</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35392,28 +35493,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4402811680241244</v>
+        <v>0.4272911317451433</v>
       </c>
       <c r="J15" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K15" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03097030031808545</v>
+        <v>0.02931723254187002</v>
       </c>
       <c r="M15" t="n">
-        <v>14.55369151303495</v>
+        <v>14.56527015341106</v>
       </c>
       <c r="N15" t="n">
-        <v>343.9289218293927</v>
+        <v>344.0241113208127</v>
       </c>
       <c r="O15" t="n">
-        <v>18.54532075293907</v>
+        <v>18.54788697724926</v>
       </c>
       <c r="P15" t="n">
-        <v>338.1872937087112</v>
+        <v>338.3186304993347</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35470,28 +35571,28 @@
         <v>0.1534</v>
       </c>
       <c r="I16" t="n">
-        <v>0.413579828727333</v>
+        <v>0.3905762173365782</v>
       </c>
       <c r="J16" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K16" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0245646522395101</v>
+        <v>0.02190793493234833</v>
       </c>
       <c r="M16" t="n">
-        <v>14.97334916478169</v>
+        <v>15.03408300554928</v>
       </c>
       <c r="N16" t="n">
-        <v>388.3836930588354</v>
+        <v>390.9571569792339</v>
       </c>
       <c r="O16" t="n">
-        <v>19.70745272882407</v>
+        <v>19.77263657126267</v>
       </c>
       <c r="P16" t="n">
-        <v>332.8014737552194</v>
+        <v>333.031042321993</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35548,28 +35649,28 @@
         <v>0.1082</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2907706413188124</v>
+        <v>0.2751098975958373</v>
       </c>
       <c r="J17" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K17" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L17" t="n">
-        <v>0.006690568965527444</v>
+        <v>0.006025758786847857</v>
       </c>
       <c r="M17" t="n">
-        <v>17.78783994462458</v>
+        <v>17.81332455047139</v>
       </c>
       <c r="N17" t="n">
-        <v>707.5387634913857</v>
+        <v>706.570317880047</v>
       </c>
       <c r="O17" t="n">
-        <v>26.59960081451197</v>
+        <v>26.58139044294047</v>
       </c>
       <c r="P17" t="n">
-        <v>328.1885020394421</v>
+        <v>328.3467218799227</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35626,28 +35727,28 @@
         <v>0.1029</v>
       </c>
       <c r="I18" t="n">
-        <v>0.179980931140648</v>
+        <v>0.1667804517644408</v>
       </c>
       <c r="J18" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K18" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004003185172300805</v>
+        <v>0.003457448655535544</v>
       </c>
       <c r="M18" t="n">
-        <v>14.32124955213119</v>
+        <v>14.33804341806035</v>
       </c>
       <c r="N18" t="n">
-        <v>454.0546998245185</v>
+        <v>453.5211913579274</v>
       </c>
       <c r="O18" t="n">
-        <v>21.3085593089847</v>
+        <v>21.29603698714687</v>
       </c>
       <c r="P18" t="n">
-        <v>331.539807175769</v>
+        <v>331.6733097147315</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35704,28 +35805,28 @@
         <v>0.0912</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3020185273175256</v>
+        <v>0.2852211121876221</v>
       </c>
       <c r="J19" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K19" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01870697661989429</v>
+        <v>0.01672511676923316</v>
       </c>
       <c r="M19" t="n">
-        <v>12.96791039157158</v>
+        <v>12.99799555142914</v>
       </c>
       <c r="N19" t="n">
-        <v>278.6844926634805</v>
+        <v>279.6704115191137</v>
       </c>
       <c r="O19" t="n">
-        <v>16.69384595183148</v>
+        <v>16.72334929130865</v>
       </c>
       <c r="P19" t="n">
-        <v>324.871421334987</v>
+        <v>325.0374868356304</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35782,28 +35883,28 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3362080113637275</v>
+        <v>0.3213227438426369</v>
       </c>
       <c r="J20" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K20" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02741878101837858</v>
+        <v>0.02512360645818867</v>
       </c>
       <c r="M20" t="n">
-        <v>12.07876897763215</v>
+        <v>12.11404723794625</v>
       </c>
       <c r="N20" t="n">
-        <v>243.792438656912</v>
+        <v>244.5391997661299</v>
       </c>
       <c r="O20" t="n">
-        <v>15.61385406159901</v>
+        <v>15.63774919117614</v>
       </c>
       <c r="P20" t="n">
-        <v>316.8158107599409</v>
+        <v>316.9587102578982</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35860,28 +35961,28 @@
         <v>0.1149</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4625415075843649</v>
+        <v>0.4464774983834569</v>
       </c>
       <c r="J21" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K21" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0285792019518899</v>
+        <v>0.02676587961135279</v>
       </c>
       <c r="M21" t="n">
-        <v>14.57521095749856</v>
+        <v>14.60114942753327</v>
       </c>
       <c r="N21" t="n">
-        <v>432.6454278088286</v>
+        <v>432.9114219777019</v>
       </c>
       <c r="O21" t="n">
-        <v>20.80013047576454</v>
+        <v>20.80652354377592</v>
       </c>
       <c r="P21" t="n">
-        <v>311.1970092377904</v>
+        <v>311.3535128200289</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35938,28 +36039,28 @@
         <v>0.0694</v>
       </c>
       <c r="I22" t="n">
-        <v>0.09754163158736225</v>
+        <v>0.08447917105164432</v>
       </c>
       <c r="J22" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K22" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001865828961848282</v>
+        <v>0.001405328732847044</v>
       </c>
       <c r="M22" t="n">
-        <v>14.00040723455415</v>
+        <v>14.02240346437144</v>
       </c>
       <c r="N22" t="n">
-        <v>298.4555563317403</v>
+        <v>298.5277060036419</v>
       </c>
       <c r="O22" t="n">
-        <v>17.27586629757652</v>
+        <v>17.27795433503752</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9917011646114</v>
+        <v>316.1208394752726</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -36016,28 +36117,28 @@
         <v>0.09859999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.04030270903814071</v>
+        <v>-0.05274865265244721</v>
       </c>
       <c r="J23" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K23" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003345343901023368</v>
+        <v>0.0005750383134354164</v>
       </c>
       <c r="M23" t="n">
-        <v>13.04730467425086</v>
+        <v>13.07229687986177</v>
       </c>
       <c r="N23" t="n">
-        <v>288.4122543017249</v>
+        <v>288.4479395930533</v>
       </c>
       <c r="O23" t="n">
-        <v>16.98270456381212</v>
+        <v>16.98375516760217</v>
       </c>
       <c r="P23" t="n">
-        <v>317.0937752835274</v>
+        <v>317.2156576504478</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -36094,28 +36195,28 @@
         <v>0.1676</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.009175068190748346</v>
+        <v>-0.02565674644016058</v>
       </c>
       <c r="J24" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K24" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L24" t="n">
-        <v>2.066723876081866e-05</v>
+        <v>0.0001615716519963728</v>
       </c>
       <c r="M24" t="n">
-        <v>11.84037252897503</v>
+        <v>11.88453183612835</v>
       </c>
       <c r="N24" t="n">
-        <v>239.2822543539147</v>
+        <v>240.2906122975318</v>
       </c>
       <c r="O24" t="n">
-        <v>15.46875089830833</v>
+        <v>15.50131001875428</v>
       </c>
       <c r="P24" t="n">
-        <v>317.3641324214317</v>
+        <v>317.5256038580854</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -36172,28 +36273,28 @@
         <v>0.1021</v>
       </c>
       <c r="I25" t="n">
-        <v>0.003254144577315526</v>
+        <v>-0.01115319312790247</v>
       </c>
       <c r="J25" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K25" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L25" t="n">
-        <v>2.798260588465773e-06</v>
+        <v>3.294223978711486e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>11.51095278215215</v>
+        <v>11.54257662910165</v>
       </c>
       <c r="N25" t="n">
-        <v>224.049003774559</v>
+        <v>224.5141247980707</v>
       </c>
       <c r="O25" t="n">
-        <v>14.96826655877557</v>
+        <v>14.98379540697452</v>
       </c>
       <c r="P25" t="n">
-        <v>316.7888556442808</v>
+        <v>316.9298192732235</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -36250,28 +36351,28 @@
         <v>0.1086</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.006983466802202767</v>
+        <v>-0.02007877955548121</v>
       </c>
       <c r="J26" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K26" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L26" t="n">
-        <v>1.350824532420081e-05</v>
+        <v>0.0001119482690115081</v>
       </c>
       <c r="M26" t="n">
-        <v>11.42116824573252</v>
+        <v>11.44717416906869</v>
       </c>
       <c r="N26" t="n">
-        <v>218.0110131700629</v>
+        <v>218.3438408550388</v>
       </c>
       <c r="O26" t="n">
-        <v>14.76519600852162</v>
+        <v>14.77646239311151</v>
       </c>
       <c r="P26" t="n">
-        <v>317.4621635324838</v>
+        <v>317.5882571564068</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -36328,28 +36429,28 @@
         <v>0.1437</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1490232800347874</v>
+        <v>0.1358616786575276</v>
       </c>
       <c r="J27" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K27" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002200827905218139</v>
+        <v>0.001841798326682187</v>
       </c>
       <c r="M27" t="n">
-        <v>12.37303960282311</v>
+        <v>12.39796155348172</v>
       </c>
       <c r="N27" t="n">
-        <v>601.4864098023482</v>
+        <v>600.1431687394655</v>
       </c>
       <c r="O27" t="n">
-        <v>24.52521987266064</v>
+        <v>24.49781967317634</v>
       </c>
       <c r="P27" t="n">
-        <v>314.9968033270038</v>
+        <v>315.1244879547473</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -36406,28 +36507,28 @@
         <v>0.1558</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.1339468851492505</v>
+        <v>-0.1444616359792285</v>
       </c>
       <c r="J28" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K28" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L28" t="n">
-        <v>0.003766737259905506</v>
+        <v>0.004400073845160835</v>
       </c>
       <c r="M28" t="n">
-        <v>11.44547836896936</v>
+        <v>11.4582472282197</v>
       </c>
       <c r="N28" t="n">
-        <v>290.4956311487101</v>
+        <v>290.1293039529486</v>
       </c>
       <c r="O28" t="n">
-        <v>17.04393238512492</v>
+        <v>17.03318243761126</v>
       </c>
       <c r="P28" t="n">
-        <v>321.2761430482993</v>
+        <v>321.3779538896219</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -36484,28 +36585,28 @@
         <v>0.1987</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1757227950414006</v>
+        <v>-0.1854416276981783</v>
       </c>
       <c r="J29" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K29" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0109567361385462</v>
+        <v>0.01223499052098354</v>
       </c>
       <c r="M29" t="n">
-        <v>9.565309538749469</v>
+        <v>9.586347759842674</v>
       </c>
       <c r="N29" t="n">
-        <v>166.2396564929056</v>
+        <v>166.2691749202681</v>
       </c>
       <c r="O29" t="n">
-        <v>12.89339584798767</v>
+        <v>12.89454050830305</v>
       </c>
       <c r="P29" t="n">
-        <v>324.6655836948251</v>
+        <v>324.7594073076113</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -36562,28 +36663,28 @@
         <v>0.1121</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.1540986871844444</v>
+        <v>-0.16520872226174</v>
       </c>
       <c r="J30" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K30" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L30" t="n">
-        <v>0.009045373375484833</v>
+        <v>0.01040377477343157</v>
       </c>
       <c r="M30" t="n">
-        <v>9.569431220276256</v>
+        <v>9.596102258244255</v>
       </c>
       <c r="N30" t="n">
-        <v>152.1948577307569</v>
+        <v>152.5195578935228</v>
       </c>
       <c r="O30" t="n">
-        <v>12.33672799938285</v>
+        <v>12.34988088580302</v>
       </c>
       <c r="P30" t="n">
-        <v>326.4117968944474</v>
+        <v>326.5199052588299</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -36621,7 +36722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE356"/>
+  <dimension ref="A1:AE357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81600,11 +81701,7 @@
           <t>2025-05-06 22:07:18+00:00</t>
         </is>
       </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>-42.8976667949154,173.29861728625633</t>
-        </is>
-      </c>
+      <c r="B354" t="inlineStr"/>
       <c r="C354" t="inlineStr">
         <is>
           <t>-42.89872916932408,173.29865888931212</t>
@@ -81757,16 +81854,8 @@
           <t>2025-05-30 22:07:06+00:00</t>
         </is>
       </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>-42.89766660767757,173.29861707255333</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>-42.89808447027113,173.29792305798168</t>
-        </is>
-      </c>
+      <c r="B355" t="inlineStr"/>
+      <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr">
         <is>
           <t>-42.89918225369918,173.29800507582834</t>
@@ -81915,11 +82004,7 @@
         </is>
       </c>
       <c r="B356" t="inlineStr"/>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>-42.8981973364675,173.29805187701928</t>
-        </is>
-      </c>
+      <c r="C356" t="inlineStr"/>
       <c r="D356" t="inlineStr">
         <is>
           <t>-42.89892454300497,173.29771093444575</t>
@@ -82054,6 +82139,163 @@
       <c r="AE356" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>-42.89820148535634,173.2992275597975</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>-42.89869897105286,173.29862442185873</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>-42.89915688438605,173.29797612009173</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>-42.899616378526325,173.29732988521994</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>-42.90010478203814,173.29674789462135</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>-42.9005864568331,173.29616844182698</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>-42.901093227034586,173.2955950799643</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>-42.901627789824865,173.29506953182815</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>-42.90214012805865,173.29453076629963</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>-42.90269407989091,173.29407666444607</t>
+        </is>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>-42.90320197934105,173.29348372704058</t>
+        </is>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>-42.903711855945474,173.2928945596118</t>
+        </is>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>-42.90426233209478,173.292400148049</t>
+        </is>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>-42.904809188733985,173.29189730213807</t>
+        </is>
+      </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>-42.90527954169042,173.29123785231843</t>
+        </is>
+      </c>
+      <c r="Q357" t="inlineStr">
+        <is>
+          <t>-42.905837033512476,173.2907956209229</t>
+        </is>
+      </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>-42.90638982191761,173.29031964663008</t>
+        </is>
+      </c>
+      <c r="S357" t="inlineStr">
+        <is>
+          <t>-42.90687565503958,173.28971685294718</t>
+        </is>
+      </c>
+      <c r="T357" t="inlineStr">
+        <is>
+          <t>-42.90736109522649,173.28913119976053</t>
+        </is>
+      </c>
+      <c r="U357" t="inlineStr">
+        <is>
+          <t>-42.90784524101219,173.2885311408575</t>
+        </is>
+      </c>
+      <c r="V357" t="inlineStr">
+        <is>
+          <t>-42.90835487180324,173.28796294264728</t>
+        </is>
+      </c>
+      <c r="W357" t="inlineStr">
+        <is>
+          <t>-42.90885419416989,173.28737741645946</t>
+        </is>
+      </c>
+      <c r="X357" t="inlineStr">
+        <is>
+          <t>-42.909342485255365,173.28677371336101</t>
+        </is>
+      </c>
+      <c r="Y357" t="inlineStr">
+        <is>
+          <t>-42.90986924582131,173.2862465244926</t>
+        </is>
+      </c>
+      <c r="Z357" t="inlineStr">
+        <is>
+          <t>-42.91037249996253,173.28567930237972</t>
+        </is>
+      </c>
+      <c r="AA357" t="inlineStr">
+        <is>
+          <t>-42.910883204788966,173.28511247951488</t>
+        </is>
+      </c>
+      <c r="AB357" t="inlineStr">
+        <is>
+          <t>-42.91139154994341,173.2845419005706</t>
+        </is>
+      </c>
+      <c r="AC357" t="inlineStr">
+        <is>
+          <t>-42.9119107104157,173.28398857304688</t>
+        </is>
+      </c>
+      <c r="AD357" t="inlineStr">
+        <is>
+          <t>-42.91241036954837,173.28340415709593</t>
+        </is>
+      </c>
+      <c r="AE357" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0411/nzd0411.xlsx
+++ b/data/nzd0411/nzd0411.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE357"/>
+  <dimension ref="A1:AE358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30597,6 +30597,93 @@
         </is>
       </c>
     </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>331.86</v>
+      </c>
+      <c r="C358" t="n">
+        <v>331.8676923076923</v>
+      </c>
+      <c r="D358" t="n">
+        <v>340.7282352941176</v>
+      </c>
+      <c r="E358" t="n">
+        <v>337.7582352941176</v>
+      </c>
+      <c r="F358" t="n">
+        <v>351.5184210526315</v>
+      </c>
+      <c r="G358" t="n">
+        <v>358.385</v>
+      </c>
+      <c r="H358" t="n">
+        <v>355.5182352941176</v>
+      </c>
+      <c r="I358" t="n">
+        <v>359.105</v>
+      </c>
+      <c r="J358" t="n">
+        <v>364.49</v>
+      </c>
+      <c r="K358" t="n">
+        <v>356.04</v>
+      </c>
+      <c r="L358" t="n">
+        <v>317.56</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+      <c r="N358" t="inlineStr"/>
+      <c r="O358" t="inlineStr"/>
+      <c r="P358" t="inlineStr"/>
+      <c r="Q358" t="inlineStr"/>
+      <c r="R358" t="inlineStr"/>
+      <c r="S358" t="n">
+        <v>290.2576923076923</v>
+      </c>
+      <c r="T358" t="n">
+        <v>287.42</v>
+      </c>
+      <c r="U358" t="n">
+        <v>286.235</v>
+      </c>
+      <c r="V358" t="n">
+        <v>289.7354545454546</v>
+      </c>
+      <c r="W358" t="n">
+        <v>291.34</v>
+      </c>
+      <c r="X358" t="n">
+        <v>293.17</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>287.4576923076923</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>293.0182352941176</v>
+      </c>
+      <c r="AA358" t="n">
+        <v>302.51</v>
+      </c>
+      <c r="AB358" t="n">
+        <v>303.3927272727273</v>
+      </c>
+      <c r="AC358" t="n">
+        <v>301.47</v>
+      </c>
+      <c r="AD358" t="n">
+        <v>303.68</v>
+      </c>
+      <c r="AE358" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30608,7 +30695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B369"/>
+  <dimension ref="A1:B370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34306,6 +34393,16 @@
       </c>
       <c r="B369" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -36722,7 +36819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE357"/>
+  <dimension ref="A1:AE358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82299,6 +82396,139 @@
         </is>
       </c>
     </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>-42.89819862753358,173.2992242979587</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>-42.89862020397802,173.29853451956103</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>-42.8991028467502,173.29791444334035</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>-42.89950397402234,173.29720103984636</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>-42.900018607158245,173.29662670422042</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>-42.90056816392446,173.29613697598404</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>-42.90106712231726,173.29555017700386</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>-42.9016021236162,173.29502538313153</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>-42.9021379743349,173.29452648765061</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>-42.902655754995564,173.29398762973292</t>
+        </is>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>-42.90304865322035,173.293125924561</t>
+        </is>
+      </c>
+      <c r="M358" t="inlineStr"/>
+      <c r="N358" t="inlineStr"/>
+      <c r="O358" t="inlineStr"/>
+      <c r="P358" t="inlineStr"/>
+      <c r="Q358" t="inlineStr"/>
+      <c r="R358" t="inlineStr"/>
+      <c r="S358" t="inlineStr">
+        <is>
+          <t>-42.90677247734069,173.28952601084634</t>
+        </is>
+      </c>
+      <c r="T358" t="inlineStr">
+        <is>
+          <t>-42.90726485154256,173.2889647945071</t>
+        </is>
+      </c>
+      <c r="U358" t="inlineStr">
+        <is>
+          <t>-42.90776292049145,173.28839270719106</t>
+        </is>
+      </c>
+      <c r="V358" t="inlineStr">
+        <is>
+          <t>-42.90829310212518,173.28785906818175</t>
+        </is>
+      </c>
+      <c r="W358" t="inlineStr">
+        <is>
+          <t>-42.90881254193893,173.28730737239766</t>
+        </is>
+      </c>
+      <c r="X358" t="inlineStr">
+        <is>
+          <t>-42.90933311974882,173.2867579757109</t>
+        </is>
+      </c>
+      <c r="Y358" t="inlineStr">
+        <is>
+          <t>-42.90980546368939,173.28614216620903</t>
+        </is>
+      </c>
+      <c r="Z358" t="inlineStr">
+        <is>
+          <t>-42.910332149645555,173.28561496383588</t>
+        </is>
+      </c>
+      <c r="AA358" t="inlineStr">
+        <is>
+          <t>-42.91088692883129,173.2851184175003</t>
+        </is>
+      </c>
+      <c r="AB358" t="inlineStr">
+        <is>
+          <t>-42.911391385222366,173.28454163792313</t>
+        </is>
+      </c>
+      <c r="AC358" t="inlineStr">
+        <is>
+          <t>-42.91187943982052,173.2839387121788</t>
+        </is>
+      </c>
+      <c r="AD358" t="inlineStr">
+        <is>
+          <t>-42.912391646059476,173.28337430257744</t>
+        </is>
+      </c>
+      <c r="AE358" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0411/nzd0411.xlsx
+++ b/data/nzd0411/nzd0411.xlsx
@@ -34576,28 +34576,28 @@
         <v>0.1061</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0383870024999999</v>
+        <v>-0.03551216101880567</v>
       </c>
       <c r="J2" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K2" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001210460537539593</v>
+        <v>0.0001043568117650162</v>
       </c>
       <c r="M2" t="n">
-        <v>17.96797175634162</v>
+        <v>17.91498972283031</v>
       </c>
       <c r="N2" t="n">
-        <v>687.6091762612966</v>
+        <v>685.2595514261586</v>
       </c>
       <c r="O2" t="n">
-        <v>26.22230303122318</v>
+        <v>26.17746266210991</v>
       </c>
       <c r="P2" t="n">
-        <v>328.6028806719912</v>
+        <v>328.573931901732</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34654,28 +34654,28 @@
         <v>0.078</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02239220169830579</v>
+        <v>0.01780526321578405</v>
       </c>
       <c r="J3" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K3" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001593478243829827</v>
+        <v>0.0001014174321375405</v>
       </c>
       <c r="M3" t="n">
-        <v>10.51222686270163</v>
+        <v>10.49989551977438</v>
       </c>
       <c r="N3" t="n">
-        <v>179.6241928279922</v>
+        <v>179.1663615020561</v>
       </c>
       <c r="O3" t="n">
-        <v>13.40239504073776</v>
+        <v>13.38530393760471</v>
       </c>
       <c r="P3" t="n">
-        <v>338.1639121753699</v>
+        <v>338.2094189493995</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34732,28 +34732,28 @@
         <v>0.1061</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04044727951131021</v>
+        <v>-0.04175115769833115</v>
       </c>
       <c r="J4" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K4" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004717314435780384</v>
+        <v>0.0005061586885112268</v>
       </c>
       <c r="M4" t="n">
-        <v>11.02725283380349</v>
+        <v>10.99735730884735</v>
       </c>
       <c r="N4" t="n">
-        <v>202.9980016328914</v>
+        <v>202.3262448048092</v>
       </c>
       <c r="O4" t="n">
-        <v>14.24773671966503</v>
+        <v>14.22414302532174</v>
       </c>
       <c r="P4" t="n">
-        <v>343.8367147266634</v>
+        <v>343.8494869885405</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34810,28 +34810,28 @@
         <v>0.1011</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01295822149993334</v>
+        <v>0.003222054933128214</v>
       </c>
       <c r="J5" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K5" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L5" t="n">
-        <v>4.479429239057087e-05</v>
+        <v>2.7799150786878e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>11.73886262531095</v>
+        <v>11.75031751988013</v>
       </c>
       <c r="N5" t="n">
-        <v>221.7775975040599</v>
+        <v>221.7969742383452</v>
       </c>
       <c r="O5" t="n">
-        <v>14.89219921650459</v>
+        <v>14.89284976887719</v>
       </c>
       <c r="P5" t="n">
-        <v>352.5811641215169</v>
+        <v>352.6754548738539</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34888,28 +34888,28 @@
         <v>0.1162</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1166934696683591</v>
+        <v>-0.1233043480923168</v>
       </c>
       <c r="J6" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K6" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002583212875132634</v>
+        <v>0.002901879968392751</v>
       </c>
       <c r="M6" t="n">
-        <v>12.75895790099166</v>
+        <v>12.75274234386576</v>
       </c>
       <c r="N6" t="n">
-        <v>308.7818127812848</v>
+        <v>308.0194783287088</v>
       </c>
       <c r="O6" t="n">
-        <v>17.57218861671149</v>
+        <v>17.55048370640276</v>
       </c>
       <c r="P6" t="n">
-        <v>364.3907801401198</v>
+        <v>364.4552602030064</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34966,28 +34966,28 @@
         <v>0.1021</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2491823620706967</v>
+        <v>-0.2493652240038967</v>
       </c>
       <c r="J7" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K7" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01246931838992571</v>
+        <v>0.01258251035601288</v>
       </c>
       <c r="M7" t="n">
-        <v>12.2485847505232</v>
+        <v>12.20581268581837</v>
       </c>
       <c r="N7" t="n">
-        <v>287.4792201711854</v>
+        <v>286.452763106346</v>
       </c>
       <c r="O7" t="n">
-        <v>16.95521218301869</v>
+        <v>16.9249154534475</v>
       </c>
       <c r="P7" t="n">
-        <v>365.1754819837848</v>
+        <v>365.1772619756517</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35044,28 +35044,28 @@
         <v>0.1072</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5107621736525952</v>
+        <v>-0.5111004333480961</v>
       </c>
       <c r="J8" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K8" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04305001115377538</v>
+        <v>0.04338907819056692</v>
       </c>
       <c r="M8" t="n">
-        <v>13.53024563797168</v>
+        <v>13.4862395283356</v>
       </c>
       <c r="N8" t="n">
-        <v>341.300380398905</v>
+        <v>340.136511728144</v>
       </c>
       <c r="O8" t="n">
-        <v>18.47431677759437</v>
+        <v>18.4427902370586</v>
       </c>
       <c r="P8" t="n">
-        <v>369.4252072939931</v>
+        <v>369.4285456982601</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35122,28 +35122,28 @@
         <v>0.0983</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2542425495728917</v>
+        <v>-0.2554574836192259</v>
       </c>
       <c r="J9" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K9" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01601339272328983</v>
+        <v>0.01627156092614812</v>
       </c>
       <c r="M9" t="n">
-        <v>11.74282462062172</v>
+        <v>11.7102687003476</v>
       </c>
       <c r="N9" t="n">
-        <v>233.4857489830003</v>
+        <v>232.7070764010945</v>
       </c>
       <c r="O9" t="n">
-        <v>15.28024047530013</v>
+        <v>15.254739473393</v>
       </c>
       <c r="P9" t="n">
-        <v>367.7129545227183</v>
+        <v>367.7249844048399</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35200,28 +35200,28 @@
         <v>0.1201</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2490151604942576</v>
+        <v>-0.2485218073276528</v>
       </c>
       <c r="J10" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K10" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01494835388544169</v>
+        <v>0.01500234703280023</v>
       </c>
       <c r="M10" t="n">
-        <v>11.87364044328396</v>
+        <v>11.83328977754344</v>
       </c>
       <c r="N10" t="n">
-        <v>241.4437130645989</v>
+        <v>240.573959285084</v>
       </c>
       <c r="O10" t="n">
-        <v>15.53845915992312</v>
+        <v>15.51044677902877</v>
       </c>
       <c r="P10" t="n">
-        <v>370.2811731290189</v>
+        <v>370.2763884535428</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35278,28 +35278,28 @@
         <v>0.1398</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3007552952940523</v>
+        <v>-0.3010517510993544</v>
       </c>
       <c r="J11" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K11" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01988944286491123</v>
+        <v>0.02007383415014474</v>
       </c>
       <c r="M11" t="n">
-        <v>12.47313529951436</v>
+        <v>12.42879724315785</v>
       </c>
       <c r="N11" t="n">
-        <v>266.4583635220212</v>
+        <v>265.4758276933053</v>
       </c>
       <c r="O11" t="n">
-        <v>16.32355241735148</v>
+        <v>16.29342897284992</v>
       </c>
       <c r="P11" t="n">
-        <v>364.3515798322269</v>
+        <v>364.3544663291791</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35356,28 +35356,28 @@
         <v>0.1417</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1955576509911008</v>
+        <v>-0.2192475407045653</v>
       </c>
       <c r="J12" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K12" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008722518959659142</v>
+        <v>0.01083290165806161</v>
       </c>
       <c r="M12" t="n">
-        <v>11.91460170639602</v>
+        <v>12.01647159899826</v>
       </c>
       <c r="N12" t="n">
-        <v>258.9096631802754</v>
+        <v>262.43899399455</v>
       </c>
       <c r="O12" t="n">
-        <v>16.09067006623016</v>
+        <v>16.19996895041932</v>
       </c>
       <c r="P12" t="n">
-        <v>357.4806624374811</v>
+        <v>357.7134135710264</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35437,7 +35437,7 @@
         <v>0.1207622420817874</v>
       </c>
       <c r="J13" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K13" t="n">
         <v>276</v>
@@ -35515,7 +35515,7 @@
         <v>0.3534034749080798</v>
       </c>
       <c r="J14" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K14" t="n">
         <v>275</v>
@@ -35593,7 +35593,7 @@
         <v>0.4272911317451433</v>
       </c>
       <c r="J15" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K15" t="n">
         <v>279</v>
@@ -35671,7 +35671,7 @@
         <v>0.3905762173365782</v>
       </c>
       <c r="J16" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K16" t="n">
         <v>272</v>
@@ -35749,7 +35749,7 @@
         <v>0.2751098975958373</v>
       </c>
       <c r="J17" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K17" t="n">
         <v>260</v>
@@ -35827,7 +35827,7 @@
         <v>0.1667804517644408</v>
       </c>
       <c r="J18" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K18" t="n">
         <v>257</v>
@@ -35902,28 +35902,28 @@
         <v>0.0912</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2852211121876221</v>
+        <v>0.2547573978259098</v>
       </c>
       <c r="J19" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K19" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01672511676923316</v>
+        <v>0.01317155643748169</v>
       </c>
       <c r="M19" t="n">
-        <v>12.99799555142914</v>
+        <v>13.09313359797753</v>
       </c>
       <c r="N19" t="n">
-        <v>279.6704115191137</v>
+        <v>285.4675270035252</v>
       </c>
       <c r="O19" t="n">
-        <v>16.72334929130865</v>
+        <v>16.89578429678614</v>
       </c>
       <c r="P19" t="n">
-        <v>325.0374868356304</v>
+        <v>325.3396572299909</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35980,28 +35980,28 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3213227438426369</v>
+        <v>0.2944371436047279</v>
       </c>
       <c r="J20" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K20" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02512360645818867</v>
+        <v>0.02086951486943434</v>
       </c>
       <c r="M20" t="n">
-        <v>12.11404723794625</v>
+        <v>12.21694628776729</v>
       </c>
       <c r="N20" t="n">
-        <v>244.5391997661299</v>
+        <v>249.2166161596499</v>
       </c>
       <c r="O20" t="n">
-        <v>15.63774919117614</v>
+        <v>15.78659609161044</v>
       </c>
       <c r="P20" t="n">
-        <v>316.9587102578982</v>
+        <v>317.217713038381</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -36058,28 +36058,28 @@
         <v>0.1149</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4464774983834569</v>
+        <v>0.4203531759169692</v>
       </c>
       <c r="J21" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K21" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02676587961135279</v>
+        <v>0.02369884276345802</v>
       </c>
       <c r="M21" t="n">
-        <v>14.60114942753327</v>
+        <v>14.67977985791185</v>
       </c>
       <c r="N21" t="n">
-        <v>432.9114219777019</v>
+        <v>436.4500802675029</v>
       </c>
       <c r="O21" t="n">
-        <v>20.80652354377592</v>
+        <v>20.89138770564328</v>
       </c>
       <c r="P21" t="n">
-        <v>311.3535128200289</v>
+        <v>311.6088911353345</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -36136,28 +36136,28 @@
         <v>0.0694</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08447917105164432</v>
+        <v>0.06372691940775047</v>
       </c>
       <c r="J22" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K22" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001405328732847044</v>
+        <v>0.0007978676148897579</v>
       </c>
       <c r="M22" t="n">
-        <v>14.02240346437144</v>
+        <v>14.08946513821912</v>
       </c>
       <c r="N22" t="n">
-        <v>298.5277060036419</v>
+        <v>300.5579364530463</v>
       </c>
       <c r="O22" t="n">
-        <v>17.27795433503752</v>
+        <v>17.33660683216431</v>
       </c>
       <c r="P22" t="n">
-        <v>316.1208394752726</v>
+        <v>316.3266921898952</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -36214,28 +36214,28 @@
         <v>0.09859999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.05274865265244721</v>
+        <v>-0.07022369334727521</v>
       </c>
       <c r="J23" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K23" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0005750383134354164</v>
+        <v>0.001018344540664184</v>
       </c>
       <c r="M23" t="n">
-        <v>13.07229687986177</v>
+        <v>13.12983772039679</v>
       </c>
       <c r="N23" t="n">
-        <v>288.4479395930533</v>
+        <v>289.6517365619351</v>
       </c>
       <c r="O23" t="n">
-        <v>16.98375516760217</v>
+        <v>17.01915792752201</v>
       </c>
       <c r="P23" t="n">
-        <v>317.2156576504478</v>
+        <v>317.3873750073938</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -36292,28 +36292,28 @@
         <v>0.1676</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.02565674644016058</v>
+        <v>-0.04305413266909985</v>
       </c>
       <c r="J24" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K24" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001615716519963728</v>
+        <v>0.0004543476020288928</v>
       </c>
       <c r="M24" t="n">
-        <v>11.88453183612835</v>
+        <v>11.93549360540858</v>
       </c>
       <c r="N24" t="n">
-        <v>240.2906122975318</v>
+        <v>241.5412493678118</v>
       </c>
       <c r="O24" t="n">
-        <v>15.50131001875428</v>
+        <v>15.54159738790745</v>
       </c>
       <c r="P24" t="n">
-        <v>317.5256038580854</v>
+        <v>317.696610822635</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -36370,28 +36370,28 @@
         <v>0.1021</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.01115319312790247</v>
+        <v>-0.03392378552255491</v>
       </c>
       <c r="J25" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K25" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L25" t="n">
-        <v>3.294223978711486e-05</v>
+        <v>0.0003024156662778665</v>
       </c>
       <c r="M25" t="n">
-        <v>11.54257662910165</v>
+        <v>11.62017447210416</v>
       </c>
       <c r="N25" t="n">
-        <v>224.5141247980707</v>
+        <v>227.1583396411305</v>
       </c>
       <c r="O25" t="n">
-        <v>14.98379540697452</v>
+        <v>15.07177294286012</v>
       </c>
       <c r="P25" t="n">
-        <v>316.9298192732235</v>
+        <v>317.1533631233381</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -36448,28 +36448,28 @@
         <v>0.1086</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.02007877955548121</v>
+        <v>-0.03810162912931864</v>
       </c>
       <c r="J26" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K26" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001119482690115081</v>
+        <v>0.0004019509687951395</v>
       </c>
       <c r="M26" t="n">
-        <v>11.44717416906869</v>
+        <v>11.50158283861904</v>
       </c>
       <c r="N26" t="n">
-        <v>218.3438408550388</v>
+        <v>219.8131655221588</v>
       </c>
       <c r="O26" t="n">
-        <v>14.77646239311151</v>
+        <v>14.82609744747952</v>
       </c>
       <c r="P26" t="n">
-        <v>317.5882571564068</v>
+        <v>317.7623947550481</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -36526,28 +36526,28 @@
         <v>0.1437</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1358616786575276</v>
+        <v>0.1234366618620497</v>
       </c>
       <c r="J27" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K27" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001841798326682187</v>
+        <v>0.001530925656813342</v>
       </c>
       <c r="M27" t="n">
-        <v>12.39796155348172</v>
+        <v>12.4190000473317</v>
       </c>
       <c r="N27" t="n">
-        <v>600.1431687394655</v>
+        <v>598.6941825103723</v>
       </c>
       <c r="O27" t="n">
-        <v>24.49781967317634</v>
+        <v>24.46822802146433</v>
       </c>
       <c r="P27" t="n">
-        <v>315.1244879547473</v>
+        <v>315.2454361096348</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -36604,28 +36604,28 @@
         <v>0.1558</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.1444616359792285</v>
+        <v>-0.1548023065206647</v>
       </c>
       <c r="J28" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K28" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L28" t="n">
-        <v>0.004400073845160835</v>
+        <v>0.005074158750938973</v>
       </c>
       <c r="M28" t="n">
-        <v>11.4582472282197</v>
+        <v>11.46993331218177</v>
       </c>
       <c r="N28" t="n">
-        <v>290.1293039529486</v>
+        <v>289.7478348913999</v>
       </c>
       <c r="O28" t="n">
-        <v>17.03318243761126</v>
+        <v>17.02198093323453</v>
       </c>
       <c r="P28" t="n">
-        <v>321.3779538896219</v>
+        <v>321.4784440419348</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -36682,28 +36682,28 @@
         <v>0.1987</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1854416276981783</v>
+        <v>-0.1988734725120958</v>
       </c>
       <c r="J29" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K29" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01223499052098354</v>
+        <v>0.01404710557324274</v>
       </c>
       <c r="M29" t="n">
-        <v>9.586347759842674</v>
+        <v>9.631138378794915</v>
       </c>
       <c r="N29" t="n">
-        <v>166.2691749202681</v>
+        <v>166.9418832975317</v>
       </c>
       <c r="O29" t="n">
-        <v>12.89454050830305</v>
+        <v>12.92059918492683</v>
       </c>
       <c r="P29" t="n">
-        <v>324.7594073076113</v>
+        <v>324.8895082835363</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -36760,28 +36760,28 @@
         <v>0.1121</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.16520872226174</v>
+        <v>-0.1783986157888183</v>
       </c>
       <c r="J30" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K30" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01040377477343157</v>
+        <v>0.01210505645098792</v>
       </c>
       <c r="M30" t="n">
-        <v>9.596102258244255</v>
+        <v>9.633990421943794</v>
       </c>
       <c r="N30" t="n">
-        <v>152.5195578935228</v>
+        <v>153.225260771978</v>
       </c>
       <c r="O30" t="n">
-        <v>12.34988088580302</v>
+        <v>12.37841915480236</v>
       </c>
       <c r="P30" t="n">
-        <v>326.5199052588299</v>
+        <v>326.6486650574612</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">

--- a/data/nzd0411/nzd0411.xlsx
+++ b/data/nzd0411/nzd0411.xlsx
@@ -34567,13 +34567,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G2" t="n">
         <v>0.0535</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1061</v>
+        <v>0.1224</v>
       </c>
       <c r="I2" t="n">
         <v>-0.03549968181239946</v>
@@ -34645,13 +34645,13 @@
         <v>0.03571702900243924</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0537</v>
+        <v>0.0643</v>
       </c>
       <c r="H3" t="n">
-        <v>0.078</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>0.0177851769747118</v>
@@ -34723,13 +34723,13 @@
         <v>0.07143405800509155</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0727</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1061</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>-0.04178497804549954</v>
@@ -34801,13 +34801,13 @@
         <v>0.1071510870077439</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G5" t="n">
-        <v>0.076</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1011</v>
+        <v>0.156</v>
       </c>
       <c r="I5" t="n">
         <v>0.003187710792293553</v>
@@ -34882,10 +34882,10 @@
         <v>0.095</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07779999999999999</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1162</v>
+        <v>0.1215</v>
       </c>
       <c r="I6" t="n">
         <v>-0.1232714004566831</v>
@@ -34957,13 +34957,13 @@
         <v>0.1785700630512497</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.0839</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1021</v>
+        <v>0.1302</v>
       </c>
       <c r="I7" t="n">
         <v>-0.2494123926725372</v>
@@ -35035,13 +35035,13 @@
         <v>0.2142870920532247</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0707</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1072</v>
+        <v>0.129</v>
       </c>
       <c r="I8" t="n">
         <v>-0.5111311313043225</v>
@@ -35113,13 +35113,13 @@
         <v>0.2500041210555075</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.0648</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0983</v>
+        <v>0.1496</v>
       </c>
       <c r="I9" t="n">
         <v>-0.2554300091782013</v>
@@ -35191,13 +35191,13 @@
         <v>0.2857211500574826</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09</v>
+        <v>0.075</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.0547</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1201</v>
+        <v>0.115</v>
       </c>
       <c r="I10" t="n">
         <v>-0.248523219537255</v>
@@ -35269,13 +35269,13 @@
         <v>0.3214285419944631</v>
       </c>
       <c r="F11" t="n">
-        <v>0.105</v>
+        <v>0.15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0824</v>
+        <v>0.092</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1398</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
         <v>-0.3010274270358019</v>
@@ -35347,13 +35347,13 @@
         <v>0.3571455709965319</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07580000000000001</v>
+        <v>0.0592</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1417</v>
+        <v>0.18</v>
       </c>
       <c r="I12" t="n">
         <v>-0.2192475407045655</v>
@@ -35425,13 +35425,13 @@
         <v>0.3928625999988876</v>
       </c>
       <c r="F13" t="n">
-        <v>0.13</v>
+        <v>0.075</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0922</v>
+        <v>0.0511</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.1381</v>
       </c>
       <c r="I13" t="n">
         <v>0.1207380658540389</v>
@@ -35506,7 +35506,7 @@
         <v>0.125</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0837</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0.2</v>
@@ -35581,13 +35581,13 @@
         <v>0.4642966580036985</v>
       </c>
       <c r="F15" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08359999999999999</v>
+        <v>0.0537</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2</v>
+        <v>0.1427</v>
       </c>
       <c r="I15" t="n">
         <v>0.4273122814590923</v>
@@ -35659,13 +35659,13 @@
         <v>0.5000136870060543</v>
       </c>
       <c r="F16" t="n">
-        <v>0.105</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0793</v>
+        <v>0.0493</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1534</v>
+        <v>0.1095</v>
       </c>
       <c r="I16" t="n">
         <v>0.390587340409944</v>
@@ -35740,10 +35740,10 @@
         <v>0.065</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0473</v>
+        <v>0.04</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1082</v>
+        <v>0.1522</v>
       </c>
       <c r="I17" t="n">
         <v>0.2751121672374333</v>
@@ -35815,13 +35815,13 @@
         <v>0.5714143199466644</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0438</v>
+        <v>0.0432</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1029</v>
+        <v>0.1467</v>
       </c>
       <c r="I18" t="n">
         <v>0.166770697494982</v>
@@ -35893,13 +35893,13 @@
         <v>0.6071313489488959</v>
       </c>
       <c r="F19" t="n">
-        <v>0.065</v>
+        <v>0.05</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0535</v>
+        <v>0.0386</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0912</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="I19" t="n">
         <v>0.2547522497592258</v>
@@ -35971,13 +35971,13 @@
         <v>0.6428300412960748</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0558</v>
+        <v>0.0314</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09760000000000001</v>
+        <v>0.0504</v>
       </c>
       <c r="I20" t="n">
         <v>0.2944703881118718</v>
@@ -36049,13 +36049,13 @@
         <v>0.6785470702981441</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08</v>
+        <v>0.045</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0593</v>
+        <v>0.0334</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1149</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="I21" t="n">
         <v>0.4203834807638909</v>
@@ -36127,13 +36127,13 @@
         <v>0.7142640993002135</v>
       </c>
       <c r="F22" t="n">
-        <v>0.055</v>
+        <v>0.04</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0439</v>
+        <v>0.0326</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0694</v>
+        <v>0.0583</v>
       </c>
       <c r="I22" t="n">
         <v>0.06373710046725556</v>
@@ -36205,13 +36205,13 @@
         <v>0.7499811283022829</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0537</v>
+        <v>0.0381</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09859999999999999</v>
+        <v>0.0893</v>
       </c>
       <c r="I23" t="n">
         <v>-0.07020954981636837</v>
@@ -36283,13 +36283,13 @@
         <v>0.785698157305192</v>
       </c>
       <c r="F24" t="n">
-        <v>0.105</v>
+        <v>0.045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07729999999999999</v>
+        <v>0.0325</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1676</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="I24" t="n">
         <v>-0.04303703336939559</v>
@@ -36361,13 +36361,13 @@
         <v>0.8214148549889337</v>
       </c>
       <c r="F25" t="n">
-        <v>0.065</v>
+        <v>0.05</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0499</v>
+        <v>0.0348</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1021</v>
+        <v>0.0924</v>
       </c>
       <c r="I25" t="n">
         <v>-0.03395415119964937</v>
@@ -36439,13 +36439,13 @@
         <v>0.8571318839917897</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06909999999999999</v>
+        <v>0.0494</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1086</v>
+        <v>0.2</v>
       </c>
       <c r="I26" t="n">
         <v>-0.03812801432291229</v>
@@ -36517,13 +36517,13 @@
         <v>0.8928489129940316</v>
       </c>
       <c r="F27" t="n">
-        <v>0.105</v>
+        <v>0.06</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08019999999999999</v>
+        <v>0.0367</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1437</v>
+        <v>0.1846</v>
       </c>
       <c r="I27" t="n">
         <v>0.1234572270636698</v>
@@ -36595,13 +36595,13 @@
         <v>0.9285659419962735</v>
       </c>
       <c r="F28" t="n">
-        <v>0.11</v>
+        <v>0.065</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0859</v>
+        <v>0.0407</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1558</v>
+        <v>0.1883</v>
       </c>
       <c r="I28" t="n">
         <v>-0.1548112121624124</v>
@@ -36673,13 +36673,13 @@
         <v>0.9642829709991295</v>
       </c>
       <c r="F29" t="n">
-        <v>0.125</v>
+        <v>0.075</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0924</v>
+        <v>0.0445</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1987</v>
+        <v>0.2</v>
       </c>
       <c r="I29" t="n">
         <v>-0.1988734725120957</v>
@@ -36751,13 +36751,13 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07389999999999999</v>
+        <v>0.0776</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1121</v>
+        <v>0.2</v>
       </c>
       <c r="I30" t="n">
         <v>-0.1784133117357725</v>
